--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3408660888672</v>
+        <v>176.8521423339844</v>
       </c>
       <c r="H2" t="n">
-        <v>35.62818145751953</v>
+        <v>34.62120819091797</v>
       </c>
       <c r="I2" t="n">
-        <v>635.346435546875</v>
+        <v>644.4839477539062</v>
       </c>
       <c r="J2" t="n">
-        <v>128.3897399902344</v>
+        <v>129.0852661132812</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>187.9212036132812</v>
+        <v>187.3978881835938</v>
       </c>
       <c r="H3" t="n">
-        <v>43.778076171875</v>
+        <v>41.68850708007812</v>
       </c>
       <c r="I3" t="n">
-        <v>748.4251708984375</v>
+        <v>746.889404296875</v>
       </c>
       <c r="J3" t="n">
-        <v>132.6996917724609</v>
+        <v>127.8882827758789</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>207.6798400878906</v>
+        <v>209.0408325195312</v>
       </c>
       <c r="H4" t="n">
-        <v>54.59822082519531</v>
+        <v>56.19004058837891</v>
       </c>
       <c r="I4" t="n">
-        <v>799.5736083984375</v>
+        <v>801.5802001953125</v>
       </c>
       <c r="J4" t="n">
-        <v>117.8420944213867</v>
+        <v>121.865364074707</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>240.9026489257812</v>
+        <v>239.8846893310547</v>
       </c>
       <c r="H5" t="n">
-        <v>67.9375</v>
+        <v>68.25827789306641</v>
       </c>
       <c r="I5" t="n">
-        <v>835.4400634765625</v>
+        <v>830.5703735351562</v>
       </c>
       <c r="J5" t="n">
-        <v>104.8205642700195</v>
+        <v>108.5672149658203</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>298.7322692871094</v>
+        <v>299.4557189941406</v>
       </c>
       <c r="H6" t="n">
-        <v>87.2349853515625</v>
+        <v>86.01506805419922</v>
       </c>
       <c r="I6" t="n">
-        <v>845.376708984375</v>
+        <v>849.5125732421875</v>
       </c>
       <c r="J6" t="n">
-        <v>94.5179443359375</v>
+        <v>90.90727233886719</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7672271728516</v>
+        <v>168.2406921386719</v>
       </c>
       <c r="H7" t="n">
-        <v>30.46644592285156</v>
+        <v>30.87805557250977</v>
       </c>
       <c r="I7" t="n">
-        <v>549.9786987304688</v>
+        <v>549.365234375</v>
       </c>
       <c r="J7" t="n">
-        <v>75.85973358154297</v>
+        <v>72.34009552001953</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>176.28955078125</v>
+        <v>175.7864227294922</v>
       </c>
       <c r="H8" t="n">
-        <v>33.20279693603516</v>
+        <v>33.5926399230957</v>
       </c>
       <c r="I8" t="n">
-        <v>567.9177856445312</v>
+        <v>564.6460571289062</v>
       </c>
       <c r="J8" t="n">
-        <v>93.53395080566406</v>
+        <v>93.47731018066406</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>187.2785186767578</v>
+        <v>187.8671417236328</v>
       </c>
       <c r="H9" t="n">
-        <v>38.2999382019043</v>
+        <v>39.12727355957031</v>
       </c>
       <c r="I9" t="n">
-        <v>655.3905029296875</v>
+        <v>653.1943969726562</v>
       </c>
       <c r="J9" t="n">
-        <v>121.7962265014648</v>
+        <v>117.7522659301758</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>206.1120910644531</v>
+        <v>203.7597503662109</v>
       </c>
       <c r="H10" t="n">
-        <v>47.54150009155273</v>
+        <v>46.21833419799805</v>
       </c>
       <c r="I10" t="n">
-        <v>736.5062255859375</v>
+        <v>745.630126953125</v>
       </c>
       <c r="J10" t="n">
-        <v>120.1544876098633</v>
+        <v>125.0598297119141</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>239.9323883056641</v>
+        <v>242.8064270019531</v>
       </c>
       <c r="H11" t="n">
-        <v>60.04055404663086</v>
+        <v>63.22200012207031</v>
       </c>
       <c r="I11" t="n">
-        <v>796.882080078125</v>
+        <v>794.5179443359375</v>
       </c>
       <c r="J11" t="n">
-        <v>119.415397644043</v>
+        <v>119.7440948486328</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>306.1007995605469</v>
+        <v>306.3700256347656</v>
       </c>
       <c r="H12" t="n">
-        <v>79.74102783203125</v>
+        <v>80.23021697998047</v>
       </c>
       <c r="I12" t="n">
-        <v>822.2064819335938</v>
+        <v>824.6475830078125</v>
       </c>
       <c r="J12" t="n">
-        <v>108.8433227539062</v>
+        <v>102.0533142089844</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>427.822265625</v>
+        <v>427.0222778320312</v>
       </c>
       <c r="H13" t="n">
-        <v>105.7572402954102</v>
+        <v>108.0398254394531</v>
       </c>
       <c r="I13" t="n">
-        <v>834.6739501953125</v>
+        <v>831.2483520507812</v>
       </c>
       <c r="J13" t="n">
-        <v>99.06842803955078</v>
+        <v>106.2834548950195</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>147.4498443603516</v>
+        <v>147.9490509033203</v>
       </c>
       <c r="H14" t="n">
-        <v>38.68787384033203</v>
+        <v>37.26594924926758</v>
       </c>
       <c r="I14" t="n">
-        <v>358.1349182128906</v>
+        <v>365.6533813476562</v>
       </c>
       <c r="J14" t="n">
-        <v>99.15000915527344</v>
+        <v>98.24006652832031</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>160.2360687255859</v>
+        <v>159.5214538574219</v>
       </c>
       <c r="H15" t="n">
-        <v>32.55047988891602</v>
+        <v>32.94806671142578</v>
       </c>
       <c r="I15" t="n">
-        <v>480.1607360839844</v>
+        <v>479.7889099121094</v>
       </c>
       <c r="J15" t="n">
-        <v>86.74830627441406</v>
+        <v>86.74043273925781</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>184.7404174804688</v>
+        <v>183.3482666015625</v>
       </c>
       <c r="H16" t="n">
-        <v>36.04093933105469</v>
+        <v>32.93244934082031</v>
       </c>
       <c r="I16" t="n">
-        <v>580.1537475585938</v>
+        <v>580.6991577148438</v>
       </c>
       <c r="J16" t="n">
-        <v>62.90427780151367</v>
+        <v>63.48531723022461</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>190.01025390625</v>
+        <v>191.30224609375</v>
       </c>
       <c r="H17" t="n">
-        <v>33.274658203125</v>
+        <v>34.38262557983398</v>
       </c>
       <c r="I17" t="n">
-        <v>581.5806884765625</v>
+        <v>581.4596557617188</v>
       </c>
       <c r="J17" t="n">
-        <v>99.18788146972656</v>
+        <v>85.56120300292969</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>204.6975860595703</v>
+        <v>206.6876373291016</v>
       </c>
       <c r="H18" t="n">
-        <v>40.60178375244141</v>
+        <v>41.3004264831543</v>
       </c>
       <c r="I18" t="n">
-        <v>659.341796875</v>
+        <v>662.2728271484375</v>
       </c>
       <c r="J18" t="n">
-        <v>124.3378219604492</v>
+        <v>123.2137985229492</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>248.9267730712891</v>
+        <v>247.4917907714844</v>
       </c>
       <c r="H19" t="n">
-        <v>57.50625228881836</v>
+        <v>54.3752555847168</v>
       </c>
       <c r="I19" t="n">
-        <v>744.2390747070312</v>
+        <v>750.549072265625</v>
       </c>
       <c r="J19" t="n">
-        <v>123.3652877807617</v>
+        <v>122.1582336425781</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>306.762451171875</v>
+        <v>308.1179809570312</v>
       </c>
       <c r="H20" t="n">
-        <v>72.98179626464844</v>
+        <v>71.12483215332031</v>
       </c>
       <c r="I20" t="n">
-        <v>793.3468017578125</v>
+        <v>794.6434936523438</v>
       </c>
       <c r="J20" t="n">
-        <v>114.0313568115234</v>
+        <v>112.4901885986328</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>438.6468200683594</v>
+        <v>439.5880737304688</v>
       </c>
       <c r="H21" t="n">
-        <v>103.931999206543</v>
+        <v>103.5003051757812</v>
       </c>
       <c r="I21" t="n">
-        <v>815.3274536132812</v>
+        <v>815.9996337890625</v>
       </c>
       <c r="J21" t="n">
-        <v>116.2628173828125</v>
+        <v>111.143928527832</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>626.5758056640625</v>
+        <v>627.6926879882812</v>
       </c>
       <c r="H22" t="n">
-        <v>115.1710739135742</v>
+        <v>115.2584457397461</v>
       </c>
       <c r="I22" t="n">
-        <v>843.368896484375</v>
+        <v>837.7577514648438</v>
       </c>
       <c r="J22" t="n">
-        <v>104.5481643676758</v>
+        <v>109.1518859863281</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>147.7035064697266</v>
+        <v>146.7759552001953</v>
       </c>
       <c r="H23" t="n">
-        <v>43.9951286315918</v>
+        <v>40.39538955688477</v>
       </c>
       <c r="I23" t="n">
-        <v>296.5095825195312</v>
+        <v>294.6742248535156</v>
       </c>
       <c r="J23" t="n">
-        <v>79.72355651855469</v>
+        <v>77.75921630859375</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>158.7054595947266</v>
+        <v>158.4103851318359</v>
       </c>
       <c r="H24" t="n">
-        <v>37.38303375244141</v>
+        <v>37.41307830810547</v>
       </c>
       <c r="I24" t="n">
-        <v>347.2893371582031</v>
+        <v>348.8781127929688</v>
       </c>
       <c r="J24" t="n">
-        <v>89.00736999511719</v>
+        <v>88.511474609375</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>177.4853057861328</v>
+        <v>177.9455413818359</v>
       </c>
       <c r="H25" t="n">
-        <v>33.14683151245117</v>
+        <v>34.65254592895508</v>
       </c>
       <c r="I25" t="n">
-        <v>439.5437927246094</v>
+        <v>436.9764099121094</v>
       </c>
       <c r="J25" t="n">
-        <v>89.68744659423828</v>
+        <v>87.19610595703125</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3323211669922</v>
+        <v>195.2911529541016</v>
       </c>
       <c r="H26" t="n">
-        <v>32.56956481933594</v>
+        <v>34.3802375793457</v>
       </c>
       <c r="I26" t="n">
-        <v>513.3601684570312</v>
+        <v>512.36669921875</v>
       </c>
       <c r="J26" t="n">
-        <v>79.12036895751953</v>
+        <v>86.96339416503906</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>216.77587890625</v>
+        <v>214.4496765136719</v>
       </c>
       <c r="H27" t="n">
-        <v>36.63366317749023</v>
+        <v>35.39957046508789</v>
       </c>
       <c r="I27" t="n">
-        <v>587.3248901367188</v>
+        <v>592.2384643554688</v>
       </c>
       <c r="J27" t="n">
-        <v>98.2532958984375</v>
+        <v>101.0478591918945</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>251.5350189208984</v>
+        <v>252.9157562255859</v>
       </c>
       <c r="H28" t="n">
-        <v>48.35527038574219</v>
+        <v>48.95168685913086</v>
       </c>
       <c r="I28" t="n">
-        <v>697.9218139648438</v>
+        <v>701.169677734375</v>
       </c>
       <c r="J28" t="n">
-        <v>131.5747528076172</v>
+        <v>127.294677734375</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>322.2101135253906</v>
+        <v>319.7652282714844</v>
       </c>
       <c r="H29" t="n">
-        <v>70.39443969726562</v>
+        <v>69.50328063964844</v>
       </c>
       <c r="I29" t="n">
-        <v>774.2807006835938</v>
+        <v>768.8616333007812</v>
       </c>
       <c r="J29" t="n">
-        <v>116.0558776855469</v>
+        <v>116.7212829589844</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>460.7301025390625</v>
+        <v>462.7667846679688</v>
       </c>
       <c r="H30" t="n">
-        <v>98.1400146484375</v>
+        <v>101.5010070800781</v>
       </c>
       <c r="I30" t="n">
-        <v>807.1874389648438</v>
+        <v>811.2459106445312</v>
       </c>
       <c r="J30" t="n">
-        <v>116.7652740478516</v>
+        <v>113.0906982421875</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>651.883056640625</v>
+        <v>648.2933349609375</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4768371582031</v>
+        <v>113.0836486816406</v>
       </c>
       <c r="I31" t="n">
-        <v>831.5802612304688</v>
+        <v>829.5900268554688</v>
       </c>
       <c r="J31" t="n">
-        <v>110.3363723754883</v>
+        <v>116.0622406005859</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>144.9621429443359</v>
+        <v>144.9596252441406</v>
       </c>
       <c r="H32" t="n">
-        <v>43.31273651123047</v>
+        <v>42.90689849853516</v>
       </c>
       <c r="I32" t="n">
-        <v>256.0706176757812</v>
+        <v>249.7936706542969</v>
       </c>
       <c r="J32" t="n">
-        <v>91.0208740234375</v>
+        <v>93.69024658203125</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>162.0843505859375</v>
+        <v>163.0381469726562</v>
       </c>
       <c r="H33" t="n">
-        <v>40.07734298706055</v>
+        <v>41.17400360107422</v>
       </c>
       <c r="I33" t="n">
-        <v>312.6501159667969</v>
+        <v>316.5923461914062</v>
       </c>
       <c r="J33" t="n">
-        <v>83.47531127929688</v>
+        <v>87.31673431396484</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>179.2975769042969</v>
+        <v>178.7285308837891</v>
       </c>
       <c r="H34" t="n">
-        <v>37.70974731445312</v>
+        <v>35.96098327636719</v>
       </c>
       <c r="I34" t="n">
-        <v>370.0055847167969</v>
+        <v>377.1118774414062</v>
       </c>
       <c r="J34" t="n">
-        <v>84.01332092285156</v>
+        <v>85.40158843994141</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>203.2899780273438</v>
+        <v>202.9307556152344</v>
       </c>
       <c r="H35" t="n">
-        <v>36.88232040405273</v>
+        <v>38.47993469238281</v>
       </c>
       <c r="I35" t="n">
-        <v>442.5255126953125</v>
+        <v>441.5807800292969</v>
       </c>
       <c r="J35" t="n">
-        <v>79.58632659912109</v>
+        <v>79.73329925537109</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>231.5561981201172</v>
+        <v>231.5247955322266</v>
       </c>
       <c r="H36" t="n">
-        <v>39.42192077636719</v>
+        <v>39.95569229125977</v>
       </c>
       <c r="I36" t="n">
-        <v>533.287841796875</v>
+        <v>534.1516723632812</v>
       </c>
       <c r="J36" t="n">
-        <v>92.46254730224609</v>
+        <v>97.11022186279297</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>271.9741516113281</v>
+        <v>270.1227111816406</v>
       </c>
       <c r="H37" t="n">
-        <v>51.51655960083008</v>
+        <v>50.53187942504883</v>
       </c>
       <c r="I37" t="n">
-        <v>645.4031372070312</v>
+        <v>642.6130981445312</v>
       </c>
       <c r="J37" t="n">
-        <v>129.3318023681641</v>
+        <v>125.8636932373047</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>351.8587036132812</v>
+        <v>350.1155395507812</v>
       </c>
       <c r="H38" t="n">
-        <v>79.50626373291016</v>
+        <v>75.62403106689453</v>
       </c>
       <c r="I38" t="n">
-        <v>759.77978515625</v>
+        <v>765.198486328125</v>
       </c>
       <c r="J38" t="n">
-        <v>126.5608215332031</v>
+        <v>122.6177139282227</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>484.5776977539062</v>
+        <v>479.440673828125</v>
       </c>
       <c r="H39" t="n">
-        <v>103.6818618774414</v>
+        <v>102.6575927734375</v>
       </c>
       <c r="I39" t="n">
-        <v>814.5208129882812</v>
+        <v>805.836669921875</v>
       </c>
       <c r="J39" t="n">
-        <v>106.1890182495117</v>
+        <v>105.8704376220703</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>670.141357421875</v>
+        <v>671.076904296875</v>
       </c>
       <c r="H40" t="n">
-        <v>112.6498336791992</v>
+        <v>114.6423492431641</v>
       </c>
       <c r="I40" t="n">
-        <v>829.7283325195312</v>
+        <v>831.6868286132812</v>
       </c>
       <c r="J40" t="n">
-        <v>111.0983352661133</v>
+        <v>109.8999862670898</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>148.2070922851562</v>
+        <v>147.3553314208984</v>
       </c>
       <c r="H41" t="n">
-        <v>41.89666366577148</v>
+        <v>40.64298248291016</v>
       </c>
       <c r="I41" t="n">
-        <v>197.4457244873047</v>
+        <v>193.3666076660156</v>
       </c>
       <c r="J41" t="n">
-        <v>118.7189788818359</v>
+        <v>114.7882995605469</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>162.1366882324219</v>
+        <v>161.4929351806641</v>
       </c>
       <c r="H42" t="n">
-        <v>41.96122741699219</v>
+        <v>40.82029724121094</v>
       </c>
       <c r="I42" t="n">
-        <v>273.3919677734375</v>
+        <v>282.1340942382812</v>
       </c>
       <c r="J42" t="n">
-        <v>107.0981063842773</v>
+        <v>106.8511276245117</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>179.3114776611328</v>
+        <v>178.4472808837891</v>
       </c>
       <c r="H43" t="n">
-        <v>48.2889404296875</v>
+        <v>47.55658721923828</v>
       </c>
       <c r="I43" t="n">
-        <v>338.4278259277344</v>
+        <v>336.1344299316406</v>
       </c>
       <c r="J43" t="n">
-        <v>94.08715057373047</v>
+        <v>100.5220031738281</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>201.2326507568359</v>
+        <v>202.7844085693359</v>
       </c>
       <c r="H44" t="n">
-        <v>46.4146728515625</v>
+        <v>47.751220703125</v>
       </c>
       <c r="I44" t="n">
-        <v>425.0336303710938</v>
+        <v>422.1080322265625</v>
       </c>
       <c r="J44" t="n">
-        <v>72.07128143310547</v>
+        <v>73.84836578369141</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>226.5489807128906</v>
+        <v>228.5634155273438</v>
       </c>
       <c r="H45" t="n">
-        <v>54.22804260253906</v>
+        <v>56.55595016479492</v>
       </c>
       <c r="I45" t="n">
-        <v>471.8819274902344</v>
+        <v>471.7982788085938</v>
       </c>
       <c r="J45" t="n">
-        <v>73.30655670166016</v>
+        <v>75.08937835693359</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>277.7914123535156</v>
+        <v>278.6069030761719</v>
       </c>
       <c r="H46" t="n">
-        <v>65.22372436523438</v>
+        <v>63.0848388671875</v>
       </c>
       <c r="I46" t="n">
-        <v>565.4229736328125</v>
+        <v>572.1695556640625</v>
       </c>
       <c r="J46" t="n">
-        <v>117.8240737915039</v>
+        <v>124.6270141601562</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>368.5244750976562</v>
+        <v>369.798095703125</v>
       </c>
       <c r="H47" t="n">
-        <v>91.75124359130859</v>
+        <v>95.36069488525391</v>
       </c>
       <c r="I47" t="n">
-        <v>713.5121459960938</v>
+        <v>715.9639282226562</v>
       </c>
       <c r="J47" t="n">
-        <v>136.5299835205078</v>
+        <v>138.9308471679688</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>506.0751037597656</v>
+        <v>506.2270202636719</v>
       </c>
       <c r="H48" t="n">
-        <v>109.037956237793</v>
+        <v>108.2384414672852</v>
       </c>
       <c r="I48" t="n">
-        <v>802.5620727539062</v>
+        <v>804.4442749023438</v>
       </c>
       <c r="J48" t="n">
-        <v>118.5842819213867</v>
+        <v>117.1156997680664</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>657.0119018554688</v>
+        <v>655.9319458007812</v>
       </c>
       <c r="H49" t="n">
-        <v>116.8483200073242</v>
+        <v>116.8955917358398</v>
       </c>
       <c r="I49" t="n">
-        <v>837.6549072265625</v>
+        <v>831.3050537109375</v>
       </c>
       <c r="J49" t="n">
-        <v>98.26166534423828</v>
+        <v>106.2629852294922</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>152.701416015625</v>
+        <v>152.3389587402344</v>
       </c>
       <c r="H50" t="n">
-        <v>45.35275268554688</v>
+        <v>43.40839767456055</v>
       </c>
       <c r="I50" t="n">
-        <v>110.9407043457031</v>
+        <v>112.3438949584961</v>
       </c>
       <c r="J50" t="n">
-        <v>133.8358306884766</v>
+        <v>136.6056671142578</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>164.8607330322266</v>
+        <v>166.4022369384766</v>
       </c>
       <c r="H51" t="n">
-        <v>49.78178405761719</v>
+        <v>47.88074111938477</v>
       </c>
       <c r="I51" t="n">
-        <v>179.8197784423828</v>
+        <v>183.562744140625</v>
       </c>
       <c r="J51" t="n">
-        <v>142.959716796875</v>
+        <v>144.6014862060547</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>178.8272705078125</v>
+        <v>180.4019622802734</v>
       </c>
       <c r="H52" t="n">
-        <v>55.71686172485352</v>
+        <v>53.29839324951172</v>
       </c>
       <c r="I52" t="n">
-        <v>255.8491668701172</v>
+        <v>251.5912780761719</v>
       </c>
       <c r="J52" t="n">
-        <v>143.4573516845703</v>
+        <v>139.5487670898438</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>202.1922454833984</v>
+        <v>205.9866027832031</v>
       </c>
       <c r="H53" t="n">
-        <v>61.48443984985352</v>
+        <v>65.20350646972656</v>
       </c>
       <c r="I53" t="n">
-        <v>393.8024597167969</v>
+        <v>392.0196228027344</v>
       </c>
       <c r="J53" t="n">
-        <v>92.44449615478516</v>
+        <v>90.74674987792969</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>239.6768493652344</v>
+        <v>243.7206573486328</v>
       </c>
       <c r="H54" t="n">
-        <v>77.93303680419922</v>
+        <v>75.79901123046875</v>
       </c>
       <c r="I54" t="n">
-        <v>462.5013122558594</v>
+        <v>462.5200500488281</v>
       </c>
       <c r="J54" t="n">
-        <v>75.88842010498047</v>
+        <v>74.58250427246094</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>290.9455261230469</v>
+        <v>290.4220581054688</v>
       </c>
       <c r="H55" t="n">
-        <v>90.33993530273438</v>
+        <v>89.80757141113281</v>
       </c>
       <c r="I55" t="n">
-        <v>519.59375</v>
+        <v>519.1021118164062</v>
       </c>
       <c r="J55" t="n">
-        <v>90.75947570800781</v>
+        <v>98.09042358398438</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>368.4529724121094</v>
+        <v>370.4905090332031</v>
       </c>
       <c r="H56" t="n">
-        <v>106.6306991577148</v>
+        <v>111.2610855102539</v>
       </c>
       <c r="I56" t="n">
-        <v>628.1950073242188</v>
+        <v>634.239501953125</v>
       </c>
       <c r="J56" t="n">
-        <v>140.9155120849609</v>
+        <v>137.173583984375</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>473.7834777832031</v>
+        <v>472.0424499511719</v>
       </c>
       <c r="H57" t="n">
-        <v>123.2998428344727</v>
+        <v>122.5171890258789</v>
       </c>
       <c r="I57" t="n">
-        <v>778.366455078125</v>
+        <v>770.7764282226562</v>
       </c>
       <c r="J57" t="n">
-        <v>135.1761474609375</v>
+        <v>133.5987396240234</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>661.8544921875</v>
+        <v>663.2721557617188</v>
       </c>
       <c r="H58" t="n">
-        <v>124.2782974243164</v>
+        <v>123.7781295776367</v>
       </c>
       <c r="I58" t="n">
-        <v>832.6583862304688</v>
+        <v>832.8706665039062</v>
       </c>
       <c r="J58" t="n">
-        <v>100.6655807495117</v>
+        <v>102.5928573608398</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>168.0978240966797</v>
+        <v>168.8587188720703</v>
       </c>
       <c r="H59" t="n">
-        <v>59.28622817993164</v>
+        <v>56.73138046264648</v>
       </c>
       <c r="I59" t="n">
-        <v>59.01766967773438</v>
+        <v>61.4708251953125</v>
       </c>
       <c r="J59" t="n">
-        <v>146.4070739746094</v>
+        <v>150.8896331787109</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>188.4286956787109</v>
+        <v>188.8646392822266</v>
       </c>
       <c r="H60" t="n">
-        <v>75.23479461669922</v>
+        <v>68.35968780517578</v>
       </c>
       <c r="I60" t="n">
-        <v>130.1927490234375</v>
+        <v>139.8486328125</v>
       </c>
       <c r="J60" t="n">
-        <v>158.9644470214844</v>
+        <v>164.5449829101562</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>206.228759765625</v>
+        <v>207.0704040527344</v>
       </c>
       <c r="H61" t="n">
-        <v>82.78160095214844</v>
+        <v>80.50083923339844</v>
       </c>
       <c r="I61" t="n">
-        <v>255.4245758056641</v>
+        <v>252.5825500488281</v>
       </c>
       <c r="J61" t="n">
-        <v>164.9889831542969</v>
+        <v>161.7170867919922</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>237.3717651367188</v>
+        <v>241.8642730712891</v>
       </c>
       <c r="H62" t="n">
-        <v>89.0809326171875</v>
+        <v>96.32167053222656</v>
       </c>
       <c r="I62" t="n">
-        <v>411.0730590820312</v>
+        <v>401.1174926757812</v>
       </c>
       <c r="J62" t="n">
-        <v>105.0084228515625</v>
+        <v>105.9360733032227</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>285.1773681640625</v>
+        <v>284.0823059082031</v>
       </c>
       <c r="H63" t="n">
-        <v>106.9268112182617</v>
+        <v>108.2875137329102</v>
       </c>
       <c r="I63" t="n">
-        <v>489.3173522949219</v>
+        <v>485.4086608886719</v>
       </c>
       <c r="J63" t="n">
-        <v>89.26292419433594</v>
+        <v>87.88685607910156</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>368.8291625976562</v>
+        <v>369.4626770019531</v>
       </c>
       <c r="H64" t="n">
-        <v>125.8652191162109</v>
+        <v>130.3410949707031</v>
       </c>
       <c r="I64" t="n">
-        <v>582.9911499023438</v>
+        <v>588.706298828125</v>
       </c>
       <c r="J64" t="n">
-        <v>125.4258346557617</v>
+        <v>136.3086242675781</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>481.2174987792969</v>
+        <v>483.7150573730469</v>
       </c>
       <c r="H65" t="n">
-        <v>135.4715118408203</v>
+        <v>138.3423309326172</v>
       </c>
       <c r="I65" t="n">
-        <v>729.5986938476562</v>
+        <v>728.6985473632812</v>
       </c>
       <c r="J65" t="n">
-        <v>141.5726470947266</v>
+        <v>142.5949401855469</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>191.6195220947266</v>
+        <v>192.4065551757812</v>
       </c>
       <c r="H66" t="n">
-        <v>80.24781036376953</v>
+        <v>78.90540313720703</v>
       </c>
       <c r="I66" t="n">
-        <v>11.62636184692383</v>
+        <v>7.949031352996826</v>
       </c>
       <c r="J66" t="n">
-        <v>132.2506866455078</v>
+        <v>124.4371109008789</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>206.61474609375</v>
+        <v>206.0279998779297</v>
       </c>
       <c r="H67" t="n">
-        <v>87.51657867431641</v>
+        <v>85.34322357177734</v>
       </c>
       <c r="I67" t="n">
-        <v>73.90427398681641</v>
+        <v>67.11068725585938</v>
       </c>
       <c r="J67" t="n">
-        <v>159.2651062011719</v>
+        <v>154.1988983154297</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>252.8959045410156</v>
+        <v>250.3531799316406</v>
       </c>
       <c r="H68" t="n">
-        <v>104.7741546630859</v>
+        <v>103.9822006225586</v>
       </c>
       <c r="I68" t="n">
-        <v>295.2758178710938</v>
+        <v>299.7454223632812</v>
       </c>
       <c r="J68" t="n">
-        <v>162.6307373046875</v>
+        <v>162.1092224121094</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>284.6058959960938</v>
+        <v>284.503173828125</v>
       </c>
       <c r="H69" t="n">
-        <v>117.4419479370117</v>
+        <v>117.561149597168</v>
       </c>
       <c r="I69" t="n">
-        <v>429.0821228027344</v>
+        <v>437.5623474121094</v>
       </c>
       <c r="J69" t="n">
-        <v>121.4552154541016</v>
+        <v>118.0358047485352</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>356.1864624023438</v>
+        <v>357.1242065429688</v>
       </c>
       <c r="H70" t="n">
-        <v>136.6853637695312</v>
+        <v>138.6543884277344</v>
       </c>
       <c r="I70" t="n">
-        <v>545.1597290039062</v>
+        <v>537.904541015625</v>
       </c>
       <c r="J70" t="n">
-        <v>123.1127548217773</v>
+        <v>126.07421875</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>176.8521423339844</v>
+        <v>428.576171875</v>
       </c>
       <c r="H2" t="n">
-        <v>34.62120819091797</v>
+        <v>28.44351959228516</v>
       </c>
       <c r="I2" t="n">
-        <v>644.4839477539062</v>
+        <v>499.600830078125</v>
       </c>
       <c r="J2" t="n">
-        <v>129.0852661132812</v>
+        <v>48.52983856201172</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>187.3978881835938</v>
+        <v>443.4433288574219</v>
       </c>
       <c r="H3" t="n">
-        <v>41.68850708007812</v>
+        <v>28.60164260864258</v>
       </c>
       <c r="I3" t="n">
-        <v>746.889404296875</v>
+        <v>504.8428649902344</v>
       </c>
       <c r="J3" t="n">
-        <v>127.8882827758789</v>
+        <v>46.12656784057617</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>209.0408325195312</v>
+        <v>455.6446838378906</v>
       </c>
       <c r="H4" t="n">
-        <v>56.19004058837891</v>
+        <v>28.03718185424805</v>
       </c>
       <c r="I4" t="n">
-        <v>801.5802001953125</v>
+        <v>511.0187072753906</v>
       </c>
       <c r="J4" t="n">
-        <v>121.865364074707</v>
+        <v>45.67905044555664</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>239.8846893310547</v>
+        <v>470.4174499511719</v>
       </c>
       <c r="H5" t="n">
-        <v>68.25827789306641</v>
+        <v>26.98882675170898</v>
       </c>
       <c r="I5" t="n">
-        <v>830.5703735351562</v>
+        <v>515.0636596679688</v>
       </c>
       <c r="J5" t="n">
-        <v>108.5672149658203</v>
+        <v>43.62691879272461</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>299.4557189941406</v>
+        <v>489.1836547851562</v>
       </c>
       <c r="H6" t="n">
-        <v>86.01506805419922</v>
+        <v>26.41656684875488</v>
       </c>
       <c r="I6" t="n">
-        <v>849.5125732421875</v>
+        <v>521.1506958007812</v>
       </c>
       <c r="J6" t="n">
-        <v>90.90727233886719</v>
+        <v>44.27342987060547</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>168.2406921386719</v>
+        <v>406.7109069824219</v>
       </c>
       <c r="H7" t="n">
-        <v>30.87805557250977</v>
+        <v>29.54564094543457</v>
       </c>
       <c r="I7" t="n">
-        <v>549.365234375</v>
+        <v>476.1646423339844</v>
       </c>
       <c r="J7" t="n">
-        <v>72.34009552001953</v>
+        <v>50.1167106628418</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>175.7864227294922</v>
+        <v>415.534423828125</v>
       </c>
       <c r="H8" t="n">
-        <v>33.5926399230957</v>
+        <v>28.13949203491211</v>
       </c>
       <c r="I8" t="n">
-        <v>564.6460571289062</v>
+        <v>486.6821899414062</v>
       </c>
       <c r="J8" t="n">
-        <v>93.47731018066406</v>
+        <v>51.63070678710938</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>187.8671417236328</v>
+        <v>430.9302978515625</v>
       </c>
       <c r="H9" t="n">
-        <v>39.12727355957031</v>
+        <v>27.00182342529297</v>
       </c>
       <c r="I9" t="n">
-        <v>653.1943969726562</v>
+        <v>497.7620849609375</v>
       </c>
       <c r="J9" t="n">
-        <v>117.7522659301758</v>
+        <v>52.39496994018555</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>203.7597503662109</v>
+        <v>444.8827514648438</v>
       </c>
       <c r="H10" t="n">
-        <v>46.21833419799805</v>
+        <v>27.20263671875</v>
       </c>
       <c r="I10" t="n">
-        <v>745.630126953125</v>
+        <v>500.5187072753906</v>
       </c>
       <c r="J10" t="n">
-        <v>125.0598297119141</v>
+        <v>47.36773681640625</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>242.8064270019531</v>
+        <v>465.0859375</v>
       </c>
       <c r="H11" t="n">
-        <v>63.22200012207031</v>
+        <v>26.32500457763672</v>
       </c>
       <c r="I11" t="n">
-        <v>794.5179443359375</v>
+        <v>510.0505676269531</v>
       </c>
       <c r="J11" t="n">
-        <v>119.7440948486328</v>
+        <v>46.82827758789062</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>306.3700256347656</v>
+        <v>484.6628112792969</v>
       </c>
       <c r="H12" t="n">
-        <v>80.23021697998047</v>
+        <v>27.13564109802246</v>
       </c>
       <c r="I12" t="n">
-        <v>824.6475830078125</v>
+        <v>514.7224731445312</v>
       </c>
       <c r="J12" t="n">
-        <v>102.0533142089844</v>
+        <v>45.33042526245117</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>427.0222778320312</v>
+        <v>511.161865234375</v>
       </c>
       <c r="H13" t="n">
-        <v>108.0398254394531</v>
+        <v>25.79850006103516</v>
       </c>
       <c r="I13" t="n">
-        <v>831.2483520507812</v>
+        <v>514.6203002929688</v>
       </c>
       <c r="J13" t="n">
-        <v>106.2834548950195</v>
+        <v>44.33982086181641</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>147.9490509033203</v>
+        <v>386.5986328125</v>
       </c>
       <c r="H14" t="n">
-        <v>37.26594924926758</v>
+        <v>28.74464988708496</v>
       </c>
       <c r="I14" t="n">
-        <v>365.6533813476562</v>
+        <v>429.4002075195312</v>
       </c>
       <c r="J14" t="n">
-        <v>98.24006652832031</v>
+        <v>70.28221893310547</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>159.5214538574219</v>
+        <v>397.5457153320312</v>
       </c>
       <c r="H15" t="n">
-        <v>32.94806671142578</v>
+        <v>27.48468399047852</v>
       </c>
       <c r="I15" t="n">
-        <v>479.7889099121094</v>
+        <v>454.4462585449219</v>
       </c>
       <c r="J15" t="n">
-        <v>86.74043273925781</v>
+        <v>61.74267196655273</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>183.3482666015625</v>
+        <v>413.9095764160156</v>
       </c>
       <c r="H16" t="n">
-        <v>32.93244934082031</v>
+        <v>28.41672897338867</v>
       </c>
       <c r="I16" t="n">
-        <v>580.6991577148438</v>
+        <v>481.5619201660156</v>
       </c>
       <c r="J16" t="n">
-        <v>63.48531723022461</v>
+        <v>53.44842910766602</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>191.30224609375</v>
+        <v>421.4358215332031</v>
       </c>
       <c r="H17" t="n">
-        <v>34.38262557983398</v>
+        <v>27.76262474060059</v>
       </c>
       <c r="I17" t="n">
-        <v>581.4596557617188</v>
+        <v>478.4391784667969</v>
       </c>
       <c r="J17" t="n">
-        <v>85.56120300292969</v>
+        <v>50.81613922119141</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>206.6876373291016</v>
+        <v>433.978271484375</v>
       </c>
       <c r="H18" t="n">
-        <v>41.3004264831543</v>
+        <v>28.63846015930176</v>
       </c>
       <c r="I18" t="n">
-        <v>662.2728271484375</v>
+        <v>490.8748474121094</v>
       </c>
       <c r="J18" t="n">
-        <v>123.2137985229492</v>
+        <v>48.9594841003418</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>247.4917907714844</v>
+        <v>453.9931335449219</v>
       </c>
       <c r="H19" t="n">
-        <v>54.3752555847168</v>
+        <v>27.03427505493164</v>
       </c>
       <c r="I19" t="n">
-        <v>750.549072265625</v>
+        <v>499.3517150878906</v>
       </c>
       <c r="J19" t="n">
-        <v>122.1582336425781</v>
+        <v>47.90267181396484</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>308.1179809570312</v>
+        <v>476.5708923339844</v>
       </c>
       <c r="H20" t="n">
-        <v>71.12483215332031</v>
+        <v>26.29267501831055</v>
       </c>
       <c r="I20" t="n">
-        <v>794.6434936523438</v>
+        <v>504.6099853515625</v>
       </c>
       <c r="J20" t="n">
-        <v>112.4901885986328</v>
+        <v>44.88115310668945</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>439.5880737304688</v>
+        <v>505.1631774902344</v>
       </c>
       <c r="H21" t="n">
-        <v>103.5003051757812</v>
+        <v>27.14739036560059</v>
       </c>
       <c r="I21" t="n">
-        <v>815.9996337890625</v>
+        <v>508.6281127929688</v>
       </c>
       <c r="J21" t="n">
-        <v>111.143928527832</v>
+        <v>45.59073638916016</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>627.6926879882812</v>
+        <v>542.0677490234375</v>
       </c>
       <c r="H22" t="n">
-        <v>115.2584457397461</v>
+        <v>23.29499435424805</v>
       </c>
       <c r="I22" t="n">
-        <v>837.7577514648438</v>
+        <v>512.7401123046875</v>
       </c>
       <c r="J22" t="n">
-        <v>109.1518859863281</v>
+        <v>46.94186019897461</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>146.7759552001953</v>
+        <v>381.9605712890625</v>
       </c>
       <c r="H23" t="n">
-        <v>40.39538955688477</v>
+        <v>28.69160652160645</v>
       </c>
       <c r="I23" t="n">
-        <v>294.6742248535156</v>
+        <v>405.8271484375</v>
       </c>
       <c r="J23" t="n">
-        <v>77.75921630859375</v>
+        <v>78.70323944091797</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>158.4103851318359</v>
+        <v>388.34228515625</v>
       </c>
       <c r="H24" t="n">
-        <v>37.41307830810547</v>
+        <v>29.04701805114746</v>
       </c>
       <c r="I24" t="n">
-        <v>348.8781127929688</v>
+        <v>428.3211975097656</v>
       </c>
       <c r="J24" t="n">
-        <v>88.511474609375</v>
+        <v>65.48213195800781</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>177.9455413818359</v>
+        <v>398.2338562011719</v>
       </c>
       <c r="H25" t="n">
-        <v>34.65254592895508</v>
+        <v>27.02691078186035</v>
       </c>
       <c r="I25" t="n">
-        <v>436.9764099121094</v>
+        <v>448.1204833984375</v>
       </c>
       <c r="J25" t="n">
-        <v>87.19610595703125</v>
+        <v>59.43257522583008</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>195.2911529541016</v>
+        <v>409.6712646484375</v>
       </c>
       <c r="H26" t="n">
-        <v>34.3802375793457</v>
+        <v>28.10148429870605</v>
       </c>
       <c r="I26" t="n">
-        <v>512.36669921875</v>
+        <v>461.8166198730469</v>
       </c>
       <c r="J26" t="n">
-        <v>86.96339416503906</v>
+        <v>55.91698837280273</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>214.4496765136719</v>
+        <v>424.3216552734375</v>
       </c>
       <c r="H27" t="n">
-        <v>35.39957046508789</v>
+        <v>27.53328704833984</v>
       </c>
       <c r="I27" t="n">
-        <v>592.2384643554688</v>
+        <v>476.4615478515625</v>
       </c>
       <c r="J27" t="n">
-        <v>101.0478591918945</v>
+        <v>55.60693359375</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>252.9157562255859</v>
+        <v>445.6636962890625</v>
       </c>
       <c r="H28" t="n">
-        <v>48.95168685913086</v>
+        <v>28.07149505615234</v>
       </c>
       <c r="I28" t="n">
-        <v>701.169677734375</v>
+        <v>488.3641052246094</v>
       </c>
       <c r="J28" t="n">
-        <v>127.294677734375</v>
+        <v>48.71555709838867</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>319.7652282714844</v>
+        <v>465.98583984375</v>
       </c>
       <c r="H29" t="n">
-        <v>69.50328063964844</v>
+        <v>26.72504806518555</v>
       </c>
       <c r="I29" t="n">
-        <v>768.8616333007812</v>
+        <v>495.1820373535156</v>
       </c>
       <c r="J29" t="n">
-        <v>116.7212829589844</v>
+        <v>49.60261535644531</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>462.7667846679688</v>
+        <v>499.4837951660156</v>
       </c>
       <c r="H30" t="n">
-        <v>101.5010070800781</v>
+        <v>26.66808891296387</v>
       </c>
       <c r="I30" t="n">
-        <v>811.2459106445312</v>
+        <v>502.0006713867188</v>
       </c>
       <c r="J30" t="n">
-        <v>113.0906982421875</v>
+        <v>48.90951538085938</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>648.2933349609375</v>
+        <v>536.2150268554688</v>
       </c>
       <c r="H31" t="n">
-        <v>113.0836486816406</v>
+        <v>24.99674987792969</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5900268554688</v>
+        <v>504.665771484375</v>
       </c>
       <c r="J31" t="n">
-        <v>116.0622406005859</v>
+        <v>49.30182266235352</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>144.9596252441406</v>
+        <v>375.6563415527344</v>
       </c>
       <c r="H32" t="n">
-        <v>42.90689849853516</v>
+        <v>28.72130584716797</v>
       </c>
       <c r="I32" t="n">
-        <v>249.7936706542969</v>
+        <v>367.7289428710938</v>
       </c>
       <c r="J32" t="n">
-        <v>93.69024658203125</v>
+        <v>80.93254852294922</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>163.0381469726562</v>
+        <v>383.8633117675781</v>
       </c>
       <c r="H33" t="n">
-        <v>41.17400360107422</v>
+        <v>29.24066543579102</v>
       </c>
       <c r="I33" t="n">
-        <v>316.5923461914062</v>
+        <v>394.9857482910156</v>
       </c>
       <c r="J33" t="n">
-        <v>87.31673431396484</v>
+        <v>77.08783721923828</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>178.7285308837891</v>
+        <v>392.7182922363281</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96098327636719</v>
+        <v>27.98950576782227</v>
       </c>
       <c r="I34" t="n">
-        <v>377.1118774414062</v>
+        <v>416.4753112792969</v>
       </c>
       <c r="J34" t="n">
-        <v>85.40158843994141</v>
+        <v>72.49272155761719</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>202.9307556152344</v>
+        <v>405.0743713378906</v>
       </c>
       <c r="H35" t="n">
-        <v>38.47993469238281</v>
+        <v>28.16996574401855</v>
       </c>
       <c r="I35" t="n">
-        <v>441.5807800292969</v>
+        <v>434.7168884277344</v>
       </c>
       <c r="J35" t="n">
-        <v>79.73329925537109</v>
+        <v>64.47074127197266</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>231.5247955322266</v>
+        <v>420.9451904296875</v>
       </c>
       <c r="H36" t="n">
-        <v>39.95569229125977</v>
+        <v>28.93486785888672</v>
       </c>
       <c r="I36" t="n">
-        <v>534.1516723632812</v>
+        <v>451.4626159667969</v>
       </c>
       <c r="J36" t="n">
-        <v>97.11022186279297</v>
+        <v>60.64458465576172</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>270.1227111816406</v>
+        <v>437.3886413574219</v>
       </c>
       <c r="H37" t="n">
-        <v>50.53187942504883</v>
+        <v>26.24175071716309</v>
       </c>
       <c r="I37" t="n">
-        <v>642.6130981445312</v>
+        <v>463.9139709472656</v>
       </c>
       <c r="J37" t="n">
-        <v>125.8636932373047</v>
+        <v>57.88025665283203</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>350.1155395507812</v>
+        <v>462.0635375976562</v>
       </c>
       <c r="H38" t="n">
-        <v>75.62403106689453</v>
+        <v>28.28277969360352</v>
       </c>
       <c r="I38" t="n">
-        <v>765.198486328125</v>
+        <v>478.9823913574219</v>
       </c>
       <c r="J38" t="n">
-        <v>122.6177139282227</v>
+        <v>52.86267471313477</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>479.440673828125</v>
+        <v>488.9781188964844</v>
       </c>
       <c r="H39" t="n">
-        <v>102.6575927734375</v>
+        <v>27.87094879150391</v>
       </c>
       <c r="I39" t="n">
-        <v>805.836669921875</v>
+        <v>484.3419799804688</v>
       </c>
       <c r="J39" t="n">
-        <v>105.8704376220703</v>
+        <v>50.84754943847656</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>671.076904296875</v>
+        <v>529.9293823242188</v>
       </c>
       <c r="H40" t="n">
-        <v>114.6423492431641</v>
+        <v>26.96886825561523</v>
       </c>
       <c r="I40" t="n">
-        <v>831.6868286132812</v>
+        <v>487.4260864257812</v>
       </c>
       <c r="J40" t="n">
-        <v>109.8999862670898</v>
+        <v>48.73775863647461</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>147.3553314208984</v>
+        <v>373.4074096679688</v>
       </c>
       <c r="H41" t="n">
-        <v>40.64298248291016</v>
+        <v>28.27492141723633</v>
       </c>
       <c r="I41" t="n">
-        <v>193.3666076660156</v>
+        <v>336.1753845214844</v>
       </c>
       <c r="J41" t="n">
-        <v>114.7882995605469</v>
+        <v>93.49556732177734</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>161.4929351806641</v>
+        <v>379.1935424804688</v>
       </c>
       <c r="H42" t="n">
-        <v>40.82029724121094</v>
+        <v>27.79411506652832</v>
       </c>
       <c r="I42" t="n">
-        <v>282.1340942382812</v>
+        <v>359.1299133300781</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8511276245117</v>
+        <v>90.40956115722656</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>178.4472808837891</v>
+        <v>387.2294616699219</v>
       </c>
       <c r="H43" t="n">
-        <v>47.55658721923828</v>
+        <v>28.89598274230957</v>
       </c>
       <c r="I43" t="n">
-        <v>336.1344299316406</v>
+        <v>376.42578125</v>
       </c>
       <c r="J43" t="n">
-        <v>100.5220031738281</v>
+        <v>82.92977905273438</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>202.7844085693359</v>
+        <v>401.1700744628906</v>
       </c>
       <c r="H44" t="n">
-        <v>47.751220703125</v>
+        <v>27.96973419189453</v>
       </c>
       <c r="I44" t="n">
-        <v>422.1080322265625</v>
+        <v>407.7918701171875</v>
       </c>
       <c r="J44" t="n">
-        <v>73.84836578369141</v>
+        <v>73.06650543212891</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>228.5634155273438</v>
+        <v>410.8795166015625</v>
       </c>
       <c r="H45" t="n">
-        <v>56.55595016479492</v>
+        <v>28.21684455871582</v>
       </c>
       <c r="I45" t="n">
-        <v>471.7982788085938</v>
+        <v>419.2280883789062</v>
       </c>
       <c r="J45" t="n">
-        <v>75.08937835693359</v>
+        <v>73.74542236328125</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>278.6069030761719</v>
+        <v>430.9197998046875</v>
       </c>
       <c r="H46" t="n">
-        <v>63.0848388671875</v>
+        <v>28.68160820007324</v>
       </c>
       <c r="I46" t="n">
-        <v>572.1695556640625</v>
+        <v>442.1427001953125</v>
       </c>
       <c r="J46" t="n">
-        <v>124.6270141601562</v>
+        <v>61.83400726318359</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>369.798095703125</v>
+        <v>451.8425903320312</v>
       </c>
       <c r="H47" t="n">
-        <v>95.36069488525391</v>
+        <v>28.13867568969727</v>
       </c>
       <c r="I47" t="n">
-        <v>715.9639282226562</v>
+        <v>454.9145202636719</v>
       </c>
       <c r="J47" t="n">
-        <v>138.9308471679688</v>
+        <v>58.34920120239258</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>506.2270202636719</v>
+        <v>483.3466186523438</v>
       </c>
       <c r="H48" t="n">
-        <v>108.2384414672852</v>
+        <v>28.89077949523926</v>
       </c>
       <c r="I48" t="n">
-        <v>804.4442749023438</v>
+        <v>476.4610290527344</v>
       </c>
       <c r="J48" t="n">
-        <v>117.1156997680664</v>
+        <v>54.20018768310547</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>655.9319458007812</v>
+        <v>513.6890258789062</v>
       </c>
       <c r="H49" t="n">
-        <v>116.8955917358398</v>
+        <v>27.63911247253418</v>
       </c>
       <c r="I49" t="n">
-        <v>831.3050537109375</v>
+        <v>479.1395263671875</v>
       </c>
       <c r="J49" t="n">
-        <v>106.2629852294922</v>
+        <v>50.79676818847656</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>152.3389587402344</v>
+        <v>372.7626647949219</v>
       </c>
       <c r="H50" t="n">
-        <v>43.40839767456055</v>
+        <v>29.03472328186035</v>
       </c>
       <c r="I50" t="n">
-        <v>112.3438949584961</v>
+        <v>302.4375915527344</v>
       </c>
       <c r="J50" t="n">
-        <v>136.6056671142578</v>
+        <v>93.01519012451172</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>166.4022369384766</v>
+        <v>378.9040832519531</v>
       </c>
       <c r="H51" t="n">
-        <v>47.88074111938477</v>
+        <v>28.3535270690918</v>
       </c>
       <c r="I51" t="n">
-        <v>183.562744140625</v>
+        <v>320.4461059570312</v>
       </c>
       <c r="J51" t="n">
-        <v>144.6014862060547</v>
+        <v>97.00601196289062</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>180.4019622802734</v>
+        <v>382.7349853515625</v>
       </c>
       <c r="H52" t="n">
-        <v>53.29839324951172</v>
+        <v>28.20039939880371</v>
       </c>
       <c r="I52" t="n">
-        <v>251.5912780761719</v>
+        <v>333.27685546875</v>
       </c>
       <c r="J52" t="n">
-        <v>139.5487670898438</v>
+        <v>84.65829467773438</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>205.9866027832031</v>
+        <v>395.0311279296875</v>
       </c>
       <c r="H53" t="n">
-        <v>65.20350646972656</v>
+        <v>29.1788387298584</v>
       </c>
       <c r="I53" t="n">
-        <v>392.0196228027344</v>
+        <v>357.9100341796875</v>
       </c>
       <c r="J53" t="n">
-        <v>90.74674987792969</v>
+        <v>85.97563171386719</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>243.7206573486328</v>
+        <v>408.1148681640625</v>
       </c>
       <c r="H54" t="n">
-        <v>75.79901123046875</v>
+        <v>29.28945541381836</v>
       </c>
       <c r="I54" t="n">
-        <v>462.5200500488281</v>
+        <v>383.1096496582031</v>
       </c>
       <c r="J54" t="n">
-        <v>74.58250427246094</v>
+        <v>77.46025085449219</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>290.4220581054688</v>
+        <v>422.1631774902344</v>
       </c>
       <c r="H55" t="n">
-        <v>89.80757141113281</v>
+        <v>30.42349243164062</v>
       </c>
       <c r="I55" t="n">
-        <v>519.1021118164062</v>
+        <v>409.5748291015625</v>
       </c>
       <c r="J55" t="n">
-        <v>98.09042358398438</v>
+        <v>70.64813232421875</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>370.4905090332031</v>
+        <v>442.6154174804688</v>
       </c>
       <c r="H56" t="n">
-        <v>111.2610855102539</v>
+        <v>30.25266075134277</v>
       </c>
       <c r="I56" t="n">
-        <v>634.239501953125</v>
+        <v>428.6073913574219</v>
       </c>
       <c r="J56" t="n">
-        <v>137.173583984375</v>
+        <v>65.32364654541016</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>472.0424499511719</v>
+        <v>466.2235412597656</v>
       </c>
       <c r="H57" t="n">
-        <v>122.5171890258789</v>
+        <v>28.72369003295898</v>
       </c>
       <c r="I57" t="n">
-        <v>770.7764282226562</v>
+        <v>448.3099365234375</v>
       </c>
       <c r="J57" t="n">
-        <v>133.5987396240234</v>
+        <v>61.24928665161133</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>663.2721557617188</v>
+        <v>506.677490234375</v>
       </c>
       <c r="H58" t="n">
-        <v>123.7781295776367</v>
+        <v>27.68627166748047</v>
       </c>
       <c r="I58" t="n">
-        <v>832.8706665039062</v>
+        <v>463.0864562988281</v>
       </c>
       <c r="J58" t="n">
-        <v>102.5928573608398</v>
+        <v>55.70590972900391</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>168.8587188720703</v>
+        <v>377.8747253417969</v>
       </c>
       <c r="H59" t="n">
-        <v>56.73138046264648</v>
+        <v>29.36941909790039</v>
       </c>
       <c r="I59" t="n">
-        <v>61.4708251953125</v>
+        <v>274.3631286621094</v>
       </c>
       <c r="J59" t="n">
-        <v>150.8896331787109</v>
+        <v>101.0529098510742</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>188.8646392822266</v>
+        <v>383.5957641601562</v>
       </c>
       <c r="H60" t="n">
-        <v>68.35968780517578</v>
+        <v>29.66822242736816</v>
       </c>
       <c r="I60" t="n">
-        <v>139.8486328125</v>
+        <v>286.5053100585938</v>
       </c>
       <c r="J60" t="n">
-        <v>164.5449829101562</v>
+        <v>100.5496139526367</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>207.0704040527344</v>
+        <v>389.6195373535156</v>
       </c>
       <c r="H61" t="n">
-        <v>80.50083923339844</v>
+        <v>29.84739685058594</v>
       </c>
       <c r="I61" t="n">
-        <v>252.5825500488281</v>
+        <v>311.4235534667969</v>
       </c>
       <c r="J61" t="n">
-        <v>161.7170867919922</v>
+        <v>90.52198028564453</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>241.8642730712891</v>
+        <v>401.4117126464844</v>
       </c>
       <c r="H62" t="n">
-        <v>96.32167053222656</v>
+        <v>30.18848037719727</v>
       </c>
       <c r="I62" t="n">
-        <v>401.1174926757812</v>
+        <v>341.8887634277344</v>
       </c>
       <c r="J62" t="n">
-        <v>105.9360733032227</v>
+        <v>84.77011108398438</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>284.0823059082031</v>
+        <v>412.6792602539062</v>
       </c>
       <c r="H63" t="n">
-        <v>108.2875137329102</v>
+        <v>29.9376220703125</v>
       </c>
       <c r="I63" t="n">
-        <v>485.4086608886719</v>
+        <v>373.1374816894531</v>
       </c>
       <c r="J63" t="n">
-        <v>87.88685607910156</v>
+        <v>74.93928527832031</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>369.4626770019531</v>
+        <v>434.1787414550781</v>
       </c>
       <c r="H64" t="n">
-        <v>130.3410949707031</v>
+        <v>30.30112457275391</v>
       </c>
       <c r="I64" t="n">
-        <v>588.706298828125</v>
+        <v>400.8125915527344</v>
       </c>
       <c r="J64" t="n">
-        <v>136.3086242675781</v>
+        <v>69.55516815185547</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>483.7150573730469</v>
+        <v>459.4066162109375</v>
       </c>
       <c r="H65" t="n">
-        <v>138.3423309326172</v>
+        <v>31.06166839599609</v>
       </c>
       <c r="I65" t="n">
-        <v>728.6985473632812</v>
+        <v>426.9305419921875</v>
       </c>
       <c r="J65" t="n">
-        <v>142.5949401855469</v>
+        <v>64.19895935058594</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>192.4065551757812</v>
+        <v>380.0560607910156</v>
       </c>
       <c r="H66" t="n">
-        <v>78.90540313720703</v>
+        <v>31.30639266967773</v>
       </c>
       <c r="I66" t="n">
-        <v>7.949031352996826</v>
+        <v>229.3132781982422</v>
       </c>
       <c r="J66" t="n">
-        <v>124.4371109008789</v>
+        <v>100.7760925292969</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>206.0279998779297</v>
+        <v>385.996337890625</v>
       </c>
       <c r="H67" t="n">
-        <v>85.34322357177734</v>
+        <v>30.53821754455566</v>
       </c>
       <c r="I67" t="n">
-        <v>67.11068725585938</v>
+        <v>243.0392761230469</v>
       </c>
       <c r="J67" t="n">
-        <v>154.1988983154297</v>
+        <v>104.0161437988281</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>250.3531799316406</v>
+        <v>399.1794128417969</v>
       </c>
       <c r="H68" t="n">
-        <v>103.9822006225586</v>
+        <v>31.90456008911133</v>
       </c>
       <c r="I68" t="n">
-        <v>299.7454223632812</v>
+        <v>287.3488464355469</v>
       </c>
       <c r="J68" t="n">
-        <v>162.1092224121094</v>
+        <v>98.40895843505859</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>284.503173828125</v>
+        <v>406.7330017089844</v>
       </c>
       <c r="H69" t="n">
-        <v>117.561149597168</v>
+        <v>30.66131019592285</v>
       </c>
       <c r="I69" t="n">
-        <v>437.5623474121094</v>
+        <v>319.0708923339844</v>
       </c>
       <c r="J69" t="n">
-        <v>118.0358047485352</v>
+        <v>88.49962615966797</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>357.1242065429688</v>
+        <v>424.9966430664062</v>
       </c>
       <c r="H70" t="n">
-        <v>138.6543884277344</v>
+        <v>30.75972747802734</v>
       </c>
       <c r="I70" t="n">
-        <v>537.904541015625</v>
+        <v>365.4766540527344</v>
       </c>
       <c r="J70" t="n">
-        <v>126.07421875</v>
+        <v>79.95827484130859</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>428.576171875</v>
+        <v>213.9303741455078</v>
       </c>
       <c r="H2" t="n">
-        <v>28.44351959228516</v>
+        <v>30.68736839294434</v>
       </c>
       <c r="I2" t="n">
-        <v>499.600830078125</v>
+        <v>637.8878784179688</v>
       </c>
       <c r="J2" t="n">
-        <v>48.52983856201172</v>
+        <v>178.3275146484375</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>443.4433288574219</v>
+        <v>227.7247314453125</v>
       </c>
       <c r="H3" t="n">
-        <v>28.60164260864258</v>
+        <v>35.55875015258789</v>
       </c>
       <c r="I3" t="n">
-        <v>504.8428649902344</v>
+        <v>719.5353393554688</v>
       </c>
       <c r="J3" t="n">
-        <v>46.12656784057617</v>
+        <v>178.9946594238281</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>455.6446838378906</v>
+        <v>249.6651153564453</v>
       </c>
       <c r="H4" t="n">
-        <v>28.03718185424805</v>
+        <v>42.51515197753906</v>
       </c>
       <c r="I4" t="n">
-        <v>511.0187072753906</v>
+        <v>764.935546875</v>
       </c>
       <c r="J4" t="n">
-        <v>45.67905044555664</v>
+        <v>167.1141204833984</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>470.4174499511719</v>
+        <v>285.4375915527344</v>
       </c>
       <c r="H5" t="n">
-        <v>26.98882675170898</v>
+        <v>52.39697647094727</v>
       </c>
       <c r="I5" t="n">
-        <v>515.0636596679688</v>
+        <v>784.1962890625</v>
       </c>
       <c r="J5" t="n">
-        <v>43.62691879272461</v>
+        <v>143.0685272216797</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>489.1836547851562</v>
+        <v>354.3470153808594</v>
       </c>
       <c r="H6" t="n">
-        <v>26.41656684875488</v>
+        <v>68.0052490234375</v>
       </c>
       <c r="I6" t="n">
-        <v>521.1506958007812</v>
+        <v>751.9257202148438</v>
       </c>
       <c r="J6" t="n">
-        <v>44.27342987060547</v>
+        <v>180.6287384033203</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>406.7109069824219</v>
+        <v>207.3047637939453</v>
       </c>
       <c r="H7" t="n">
-        <v>29.54564094543457</v>
+        <v>28.62872695922852</v>
       </c>
       <c r="I7" t="n">
-        <v>476.1646423339844</v>
+        <v>632.9871826171875</v>
       </c>
       <c r="J7" t="n">
-        <v>50.1167106628418</v>
+        <v>84.94870758056641</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>415.534423828125</v>
+        <v>208.4828491210938</v>
       </c>
       <c r="H8" t="n">
-        <v>28.13949203491211</v>
+        <v>27.43654632568359</v>
       </c>
       <c r="I8" t="n">
-        <v>486.6821899414062</v>
+        <v>751.2568359375</v>
       </c>
       <c r="J8" t="n">
-        <v>51.63070678710938</v>
+        <v>128.6756439208984</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>430.9302978515625</v>
+        <v>216.3081512451172</v>
       </c>
       <c r="H9" t="n">
-        <v>27.00182342529297</v>
+        <v>30.76294898986816</v>
       </c>
       <c r="I9" t="n">
-        <v>497.7620849609375</v>
+        <v>854.9052124023438</v>
       </c>
       <c r="J9" t="n">
-        <v>52.39496994018555</v>
+        <v>107.3676528930664</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>444.8827514648438</v>
+        <v>231.4726715087891</v>
       </c>
       <c r="H10" t="n">
-        <v>27.20263671875</v>
+        <v>36.85184478759766</v>
       </c>
       <c r="I10" t="n">
-        <v>500.5187072753906</v>
+        <v>894.1443481445312</v>
       </c>
       <c r="J10" t="n">
-        <v>47.36773681640625</v>
+        <v>73.99111175537109</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>465.0859375</v>
+        <v>269.3270263671875</v>
       </c>
       <c r="H11" t="n">
-        <v>26.32500457763672</v>
+        <v>47.74212646484375</v>
       </c>
       <c r="I11" t="n">
-        <v>510.0505676269531</v>
+        <v>900.352783203125</v>
       </c>
       <c r="J11" t="n">
-        <v>46.82827758789062</v>
+        <v>53.22438049316406</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>484.6628112792969</v>
+        <v>331.3009948730469</v>
       </c>
       <c r="H12" t="n">
-        <v>27.13564109802246</v>
+        <v>59.27046203613281</v>
       </c>
       <c r="I12" t="n">
-        <v>514.7224731445312</v>
+        <v>894.954345703125</v>
       </c>
       <c r="J12" t="n">
-        <v>45.33042526245117</v>
+        <v>45.46795654296875</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>511.161865234375</v>
+        <v>460.2984619140625</v>
       </c>
       <c r="H13" t="n">
-        <v>25.79850006103516</v>
+        <v>75.89402770996094</v>
       </c>
       <c r="I13" t="n">
-        <v>514.6203002929688</v>
+        <v>890.6228637695312</v>
       </c>
       <c r="J13" t="n">
-        <v>44.33982086181641</v>
+        <v>37.89447021484375</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>386.5986328125</v>
+        <v>206.6026611328125</v>
       </c>
       <c r="H14" t="n">
-        <v>28.74464988708496</v>
+        <v>37.14742279052734</v>
       </c>
       <c r="I14" t="n">
-        <v>429.4002075195312</v>
+        <v>313.4208068847656</v>
       </c>
       <c r="J14" t="n">
-        <v>70.28221893310547</v>
+        <v>107.7241516113281</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>397.5457153320312</v>
+        <v>210.2003631591797</v>
       </c>
       <c r="H15" t="n">
-        <v>27.48468399047852</v>
+        <v>32.52318954467773</v>
       </c>
       <c r="I15" t="n">
-        <v>454.4462585449219</v>
+        <v>600.3486938476562</v>
       </c>
       <c r="J15" t="n">
-        <v>61.74267196655273</v>
+        <v>53.22469329833984</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>413.9095764160156</v>
+        <v>213.7965087890625</v>
       </c>
       <c r="H16" t="n">
-        <v>28.41672897338867</v>
+        <v>30.47947883605957</v>
       </c>
       <c r="I16" t="n">
-        <v>481.5619201660156</v>
+        <v>777.4568481445312</v>
       </c>
       <c r="J16" t="n">
-        <v>53.44842910766602</v>
+        <v>92.52462005615234</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>421.4358215332031</v>
+        <v>219.1242828369141</v>
       </c>
       <c r="H17" t="n">
-        <v>27.76262474060059</v>
+        <v>30.23745536804199</v>
       </c>
       <c r="I17" t="n">
-        <v>478.4391784667969</v>
+        <v>831.818603515625</v>
       </c>
       <c r="J17" t="n">
-        <v>50.81613922119141</v>
+        <v>84.44113159179688</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>433.978271484375</v>
+        <v>233.4843139648438</v>
       </c>
       <c r="H18" t="n">
-        <v>28.63846015930176</v>
+        <v>37.46252059936523</v>
       </c>
       <c r="I18" t="n">
-        <v>490.8748474121094</v>
+        <v>899.8234252929688</v>
       </c>
       <c r="J18" t="n">
-        <v>48.9594841003418</v>
+        <v>55.74211120605469</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>453.9931335449219</v>
+        <v>269.4908752441406</v>
       </c>
       <c r="H19" t="n">
-        <v>27.03427505493164</v>
+        <v>45.88938140869141</v>
       </c>
       <c r="I19" t="n">
-        <v>499.3517150878906</v>
+        <v>915.102783203125</v>
       </c>
       <c r="J19" t="n">
-        <v>47.90267181396484</v>
+        <v>34.97978591918945</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>476.5708923339844</v>
+        <v>329.0116882324219</v>
       </c>
       <c r="H20" t="n">
-        <v>26.29267501831055</v>
+        <v>59.04191207885742</v>
       </c>
       <c r="I20" t="n">
-        <v>504.6099853515625</v>
+        <v>913.1798706054688</v>
       </c>
       <c r="J20" t="n">
-        <v>44.88115310668945</v>
+        <v>29.78023719787598</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>505.1631774902344</v>
+        <v>464.21923828125</v>
       </c>
       <c r="H21" t="n">
-        <v>27.14739036560059</v>
+        <v>75.34752655029297</v>
       </c>
       <c r="I21" t="n">
-        <v>508.6281127929688</v>
+        <v>904.78173828125</v>
       </c>
       <c r="J21" t="n">
-        <v>45.59073638916016</v>
+        <v>26.69968795776367</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>542.0677490234375</v>
+        <v>677.8992919921875</v>
       </c>
       <c r="H22" t="n">
-        <v>23.29499435424805</v>
+        <v>87.51878356933594</v>
       </c>
       <c r="I22" t="n">
-        <v>512.7401123046875</v>
+        <v>879.5906372070312</v>
       </c>
       <c r="J22" t="n">
-        <v>46.94186019897461</v>
+        <v>110.0421371459961</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>381.9605712890625</v>
+        <v>212.3333129882812</v>
       </c>
       <c r="H23" t="n">
-        <v>28.69160652160645</v>
+        <v>38.41482543945312</v>
       </c>
       <c r="I23" t="n">
-        <v>405.8271484375</v>
+        <v>183.5372467041016</v>
       </c>
       <c r="J23" t="n">
-        <v>78.70323944091797</v>
+        <v>84.67831420898438</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>388.34228515625</v>
+        <v>217.5108642578125</v>
       </c>
       <c r="H24" t="n">
-        <v>29.04701805114746</v>
+        <v>35.32129669189453</v>
       </c>
       <c r="I24" t="n">
-        <v>428.3211975097656</v>
+        <v>199.4168243408203</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48213195800781</v>
+        <v>96.85456085205078</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>398.2338562011719</v>
+        <v>222.9742431640625</v>
       </c>
       <c r="H25" t="n">
-        <v>27.02691078186035</v>
+        <v>35.04705810546875</v>
       </c>
       <c r="I25" t="n">
-        <v>448.1204833984375</v>
+        <v>377.840087890625</v>
       </c>
       <c r="J25" t="n">
-        <v>59.43257522583008</v>
+        <v>110.6293334960938</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>409.6712646484375</v>
+        <v>230.6482391357422</v>
       </c>
       <c r="H26" t="n">
-        <v>28.10148429870605</v>
+        <v>35.96352005004883</v>
       </c>
       <c r="I26" t="n">
-        <v>461.8166198730469</v>
+        <v>735.5556030273438</v>
       </c>
       <c r="J26" t="n">
-        <v>55.91698837280273</v>
+        <v>97.01910400390625</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>424.3216552734375</v>
+        <v>248.6912384033203</v>
       </c>
       <c r="H27" t="n">
-        <v>27.53328704833984</v>
+        <v>41.60467529296875</v>
       </c>
       <c r="I27" t="n">
-        <v>476.4615478515625</v>
+        <v>810.1826171875</v>
       </c>
       <c r="J27" t="n">
-        <v>55.60693359375</v>
+        <v>70.7889404296875</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>445.6636962890625</v>
+        <v>281.5074768066406</v>
       </c>
       <c r="H28" t="n">
-        <v>28.07149505615234</v>
+        <v>49.08550262451172</v>
       </c>
       <c r="I28" t="n">
-        <v>488.3641052246094</v>
+        <v>860.9132690429688</v>
       </c>
       <c r="J28" t="n">
-        <v>48.71555709838867</v>
+        <v>77.04543304443359</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>465.98583984375</v>
+        <v>341.6836242675781</v>
       </c>
       <c r="H29" t="n">
-        <v>26.72504806518555</v>
+        <v>57.67470932006836</v>
       </c>
       <c r="I29" t="n">
-        <v>495.1820373535156</v>
+        <v>887.1961059570312</v>
       </c>
       <c r="J29" t="n">
-        <v>49.60261535644531</v>
+        <v>56.66198348999023</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>499.4837951660156</v>
+        <v>489.1880798339844</v>
       </c>
       <c r="H30" t="n">
-        <v>26.66808891296387</v>
+        <v>73.83466339111328</v>
       </c>
       <c r="I30" t="n">
-        <v>502.0006713867188</v>
+        <v>897.8956909179688</v>
       </c>
       <c r="J30" t="n">
-        <v>48.90951538085938</v>
+        <v>40.04157257080078</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>536.2150268554688</v>
+        <v>686.7034301757812</v>
       </c>
       <c r="H31" t="n">
-        <v>24.99674987792969</v>
+        <v>97.94486236572266</v>
       </c>
       <c r="I31" t="n">
-        <v>504.665771484375</v>
+        <v>879.3251953125</v>
       </c>
       <c r="J31" t="n">
-        <v>49.30182266235352</v>
+        <v>110.6558227539062</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>375.6563415527344</v>
+        <v>223.1969757080078</v>
       </c>
       <c r="H32" t="n">
-        <v>28.72130584716797</v>
+        <v>40.02384185791016</v>
       </c>
       <c r="I32" t="n">
-        <v>367.7289428710938</v>
+        <v>150.2475738525391</v>
       </c>
       <c r="J32" t="n">
-        <v>80.93254852294922</v>
+        <v>78.96370697021484</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>383.8633117675781</v>
+        <v>229.6002197265625</v>
       </c>
       <c r="H33" t="n">
-        <v>29.24066543579102</v>
+        <v>38.86943054199219</v>
       </c>
       <c r="I33" t="n">
-        <v>394.9857482910156</v>
+        <v>178.8031158447266</v>
       </c>
       <c r="J33" t="n">
-        <v>77.08783721923828</v>
+        <v>77.65932464599609</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>392.7182922363281</v>
+        <v>240.3328704833984</v>
       </c>
       <c r="H34" t="n">
-        <v>27.98950576782227</v>
+        <v>41.70570755004883</v>
       </c>
       <c r="I34" t="n">
-        <v>416.4753112792969</v>
+        <v>225.4684448242188</v>
       </c>
       <c r="J34" t="n">
-        <v>72.49272155761719</v>
+        <v>88.27307891845703</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>405.0743713378906</v>
+        <v>255.0492095947266</v>
       </c>
       <c r="H35" t="n">
-        <v>28.16996574401855</v>
+        <v>45.26540756225586</v>
       </c>
       <c r="I35" t="n">
-        <v>434.7168884277344</v>
+        <v>354.2206726074219</v>
       </c>
       <c r="J35" t="n">
-        <v>64.47074127197266</v>
+        <v>57.17677307128906</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>420.9451904296875</v>
+        <v>271.5799865722656</v>
       </c>
       <c r="H36" t="n">
-        <v>28.93486785888672</v>
+        <v>47.37806701660156</v>
       </c>
       <c r="I36" t="n">
-        <v>451.4626159667969</v>
+        <v>584.9273681640625</v>
       </c>
       <c r="J36" t="n">
-        <v>60.64458465576172</v>
+        <v>130.6939086914062</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>437.3886413574219</v>
+        <v>303.9788208007812</v>
       </c>
       <c r="H37" t="n">
-        <v>26.24175071716309</v>
+        <v>51.88367080688477</v>
       </c>
       <c r="I37" t="n">
-        <v>463.9139709472656</v>
+        <v>766.6856079101562</v>
       </c>
       <c r="J37" t="n">
-        <v>57.88025665283203</v>
+        <v>86.39515686035156</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>462.0635375976562</v>
+        <v>375.2999572753906</v>
       </c>
       <c r="H38" t="n">
-        <v>28.28277969360352</v>
+        <v>58.27492141723633</v>
       </c>
       <c r="I38" t="n">
-        <v>478.9823913574219</v>
+        <v>849.6774291992188</v>
       </c>
       <c r="J38" t="n">
-        <v>52.86267471313477</v>
+        <v>81.04225921630859</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>488.9781188964844</v>
+        <v>496.7110595703125</v>
       </c>
       <c r="H39" t="n">
-        <v>27.87094879150391</v>
+        <v>76.13369750976562</v>
       </c>
       <c r="I39" t="n">
-        <v>484.3419799804688</v>
+        <v>873.1569213867188</v>
       </c>
       <c r="J39" t="n">
-        <v>50.84754943847656</v>
+        <v>69.64479827880859</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>529.9293823242188</v>
+        <v>684.6514282226562</v>
       </c>
       <c r="H40" t="n">
-        <v>26.96886825561523</v>
+        <v>99.09154510498047</v>
       </c>
       <c r="I40" t="n">
-        <v>487.4260864257812</v>
+        <v>879.5983276367188</v>
       </c>
       <c r="J40" t="n">
-        <v>48.73775863647461</v>
+        <v>101.2119598388672</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>373.4074096679688</v>
+        <v>238.5224151611328</v>
       </c>
       <c r="H41" t="n">
-        <v>28.27492141723633</v>
+        <v>43.81320190429688</v>
       </c>
       <c r="I41" t="n">
-        <v>336.1753845214844</v>
+        <v>87.03424835205078</v>
       </c>
       <c r="J41" t="n">
-        <v>93.49556732177734</v>
+        <v>121.0344543457031</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>379.1935424804688</v>
+        <v>250.0007781982422</v>
       </c>
       <c r="H42" t="n">
-        <v>27.79411506652832</v>
+        <v>49.10063552856445</v>
       </c>
       <c r="I42" t="n">
-        <v>359.1299133300781</v>
+        <v>106.1374588012695</v>
       </c>
       <c r="J42" t="n">
-        <v>90.40956115722656</v>
+        <v>120.7118682861328</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>387.2294616699219</v>
+        <v>259.3615417480469</v>
       </c>
       <c r="H43" t="n">
-        <v>28.89598274230957</v>
+        <v>53.01704788208008</v>
       </c>
       <c r="I43" t="n">
-        <v>376.42578125</v>
+        <v>142.5581665039062</v>
       </c>
       <c r="J43" t="n">
-        <v>82.92977905273438</v>
+        <v>118.941650390625</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>401.1700744628906</v>
+        <v>273.8648681640625</v>
       </c>
       <c r="H44" t="n">
-        <v>27.96973419189453</v>
+        <v>54.19411849975586</v>
       </c>
       <c r="I44" t="n">
-        <v>407.7918701171875</v>
+        <v>251.6962432861328</v>
       </c>
       <c r="J44" t="n">
-        <v>73.06650543212891</v>
+        <v>106.2899932861328</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>410.8795166015625</v>
+        <v>289.1603088378906</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21684455871582</v>
+        <v>52.47307205200195</v>
       </c>
       <c r="I45" t="n">
-        <v>419.2280883789062</v>
+        <v>327.9902038574219</v>
       </c>
       <c r="J45" t="n">
-        <v>73.74542236328125</v>
+        <v>107.4389114379883</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>430.9197998046875</v>
+        <v>322.8015747070312</v>
       </c>
       <c r="H46" t="n">
-        <v>28.68160820007324</v>
+        <v>56.73625183105469</v>
       </c>
       <c r="I46" t="n">
-        <v>442.1427001953125</v>
+        <v>495.2736511230469</v>
       </c>
       <c r="J46" t="n">
-        <v>61.83400726318359</v>
+        <v>111.2597274780273</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>451.8425903320312</v>
+        <v>390.0082702636719</v>
       </c>
       <c r="H47" t="n">
-        <v>28.13867568969727</v>
+        <v>71.56766510009766</v>
       </c>
       <c r="I47" t="n">
-        <v>454.9145202636719</v>
+        <v>785.2815551757812</v>
       </c>
       <c r="J47" t="n">
-        <v>58.34920120239258</v>
+        <v>109.078239440918</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>483.3466186523438</v>
+        <v>511.6932067871094</v>
       </c>
       <c r="H48" t="n">
-        <v>28.89077949523926</v>
+        <v>93.72792053222656</v>
       </c>
       <c r="I48" t="n">
-        <v>476.4610290527344</v>
+        <v>850.866455078125</v>
       </c>
       <c r="J48" t="n">
-        <v>54.20018768310547</v>
+        <v>89.0477294921875</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>513.6890258789062</v>
+        <v>642.755126953125</v>
       </c>
       <c r="H49" t="n">
-        <v>27.63911247253418</v>
+        <v>117.6334991455078</v>
       </c>
       <c r="I49" t="n">
-        <v>479.1395263671875</v>
+        <v>879.6774291992188</v>
       </c>
       <c r="J49" t="n">
-        <v>50.79676818847656</v>
+        <v>103.3918304443359</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>372.7626647949219</v>
+        <v>264.2761535644531</v>
       </c>
       <c r="H50" t="n">
-        <v>29.03472328186035</v>
+        <v>58.72451019287109</v>
       </c>
       <c r="I50" t="n">
-        <v>302.4375915527344</v>
+        <v>-59.31529235839844</v>
       </c>
       <c r="J50" t="n">
-        <v>93.01519012451172</v>
+        <v>187.6036682128906</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>378.9040832519531</v>
+        <v>273.2337036132812</v>
       </c>
       <c r="H51" t="n">
-        <v>28.3535270690918</v>
+        <v>59.07437896728516</v>
       </c>
       <c r="I51" t="n">
-        <v>320.4461059570312</v>
+        <v>-35.27455139160156</v>
       </c>
       <c r="J51" t="n">
-        <v>97.00601196289062</v>
+        <v>193.4465942382812</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>382.7349853515625</v>
+        <v>276.0988464355469</v>
       </c>
       <c r="H52" t="n">
-        <v>28.20039939880371</v>
+        <v>53.92488861083984</v>
       </c>
       <c r="I52" t="n">
-        <v>333.27685546875</v>
+        <v>5.481805801391602</v>
       </c>
       <c r="J52" t="n">
-        <v>84.65829467773438</v>
+        <v>192.1799163818359</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>395.0311279296875</v>
+        <v>289.6678161621094</v>
       </c>
       <c r="H53" t="n">
-        <v>29.1788387298584</v>
+        <v>53.81100463867188</v>
       </c>
       <c r="I53" t="n">
-        <v>357.9100341796875</v>
+        <v>105.4791030883789</v>
       </c>
       <c r="J53" t="n">
-        <v>85.97563171386719</v>
+        <v>191.8942108154297</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>408.1148681640625</v>
+        <v>307.1910400390625</v>
       </c>
       <c r="H54" t="n">
-        <v>29.28945541381836</v>
+        <v>56.95399475097656</v>
       </c>
       <c r="I54" t="n">
-        <v>383.1096496582031</v>
+        <v>211.0834197998047</v>
       </c>
       <c r="J54" t="n">
-        <v>77.46025085449219</v>
+        <v>179.4226226806641</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>422.1631774902344</v>
+        <v>332.5883178710938</v>
       </c>
       <c r="H55" t="n">
-        <v>30.42349243164062</v>
+        <v>62.40065765380859</v>
       </c>
       <c r="I55" t="n">
-        <v>409.5748291015625</v>
+        <v>344.5972595214844</v>
       </c>
       <c r="J55" t="n">
-        <v>70.64813232421875</v>
+        <v>139.4141998291016</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>442.6154174804688</v>
+        <v>380.2331848144531</v>
       </c>
       <c r="H56" t="n">
-        <v>30.25266075134277</v>
+        <v>75.16716003417969</v>
       </c>
       <c r="I56" t="n">
-        <v>428.6073913574219</v>
+        <v>712.5487670898438</v>
       </c>
       <c r="J56" t="n">
-        <v>65.32364654541016</v>
+        <v>203.5035552978516</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>466.2235412597656</v>
+        <v>465.4582214355469</v>
       </c>
       <c r="H57" t="n">
-        <v>28.72369003295898</v>
+        <v>99.43369293212891</v>
       </c>
       <c r="I57" t="n">
-        <v>448.3099365234375</v>
+        <v>828.3671264648438</v>
       </c>
       <c r="J57" t="n">
-        <v>61.24928665161133</v>
+        <v>129.8660125732422</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>506.677490234375</v>
+        <v>613.8348999023438</v>
       </c>
       <c r="H58" t="n">
-        <v>27.68627166748047</v>
+        <v>134.2433624267578</v>
       </c>
       <c r="I58" t="n">
-        <v>463.0864562988281</v>
+        <v>883.7317504882812</v>
       </c>
       <c r="J58" t="n">
-        <v>55.70590972900391</v>
+        <v>137.2553100585938</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>377.8747253417969</v>
+        <v>284.8382873535156</v>
       </c>
       <c r="H59" t="n">
-        <v>29.36941909790039</v>
+        <v>57.96184158325195</v>
       </c>
       <c r="I59" t="n">
-        <v>274.3631286621094</v>
+        <v>-174.5579223632812</v>
       </c>
       <c r="J59" t="n">
-        <v>101.0529098510742</v>
+        <v>202.8799896240234</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>383.5957641601562</v>
+        <v>295.8485412597656</v>
       </c>
       <c r="H60" t="n">
-        <v>29.66822242736816</v>
+        <v>61.69197082519531</v>
       </c>
       <c r="I60" t="n">
-        <v>286.5053100585938</v>
+        <v>-146.7328338623047</v>
       </c>
       <c r="J60" t="n">
-        <v>100.5496139526367</v>
+        <v>220.9827117919922</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>389.6195373535156</v>
+        <v>305.9153137207031</v>
       </c>
       <c r="H61" t="n">
-        <v>29.84739685058594</v>
+        <v>67.71394348144531</v>
       </c>
       <c r="I61" t="n">
-        <v>311.4235534667969</v>
+        <v>-109.808479309082</v>
       </c>
       <c r="J61" t="n">
-        <v>90.52198028564453</v>
+        <v>227.5531921386719</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>401.4117126464844</v>
+        <v>321.7914733886719</v>
       </c>
       <c r="H62" t="n">
-        <v>30.18848037719727</v>
+        <v>72.94883728027344</v>
       </c>
       <c r="I62" t="n">
-        <v>341.8887634277344</v>
+        <v>-24.42745018005371</v>
       </c>
       <c r="J62" t="n">
-        <v>84.77011108398438</v>
+        <v>225.6341094970703</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>412.6792602539062</v>
+        <v>341.7930908203125</v>
       </c>
       <c r="H63" t="n">
-        <v>29.9376220703125</v>
+        <v>75.95411682128906</v>
       </c>
       <c r="I63" t="n">
-        <v>373.1374816894531</v>
+        <v>129.9004364013672</v>
       </c>
       <c r="J63" t="n">
-        <v>74.93928527832031</v>
+        <v>240.1810302734375</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>434.1787414550781</v>
+        <v>380.0573425292969</v>
       </c>
       <c r="H64" t="n">
-        <v>30.30112457275391</v>
+        <v>83.92008209228516</v>
       </c>
       <c r="I64" t="n">
-        <v>400.8125915527344</v>
+        <v>677.5343627929688</v>
       </c>
       <c r="J64" t="n">
-        <v>69.55516815185547</v>
+        <v>327.2991638183594</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>459.4066162109375</v>
+        <v>454.1189880371094</v>
       </c>
       <c r="H65" t="n">
-        <v>31.06166839599609</v>
+        <v>101.1746597290039</v>
       </c>
       <c r="I65" t="n">
-        <v>426.9305419921875</v>
+        <v>859.16259765625</v>
       </c>
       <c r="J65" t="n">
-        <v>64.19895935058594</v>
+        <v>180.5821228027344</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>380.0560607910156</v>
+        <v>312.8316955566406</v>
       </c>
       <c r="H66" t="n">
-        <v>31.30639266967773</v>
+        <v>83.948486328125</v>
       </c>
       <c r="I66" t="n">
-        <v>229.3132781982422</v>
+        <v>-252.0653533935547</v>
       </c>
       <c r="J66" t="n">
-        <v>100.7760925292969</v>
+        <v>195.0019836425781</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>385.996337890625</v>
+        <v>320.1527404785156</v>
       </c>
       <c r="H67" t="n">
-        <v>30.53821754455566</v>
+        <v>88.68776702880859</v>
       </c>
       <c r="I67" t="n">
-        <v>243.0392761230469</v>
+        <v>-237.6372680664062</v>
       </c>
       <c r="J67" t="n">
-        <v>104.0161437988281</v>
+        <v>193.8654327392578</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>399.1794128417969</v>
+        <v>336.3495178222656</v>
       </c>
       <c r="H68" t="n">
-        <v>31.90456008911133</v>
+        <v>93.30705261230469</v>
       </c>
       <c r="I68" t="n">
-        <v>287.3488464355469</v>
+        <v>-174.7967681884766</v>
       </c>
       <c r="J68" t="n">
-        <v>98.40895843505859</v>
+        <v>202.1427459716797</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>406.7330017089844</v>
+        <v>348.4385986328125</v>
       </c>
       <c r="H69" t="n">
-        <v>30.66131019592285</v>
+        <v>94.65238189697266</v>
       </c>
       <c r="I69" t="n">
-        <v>319.0708923339844</v>
+        <v>-22.05934715270996</v>
       </c>
       <c r="J69" t="n">
-        <v>88.49962615966797</v>
+        <v>269.9913330078125</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>424.9966430664062</v>
+        <v>381.028076171875</v>
       </c>
       <c r="H70" t="n">
-        <v>30.75972747802734</v>
+        <v>98.24667358398438</v>
       </c>
       <c r="I70" t="n">
-        <v>365.4766540527344</v>
+        <v>754.1414184570312</v>
       </c>
       <c r="J70" t="n">
-        <v>79.95827484130859</v>
+        <v>427.4314270019531</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>213.9303741455078</v>
+        <v>248.4955596923828</v>
       </c>
       <c r="H2" t="n">
-        <v>30.68736839294434</v>
+        <v>26.66217803955078</v>
       </c>
       <c r="I2" t="n">
-        <v>637.8878784179688</v>
+        <v>578.6473999023438</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3275146484375</v>
+        <v>116.4689483642578</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>227.7247314453125</v>
+        <v>323.1783752441406</v>
       </c>
       <c r="H3" t="n">
-        <v>35.55875015258789</v>
+        <v>31.93510055541992</v>
       </c>
       <c r="I3" t="n">
-        <v>719.5353393554688</v>
+        <v>607.4551391601562</v>
       </c>
       <c r="J3" t="n">
-        <v>178.9946594238281</v>
+        <v>128.8126220703125</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>249.6651153564453</v>
+        <v>407.3240661621094</v>
       </c>
       <c r="H4" t="n">
-        <v>42.51515197753906</v>
+        <v>37.1927375793457</v>
       </c>
       <c r="I4" t="n">
-        <v>764.935546875</v>
+        <v>610.1979370117188</v>
       </c>
       <c r="J4" t="n">
-        <v>167.1141204833984</v>
+        <v>145.0022430419922</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>285.4375915527344</v>
+        <v>502.8062438964844</v>
       </c>
       <c r="H5" t="n">
-        <v>52.39697647094727</v>
+        <v>43.06364059448242</v>
       </c>
       <c r="I5" t="n">
-        <v>784.1962890625</v>
+        <v>571.5265502929688</v>
       </c>
       <c r="J5" t="n">
-        <v>143.0685272216797</v>
+        <v>171.870361328125</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>354.3470153808594</v>
+        <v>617.2867431640625</v>
       </c>
       <c r="H6" t="n">
-        <v>68.0052490234375</v>
+        <v>49.73566818237305</v>
       </c>
       <c r="I6" t="n">
-        <v>751.9257202148438</v>
+        <v>488.8433532714844</v>
       </c>
       <c r="J6" t="n">
-        <v>180.6287384033203</v>
+        <v>200.3740997314453</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>207.3047637939453</v>
+        <v>172.9517822265625</v>
       </c>
       <c r="H7" t="n">
-        <v>28.62872695922852</v>
+        <v>15.41209030151367</v>
       </c>
       <c r="I7" t="n">
-        <v>632.9871826171875</v>
+        <v>592.1296997070312</v>
       </c>
       <c r="J7" t="n">
-        <v>84.94870758056641</v>
+        <v>82.22210693359375</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>208.4828491210938</v>
+        <v>202.8132171630859</v>
       </c>
       <c r="H8" t="n">
-        <v>27.43654632568359</v>
+        <v>18.52700424194336</v>
       </c>
       <c r="I8" t="n">
-        <v>751.2568359375</v>
+        <v>589.8285522460938</v>
       </c>
       <c r="J8" t="n">
-        <v>128.6756439208984</v>
+        <v>108.4248809814453</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>216.3081512451172</v>
+        <v>271.1520690917969</v>
       </c>
       <c r="H9" t="n">
-        <v>30.76294898986816</v>
+        <v>25.39122581481934</v>
       </c>
       <c r="I9" t="n">
-        <v>854.9052124023438</v>
+        <v>572.7396850585938</v>
       </c>
       <c r="J9" t="n">
-        <v>107.3676528930664</v>
+        <v>137.5071411132812</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>231.4726715087891</v>
+        <v>342.322509765625</v>
       </c>
       <c r="H10" t="n">
-        <v>36.85184478759766</v>
+        <v>33.32188034057617</v>
       </c>
       <c r="I10" t="n">
-        <v>894.1443481445312</v>
+        <v>554.1809692382812</v>
       </c>
       <c r="J10" t="n">
-        <v>73.99111175537109</v>
+        <v>145.98388671875</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>269.3270263671875</v>
+        <v>454.2318115234375</v>
       </c>
       <c r="H11" t="n">
-        <v>47.74212646484375</v>
+        <v>45.14406204223633</v>
       </c>
       <c r="I11" t="n">
-        <v>900.352783203125</v>
+        <v>507.4258117675781</v>
       </c>
       <c r="J11" t="n">
-        <v>53.22438049316406</v>
+        <v>180.3514862060547</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>331.3009948730469</v>
+        <v>564.0442504882812</v>
       </c>
       <c r="H12" t="n">
-        <v>59.27046203613281</v>
+        <v>50.62684631347656</v>
       </c>
       <c r="I12" t="n">
-        <v>894.954345703125</v>
+        <v>487.4049072265625</v>
       </c>
       <c r="J12" t="n">
-        <v>45.46795654296875</v>
+        <v>205.4931488037109</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>460.2984619140625</v>
+        <v>686.4614868164062</v>
       </c>
       <c r="H13" t="n">
-        <v>75.89402770996094</v>
+        <v>54.40877914428711</v>
       </c>
       <c r="I13" t="n">
-        <v>890.6228637695312</v>
+        <v>531.4241333007812</v>
       </c>
       <c r="J13" t="n">
-        <v>37.89447021484375</v>
+        <v>199.7505340576172</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>206.6026611328125</v>
+        <v>132.5125885009766</v>
       </c>
       <c r="H14" t="n">
-        <v>37.14742279052734</v>
+        <v>9.719316482543945</v>
       </c>
       <c r="I14" t="n">
-        <v>313.4208068847656</v>
+        <v>303.3833312988281</v>
       </c>
       <c r="J14" t="n">
-        <v>107.7241516113281</v>
+        <v>34.27835083007812</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>210.2003631591797</v>
+        <v>155.0419464111328</v>
       </c>
       <c r="H15" t="n">
-        <v>32.52318954467773</v>
+        <v>12.54549503326416</v>
       </c>
       <c r="I15" t="n">
-        <v>600.3486938476562</v>
+        <v>440.5711975097656</v>
       </c>
       <c r="J15" t="n">
-        <v>53.22469329833984</v>
+        <v>81.07102966308594</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>213.7965087890625</v>
+        <v>214.6580352783203</v>
       </c>
       <c r="H16" t="n">
-        <v>30.47947883605957</v>
+        <v>22.050537109375</v>
       </c>
       <c r="I16" t="n">
-        <v>777.4568481445312</v>
+        <v>586.0713500976562</v>
       </c>
       <c r="J16" t="n">
-        <v>92.52462005615234</v>
+        <v>91.99871063232422</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>219.1242828369141</v>
+        <v>227.3647613525391</v>
       </c>
       <c r="H17" t="n">
-        <v>30.23745536804199</v>
+        <v>20.89494514465332</v>
       </c>
       <c r="I17" t="n">
-        <v>831.818603515625</v>
+        <v>625.1198120117188</v>
       </c>
       <c r="J17" t="n">
-        <v>84.44113159179688</v>
+        <v>98.32285308837891</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>233.4843139648438</v>
+        <v>294.6914978027344</v>
       </c>
       <c r="H18" t="n">
-        <v>37.46252059936523</v>
+        <v>30.21321105957031</v>
       </c>
       <c r="I18" t="n">
-        <v>899.8234252929688</v>
+        <v>641.0166015625</v>
       </c>
       <c r="J18" t="n">
-        <v>55.74211120605469</v>
+        <v>114.4064788818359</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>269.4908752441406</v>
+        <v>398.7954406738281</v>
       </c>
       <c r="H19" t="n">
-        <v>45.88938140869141</v>
+        <v>43.23799133300781</v>
       </c>
       <c r="I19" t="n">
-        <v>915.102783203125</v>
+        <v>598.6213989257812</v>
       </c>
       <c r="J19" t="n">
-        <v>34.97978591918945</v>
+        <v>146.9876556396484</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>329.0116882324219</v>
+        <v>511.7107238769531</v>
       </c>
       <c r="H20" t="n">
-        <v>59.04191207885742</v>
+        <v>53.07540130615234</v>
       </c>
       <c r="I20" t="n">
-        <v>913.1798706054688</v>
+        <v>583.7615966796875</v>
       </c>
       <c r="J20" t="n">
-        <v>29.78023719787598</v>
+        <v>166.9107055664062</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>464.21923828125</v>
+        <v>640.9714965820312</v>
       </c>
       <c r="H21" t="n">
-        <v>75.34752655029297</v>
+        <v>56.3786735534668</v>
       </c>
       <c r="I21" t="n">
-        <v>904.78173828125</v>
+        <v>605.3125</v>
       </c>
       <c r="J21" t="n">
-        <v>26.69968795776367</v>
+        <v>190.1160125732422</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>677.8992919921875</v>
+        <v>774.4563598632812</v>
       </c>
       <c r="H22" t="n">
-        <v>87.51878356933594</v>
+        <v>56.76414108276367</v>
       </c>
       <c r="I22" t="n">
-        <v>879.5906372070312</v>
+        <v>585.3720092773438</v>
       </c>
       <c r="J22" t="n">
-        <v>110.0421371459961</v>
+        <v>243.9412384033203</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>212.3333129882812</v>
+        <v>129.2509918212891</v>
       </c>
       <c r="H23" t="n">
-        <v>38.41482543945312</v>
+        <v>9.178464889526367</v>
       </c>
       <c r="I23" t="n">
-        <v>183.5372467041016</v>
+        <v>178.3637542724609</v>
       </c>
       <c r="J23" t="n">
-        <v>84.67831420898438</v>
+        <v>33.27532958984375</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>217.5108642578125</v>
+        <v>143.7610321044922</v>
       </c>
       <c r="H24" t="n">
-        <v>35.32129669189453</v>
+        <v>10.99419784545898</v>
       </c>
       <c r="I24" t="n">
-        <v>199.4168243408203</v>
+        <v>233.5504913330078</v>
       </c>
       <c r="J24" t="n">
-        <v>96.85456085205078</v>
+        <v>53.97352600097656</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>222.9742431640625</v>
+        <v>171.2201080322266</v>
       </c>
       <c r="H25" t="n">
-        <v>35.04705810546875</v>
+        <v>14.80550765991211</v>
       </c>
       <c r="I25" t="n">
-        <v>377.840087890625</v>
+        <v>340.1147766113281</v>
       </c>
       <c r="J25" t="n">
-        <v>110.6293334960938</v>
+        <v>77.19548034667969</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>230.6482391357422</v>
+        <v>204.9347991943359</v>
       </c>
       <c r="H26" t="n">
-        <v>35.96352005004883</v>
+        <v>19.80179214477539</v>
       </c>
       <c r="I26" t="n">
-        <v>735.5556030273438</v>
+        <v>471.6006164550781</v>
       </c>
       <c r="J26" t="n">
-        <v>97.01910400390625</v>
+        <v>88.75014495849609</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>248.6912384033203</v>
+        <v>258.8070983886719</v>
       </c>
       <c r="H27" t="n">
-        <v>41.60467529296875</v>
+        <v>28.79029083251953</v>
       </c>
       <c r="I27" t="n">
-        <v>810.1826171875</v>
+        <v>619.60595703125</v>
       </c>
       <c r="J27" t="n">
-        <v>70.7889404296875</v>
+        <v>94.84917449951172</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>281.5074768066406</v>
+        <v>352.960205078125</v>
       </c>
       <c r="H28" t="n">
-        <v>49.08550262451172</v>
+        <v>42.10969161987305</v>
       </c>
       <c r="I28" t="n">
-        <v>860.9132690429688</v>
+        <v>671.434326171875</v>
       </c>
       <c r="J28" t="n">
-        <v>77.04543304443359</v>
+        <v>82.56885528564453</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6836242675781</v>
+        <v>458.011474609375</v>
       </c>
       <c r="H29" t="n">
-        <v>57.67470932006836</v>
+        <v>52.57162094116211</v>
       </c>
       <c r="I29" t="n">
-        <v>887.1961059570312</v>
+        <v>668.7588500976562</v>
       </c>
       <c r="J29" t="n">
-        <v>56.66198348999023</v>
+        <v>113.4284057617188</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>489.1880798339844</v>
+        <v>606.4718627929688</v>
       </c>
       <c r="H30" t="n">
-        <v>73.83466339111328</v>
+        <v>59.88245391845703</v>
       </c>
       <c r="I30" t="n">
-        <v>897.8956909179688</v>
+        <v>664.0181274414062</v>
       </c>
       <c r="J30" t="n">
-        <v>40.04157257080078</v>
+        <v>168.1126403808594</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>686.7034301757812</v>
+        <v>737.8146362304688</v>
       </c>
       <c r="H31" t="n">
-        <v>97.94486236572266</v>
+        <v>60.67007827758789</v>
       </c>
       <c r="I31" t="n">
-        <v>879.3251953125</v>
+        <v>624.3507080078125</v>
       </c>
       <c r="J31" t="n">
-        <v>110.6558227539062</v>
+        <v>228.9985046386719</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>223.1969757080078</v>
+        <v>127.4997634887695</v>
       </c>
       <c r="H32" t="n">
-        <v>40.02384185791016</v>
+        <v>9.092411994934082</v>
       </c>
       <c r="I32" t="n">
-        <v>150.2475738525391</v>
+        <v>49.76015090942383</v>
       </c>
       <c r="J32" t="n">
-        <v>78.96370697021484</v>
+        <v>41.06553268432617</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>229.6002197265625</v>
+        <v>145.2592010498047</v>
       </c>
       <c r="H33" t="n">
-        <v>38.86943054199219</v>
+        <v>12.0696496963501</v>
       </c>
       <c r="I33" t="n">
-        <v>178.8031158447266</v>
+        <v>106.8977432250977</v>
       </c>
       <c r="J33" t="n">
-        <v>77.65932464599609</v>
+        <v>38.93297576904297</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>240.3328704833984</v>
+        <v>169.7903137207031</v>
       </c>
       <c r="H34" t="n">
-        <v>41.70570755004883</v>
+        <v>16.48862648010254</v>
       </c>
       <c r="I34" t="n">
-        <v>225.4684448242188</v>
+        <v>169.1137390136719</v>
       </c>
       <c r="J34" t="n">
-        <v>88.27307891845703</v>
+        <v>53.78823089599609</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>255.0492095947266</v>
+        <v>201.693359375</v>
       </c>
       <c r="H35" t="n">
-        <v>45.26540756225586</v>
+        <v>22.7855167388916</v>
       </c>
       <c r="I35" t="n">
-        <v>354.2206726074219</v>
+        <v>253.7906951904297</v>
       </c>
       <c r="J35" t="n">
-        <v>57.17677307128906</v>
+        <v>99.70470428466797</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>271.5799865722656</v>
+        <v>256.3835754394531</v>
       </c>
       <c r="H36" t="n">
-        <v>47.37806701660156</v>
+        <v>32.71244049072266</v>
       </c>
       <c r="I36" t="n">
-        <v>584.9273681640625</v>
+        <v>447.9774475097656</v>
       </c>
       <c r="J36" t="n">
-        <v>130.6939086914062</v>
+        <v>119.7398910522461</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>303.9788208007812</v>
+        <v>321.3660278320312</v>
       </c>
       <c r="H37" t="n">
-        <v>51.88367080688477</v>
+        <v>43.81318283081055</v>
       </c>
       <c r="I37" t="n">
-        <v>766.6856079101562</v>
+        <v>621.3007202148438</v>
       </c>
       <c r="J37" t="n">
-        <v>86.39515686035156</v>
+        <v>145.1827850341797</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>375.2999572753906</v>
+        <v>432.7766418457031</v>
       </c>
       <c r="H38" t="n">
-        <v>58.27492141723633</v>
+        <v>56.43509292602539</v>
       </c>
       <c r="I38" t="n">
-        <v>849.6774291992188</v>
+        <v>697.489501953125</v>
       </c>
       <c r="J38" t="n">
-        <v>81.04225921630859</v>
+        <v>125.4559097290039</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>496.7110595703125</v>
+        <v>546.4158325195312</v>
       </c>
       <c r="H39" t="n">
-        <v>76.13369750976562</v>
+        <v>61.67497634887695</v>
       </c>
       <c r="I39" t="n">
-        <v>873.1569213867188</v>
+        <v>686.2496948242188</v>
       </c>
       <c r="J39" t="n">
-        <v>69.64479827880859</v>
+        <v>142.0787963867188</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>684.6514282226562</v>
+        <v>696.5333862304688</v>
       </c>
       <c r="H40" t="n">
-        <v>99.09154510498047</v>
+        <v>65.05873870849609</v>
       </c>
       <c r="I40" t="n">
-        <v>879.5983276367188</v>
+        <v>646.7627563476562</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2119598388672</v>
+        <v>210.6593017578125</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>238.5224151611328</v>
+        <v>134.2098846435547</v>
       </c>
       <c r="H41" t="n">
-        <v>43.81320190429688</v>
+        <v>11.11711406707764</v>
       </c>
       <c r="I41" t="n">
-        <v>87.03424835205078</v>
+        <v>12.16478824615479</v>
       </c>
       <c r="J41" t="n">
-        <v>121.0344543457031</v>
+        <v>64.49967193603516</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>250.0007781982422</v>
+        <v>149.8352813720703</v>
       </c>
       <c r="H42" t="n">
-        <v>49.10063552856445</v>
+        <v>14.5717716217041</v>
       </c>
       <c r="I42" t="n">
-        <v>106.1374588012695</v>
+        <v>44.02567672729492</v>
       </c>
       <c r="J42" t="n">
-        <v>120.7118682861328</v>
+        <v>63.40349960327148</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>259.3615417480469</v>
+        <v>165.1138610839844</v>
       </c>
       <c r="H43" t="n">
-        <v>53.01704788208008</v>
+        <v>18.06930351257324</v>
       </c>
       <c r="I43" t="n">
-        <v>142.5581665039062</v>
+        <v>76.0750732421875</v>
       </c>
       <c r="J43" t="n">
-        <v>118.941650390625</v>
+        <v>64.40692138671875</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>273.8648681640625</v>
+        <v>204.4514617919922</v>
       </c>
       <c r="H44" t="n">
-        <v>54.19411849975586</v>
+        <v>27.68854141235352</v>
       </c>
       <c r="I44" t="n">
-        <v>251.6962432861328</v>
+        <v>167.0365295410156</v>
       </c>
       <c r="J44" t="n">
-        <v>106.2899932861328</v>
+        <v>67.89354705810547</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>289.1603088378906</v>
+        <v>236.1432495117188</v>
       </c>
       <c r="H45" t="n">
-        <v>52.47307205200195</v>
+        <v>34.97674560546875</v>
       </c>
       <c r="I45" t="n">
-        <v>327.9902038574219</v>
+        <v>250.8977813720703</v>
       </c>
       <c r="J45" t="n">
-        <v>107.4389114379883</v>
+        <v>80.22843170166016</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>322.8015747070312</v>
+        <v>297.0717468261719</v>
       </c>
       <c r="H46" t="n">
-        <v>56.73625183105469</v>
+        <v>46.34309005737305</v>
       </c>
       <c r="I46" t="n">
-        <v>495.2736511230469</v>
+        <v>438.0221862792969</v>
       </c>
       <c r="J46" t="n">
-        <v>111.2597274780273</v>
+        <v>157.1455841064453</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>390.0082702636719</v>
+        <v>390.7998046875</v>
       </c>
       <c r="H47" t="n">
-        <v>71.56766510009766</v>
+        <v>59.39350891113281</v>
       </c>
       <c r="I47" t="n">
-        <v>785.2815551757812</v>
+        <v>660.1636352539062</v>
       </c>
       <c r="J47" t="n">
-        <v>109.078239440918</v>
+        <v>169.0337524414062</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>511.6932067871094</v>
+        <v>519.6318969726562</v>
       </c>
       <c r="H48" t="n">
-        <v>93.72792053222656</v>
+        <v>66.12603759765625</v>
       </c>
       <c r="I48" t="n">
-        <v>850.866455078125</v>
+        <v>700.32373046875</v>
       </c>
       <c r="J48" t="n">
-        <v>89.0477294921875</v>
+        <v>159.6027526855469</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>642.755126953125</v>
+        <v>636.3219604492188</v>
       </c>
       <c r="H49" t="n">
-        <v>117.6334991455078</v>
+        <v>70.26042175292969</v>
       </c>
       <c r="I49" t="n">
-        <v>879.6774291992188</v>
+        <v>682.1221923828125</v>
       </c>
       <c r="J49" t="n">
-        <v>103.3918304443359</v>
+        <v>199.6822357177734</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>264.2761535644531</v>
+        <v>143.0270233154297</v>
       </c>
       <c r="H50" t="n">
-        <v>58.72451019287109</v>
+        <v>14.62878036499023</v>
       </c>
       <c r="I50" t="n">
-        <v>-59.31529235839844</v>
+        <v>-6.174621105194092</v>
       </c>
       <c r="J50" t="n">
-        <v>187.6036682128906</v>
+        <v>101.7112121582031</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>273.2337036132812</v>
+        <v>161.0871429443359</v>
       </c>
       <c r="H51" t="n">
-        <v>59.07437896728516</v>
+        <v>20.08559036254883</v>
       </c>
       <c r="I51" t="n">
-        <v>-35.27455139160156</v>
+        <v>7.645270824432373</v>
       </c>
       <c r="J51" t="n">
-        <v>193.4465942382812</v>
+        <v>111.0372467041016</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>276.0988464355469</v>
+        <v>174.4337615966797</v>
       </c>
       <c r="H52" t="n">
-        <v>53.92488861083984</v>
+        <v>24.24226760864258</v>
       </c>
       <c r="I52" t="n">
-        <v>5.481805801391602</v>
+        <v>19.975341796875</v>
       </c>
       <c r="J52" t="n">
-        <v>192.1799163818359</v>
+        <v>113.8400726318359</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>289.6678161621094</v>
+        <v>205.2064361572266</v>
       </c>
       <c r="H53" t="n">
-        <v>53.81100463867188</v>
+        <v>33.28099060058594</v>
       </c>
       <c r="I53" t="n">
-        <v>105.4791030883789</v>
+        <v>72.17173767089844</v>
       </c>
       <c r="J53" t="n">
-        <v>191.8942108154297</v>
+        <v>105.3491287231445</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>307.1910400390625</v>
+        <v>238.6222686767578</v>
       </c>
       <c r="H54" t="n">
-        <v>56.95399475097656</v>
+        <v>41.73549652099609</v>
       </c>
       <c r="I54" t="n">
-        <v>211.0834197998047</v>
+        <v>185.4433746337891</v>
       </c>
       <c r="J54" t="n">
-        <v>179.4226226806641</v>
+        <v>101.0482711791992</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>332.5883178710938</v>
+        <v>284.5263366699219</v>
       </c>
       <c r="H55" t="n">
-        <v>62.40065765380859</v>
+        <v>51.0596923828125</v>
       </c>
       <c r="I55" t="n">
-        <v>344.5972595214844</v>
+        <v>358.46337890625</v>
       </c>
       <c r="J55" t="n">
-        <v>139.4141998291016</v>
+        <v>140.5803070068359</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>380.2331848144531</v>
+        <v>347.7373352050781</v>
       </c>
       <c r="H56" t="n">
-        <v>75.16716003417969</v>
+        <v>61.07646942138672</v>
       </c>
       <c r="I56" t="n">
-        <v>712.5487670898438</v>
+        <v>533.3004150390625</v>
       </c>
       <c r="J56" t="n">
-        <v>203.5035552978516</v>
+        <v>198.7749176025391</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>465.4582214355469</v>
+        <v>448.8684387207031</v>
       </c>
       <c r="H57" t="n">
-        <v>99.43369293212891</v>
+        <v>71.97296142578125</v>
       </c>
       <c r="I57" t="n">
-        <v>828.3671264648438</v>
+        <v>700.5966796875</v>
       </c>
       <c r="J57" t="n">
-        <v>129.8660125732422</v>
+        <v>193.8838500976562</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>613.8348999023438</v>
+        <v>592.8699340820312</v>
       </c>
       <c r="H58" t="n">
-        <v>134.2433624267578</v>
+        <v>76.41744995117188</v>
       </c>
       <c r="I58" t="n">
-        <v>883.7317504882812</v>
+        <v>707.9425659179688</v>
       </c>
       <c r="J58" t="n">
-        <v>137.2553100585938</v>
+        <v>206.0782165527344</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>284.8382873535156</v>
+        <v>170.3424530029297</v>
       </c>
       <c r="H59" t="n">
-        <v>57.96184158325195</v>
+        <v>26.65179061889648</v>
       </c>
       <c r="I59" t="n">
-        <v>-174.5579223632812</v>
+        <v>-25.51274299621582</v>
       </c>
       <c r="J59" t="n">
-        <v>202.8799896240234</v>
+        <v>142.7359466552734</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>295.8485412597656</v>
+        <v>186.5582733154297</v>
       </c>
       <c r="H60" t="n">
-        <v>61.69197082519531</v>
+        <v>32.64118194580078</v>
       </c>
       <c r="I60" t="n">
-        <v>-146.7328338623047</v>
+        <v>-57.13529968261719</v>
       </c>
       <c r="J60" t="n">
-        <v>220.9827117919922</v>
+        <v>142.1728668212891</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>305.9153137207031</v>
+        <v>204.1661834716797</v>
       </c>
       <c r="H61" t="n">
-        <v>67.71394348144531</v>
+        <v>38.8570556640625</v>
       </c>
       <c r="I61" t="n">
-        <v>-109.808479309082</v>
+        <v>-63.31962966918945</v>
       </c>
       <c r="J61" t="n">
-        <v>227.5531921386719</v>
+        <v>147.2788543701172</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>321.7914733886719</v>
+        <v>230.5455932617188</v>
       </c>
       <c r="H62" t="n">
-        <v>72.94883728027344</v>
+        <v>46.58663177490234</v>
       </c>
       <c r="I62" t="n">
-        <v>-24.42745018005371</v>
+        <v>-3.500604629516602</v>
       </c>
       <c r="J62" t="n">
-        <v>225.6341094970703</v>
+        <v>147.7695159912109</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>341.7930908203125</v>
+        <v>266.8027038574219</v>
       </c>
       <c r="H63" t="n">
-        <v>75.95411682128906</v>
+        <v>55.24486541748047</v>
       </c>
       <c r="I63" t="n">
-        <v>129.9004364013672</v>
+        <v>183.9981079101562</v>
       </c>
       <c r="J63" t="n">
-        <v>240.1810302734375</v>
+        <v>145.9027404785156</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>380.0573425292969</v>
+        <v>324.5725708007812</v>
       </c>
       <c r="H64" t="n">
-        <v>83.92008209228516</v>
+        <v>66.07574462890625</v>
       </c>
       <c r="I64" t="n">
-        <v>677.5343627929688</v>
+        <v>432.0885009765625</v>
       </c>
       <c r="J64" t="n">
-        <v>327.2991638183594</v>
+        <v>213.6985168457031</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>454.1189880371094</v>
+        <v>419.5807800292969</v>
       </c>
       <c r="H65" t="n">
-        <v>101.1746597290039</v>
+        <v>76.82027435302734</v>
       </c>
       <c r="I65" t="n">
-        <v>859.16259765625</v>
+        <v>665.9751586914062</v>
       </c>
       <c r="J65" t="n">
-        <v>180.5821228027344</v>
+        <v>223.9349822998047</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>312.8316955566406</v>
+        <v>191.5677642822266</v>
       </c>
       <c r="H66" t="n">
-        <v>83.948486328125</v>
+        <v>40.42232513427734</v>
       </c>
       <c r="I66" t="n">
-        <v>-252.0653533935547</v>
+        <v>-98.94521331787109</v>
       </c>
       <c r="J66" t="n">
-        <v>195.0019836425781</v>
+        <v>201.9642028808594</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>320.1527404785156</v>
+        <v>201.6458282470703</v>
       </c>
       <c r="H67" t="n">
-        <v>88.68776702880859</v>
+        <v>44.76124954223633</v>
       </c>
       <c r="I67" t="n">
-        <v>-237.6372680664062</v>
+        <v>-141.7471466064453</v>
       </c>
       <c r="J67" t="n">
-        <v>193.8654327392578</v>
+        <v>213.0346221923828</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>336.3495178222656</v>
+        <v>229.2811431884766</v>
       </c>
       <c r="H68" t="n">
-        <v>93.30705261230469</v>
+        <v>54.09854507446289</v>
       </c>
       <c r="I68" t="n">
-        <v>-174.7967681884766</v>
+        <v>-171.4136352539062</v>
       </c>
       <c r="J68" t="n">
-        <v>202.1427459716797</v>
+        <v>193.1702880859375</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>348.4385986328125</v>
+        <v>250.3899993896484</v>
       </c>
       <c r="H69" t="n">
-        <v>94.65238189697266</v>
+        <v>59.72175979614258</v>
       </c>
       <c r="I69" t="n">
-        <v>-22.05934715270996</v>
+        <v>-52.56022262573242</v>
       </c>
       <c r="J69" t="n">
-        <v>269.9913330078125</v>
+        <v>218.4277191162109</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>381.028076171875</v>
+        <v>305.8837280273438</v>
       </c>
       <c r="H70" t="n">
-        <v>98.24667358398438</v>
+        <v>72.29437255859375</v>
       </c>
       <c r="I70" t="n">
-        <v>754.1414184570312</v>
+        <v>285.8658447265625</v>
       </c>
       <c r="J70" t="n">
-        <v>427.4314270019531</v>
+        <v>240.5445556640625</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>248.4955596923828</v>
+        <v>248.4960479736328</v>
       </c>
       <c r="H2" t="n">
-        <v>26.66217803955078</v>
+        <v>26.66216659545898</v>
       </c>
       <c r="I2" t="n">
-        <v>578.6473999023438</v>
+        <v>578.6480102539062</v>
       </c>
       <c r="J2" t="n">
-        <v>116.4689483642578</v>
+        <v>116.4689559936523</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>323.1783752441406</v>
+        <v>323.1770935058594</v>
       </c>
       <c r="H3" t="n">
-        <v>31.93510055541992</v>
+        <v>31.93507957458496</v>
       </c>
       <c r="I3" t="n">
-        <v>607.4551391601562</v>
+        <v>607.4568481445312</v>
       </c>
       <c r="J3" t="n">
-        <v>128.8126220703125</v>
+        <v>128.8127899169922</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>407.3240661621094</v>
+        <v>407.3236083984375</v>
       </c>
       <c r="H4" t="n">
-        <v>37.1927375793457</v>
+        <v>37.19271850585938</v>
       </c>
       <c r="I4" t="n">
-        <v>610.1979370117188</v>
+        <v>610.199462890625</v>
       </c>
       <c r="J4" t="n">
-        <v>145.0022430419922</v>
+        <v>145.0023345947266</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>502.8062438964844</v>
+        <v>502.8078002929688</v>
       </c>
       <c r="H5" t="n">
-        <v>43.06364059448242</v>
+        <v>43.06362915039062</v>
       </c>
       <c r="I5" t="n">
-        <v>571.5265502929688</v>
+        <v>571.5257568359375</v>
       </c>
       <c r="J5" t="n">
-        <v>171.870361328125</v>
+        <v>171.8705749511719</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>617.2867431640625</v>
+        <v>617.2865600585938</v>
       </c>
       <c r="H6" t="n">
-        <v>49.73566818237305</v>
+        <v>49.73582458496094</v>
       </c>
       <c r="I6" t="n">
-        <v>488.8433532714844</v>
+        <v>488.8428649902344</v>
       </c>
       <c r="J6" t="n">
-        <v>200.3740997314453</v>
+        <v>200.3741760253906</v>
       </c>
     </row>
     <row r="7">
@@ -665,13 +665,13 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>172.9517822265625</v>
+        <v>172.9517517089844</v>
       </c>
       <c r="H7" t="n">
-        <v>15.41209030151367</v>
+        <v>15.412109375</v>
       </c>
       <c r="I7" t="n">
-        <v>592.1296997070312</v>
+        <v>592.1309814453125</v>
       </c>
       <c r="J7" t="n">
         <v>82.22210693359375</v>
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>202.8132171630859</v>
+        <v>202.8125762939453</v>
       </c>
       <c r="H8" t="n">
-        <v>18.52700424194336</v>
+        <v>18.5269889831543</v>
       </c>
       <c r="I8" t="n">
-        <v>589.8285522460938</v>
+        <v>589.8267822265625</v>
       </c>
       <c r="J8" t="n">
-        <v>108.4248809814453</v>
+        <v>108.4248657226562</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>271.1520690917969</v>
+        <v>271.1522521972656</v>
       </c>
       <c r="H9" t="n">
-        <v>25.39122581481934</v>
+        <v>25.3912353515625</v>
       </c>
       <c r="I9" t="n">
-        <v>572.7396850585938</v>
+        <v>572.7384643554688</v>
       </c>
       <c r="J9" t="n">
-        <v>137.5071411132812</v>
+        <v>137.5072937011719</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>342.322509765625</v>
+        <v>342.3213806152344</v>
       </c>
       <c r="H10" t="n">
         <v>33.32188034057617</v>
       </c>
       <c r="I10" t="n">
-        <v>554.1809692382812</v>
+        <v>554.1827392578125</v>
       </c>
       <c r="J10" t="n">
-        <v>145.98388671875</v>
+        <v>145.9840087890625</v>
       </c>
     </row>
     <row r="11">
@@ -793,13 +793,13 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>454.2318115234375</v>
+        <v>454.2317810058594</v>
       </c>
       <c r="H11" t="n">
-        <v>45.14406204223633</v>
+        <v>45.14413070678711</v>
       </c>
       <c r="I11" t="n">
-        <v>507.4258117675781</v>
+        <v>507.4255065917969</v>
       </c>
       <c r="J11" t="n">
         <v>180.3514862060547</v>
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>564.0442504882812</v>
+        <v>564.0471801757812</v>
       </c>
       <c r="H12" t="n">
-        <v>50.62684631347656</v>
+        <v>50.62685775756836</v>
       </c>
       <c r="I12" t="n">
         <v>487.4049072265625</v>
       </c>
       <c r="J12" t="n">
-        <v>205.4931488037109</v>
+        <v>205.4929656982422</v>
       </c>
     </row>
     <row r="13">
@@ -857,13 +857,13 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>686.4614868164062</v>
+        <v>686.4591674804688</v>
       </c>
       <c r="H13" t="n">
-        <v>54.40877914428711</v>
+        <v>54.40873718261719</v>
       </c>
       <c r="I13" t="n">
-        <v>531.4241333007812</v>
+        <v>531.422119140625</v>
       </c>
       <c r="J13" t="n">
         <v>199.7505340576172</v>
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>132.5125885009766</v>
+        <v>132.5134429931641</v>
       </c>
       <c r="H14" t="n">
-        <v>9.719316482543945</v>
+        <v>9.719328880310059</v>
       </c>
       <c r="I14" t="n">
-        <v>303.3833312988281</v>
+        <v>303.3825988769531</v>
       </c>
       <c r="J14" t="n">
-        <v>34.27835083007812</v>
+        <v>34.27836990356445</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>155.0419464111328</v>
+        <v>155.0420379638672</v>
       </c>
       <c r="H15" t="n">
-        <v>12.54549503326416</v>
+        <v>12.54549121856689</v>
       </c>
       <c r="I15" t="n">
-        <v>440.5711975097656</v>
+        <v>440.5718688964844</v>
       </c>
       <c r="J15" t="n">
-        <v>81.07102966308594</v>
+        <v>81.07103729248047</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>214.6580352783203</v>
+        <v>214.6582336425781</v>
       </c>
       <c r="H16" t="n">
-        <v>22.050537109375</v>
+        <v>22.05052947998047</v>
       </c>
       <c r="I16" t="n">
-        <v>586.0713500976562</v>
+        <v>586.0704956054688</v>
       </c>
       <c r="J16" t="n">
-        <v>91.99871063232422</v>
+        <v>91.99863433837891</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>227.3647613525391</v>
+        <v>227.3654937744141</v>
       </c>
       <c r="H17" t="n">
-        <v>20.89494514465332</v>
+        <v>20.89491844177246</v>
       </c>
       <c r="I17" t="n">
-        <v>625.1198120117188</v>
+        <v>625.11865234375</v>
       </c>
       <c r="J17" t="n">
-        <v>98.32285308837891</v>
+        <v>98.3231201171875</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>294.6914978027344</v>
+        <v>294.6917114257812</v>
       </c>
       <c r="H18" t="n">
-        <v>30.21321105957031</v>
+        <v>30.21318244934082</v>
       </c>
       <c r="I18" t="n">
-        <v>641.0166015625</v>
+        <v>641.01708984375</v>
       </c>
       <c r="J18" t="n">
-        <v>114.4064788818359</v>
+        <v>114.4065322875977</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>398.7954406738281</v>
+        <v>398.7960815429688</v>
       </c>
       <c r="H19" t="n">
-        <v>43.23799133300781</v>
+        <v>43.23796463012695</v>
       </c>
       <c r="I19" t="n">
-        <v>598.6213989257812</v>
+        <v>598.6201782226562</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9876556396484</v>
+        <v>146.9878692626953</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>511.7107238769531</v>
+        <v>511.7101135253906</v>
       </c>
       <c r="H20" t="n">
-        <v>53.07540130615234</v>
+        <v>53.07551956176758</v>
       </c>
       <c r="I20" t="n">
-        <v>583.7615966796875</v>
+        <v>583.759765625</v>
       </c>
       <c r="J20" t="n">
-        <v>166.9107055664062</v>
+        <v>166.9106597900391</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>640.9714965820312</v>
+        <v>640.9711303710938</v>
       </c>
       <c r="H21" t="n">
-        <v>56.3786735534668</v>
+        <v>56.37869644165039</v>
       </c>
       <c r="I21" t="n">
-        <v>605.3125</v>
+        <v>605.3134155273438</v>
       </c>
       <c r="J21" t="n">
-        <v>190.1160125732422</v>
+        <v>190.1162567138672</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>774.4563598632812</v>
+        <v>774.4573364257812</v>
       </c>
       <c r="H22" t="n">
-        <v>56.76414108276367</v>
+        <v>56.76416778564453</v>
       </c>
       <c r="I22" t="n">
-        <v>585.3720092773438</v>
+        <v>585.3723754882812</v>
       </c>
       <c r="J22" t="n">
-        <v>243.9412384033203</v>
+        <v>243.9407501220703</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>129.2509918212891</v>
+        <v>129.2506408691406</v>
       </c>
       <c r="H23" t="n">
-        <v>9.178464889526367</v>
+        <v>9.178454399108887</v>
       </c>
       <c r="I23" t="n">
-        <v>178.3637542724609</v>
+        <v>178.3636779785156</v>
       </c>
       <c r="J23" t="n">
-        <v>33.27532958984375</v>
+        <v>33.27538681030273</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>143.7610321044922</v>
+        <v>143.7606964111328</v>
       </c>
       <c r="H24" t="n">
-        <v>10.99419784545898</v>
+        <v>10.99420070648193</v>
       </c>
       <c r="I24" t="n">
-        <v>233.5504913330078</v>
+        <v>233.5512542724609</v>
       </c>
       <c r="J24" t="n">
-        <v>53.97352600097656</v>
+        <v>53.97344970703125</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>171.2201080322266</v>
+        <v>171.2195739746094</v>
       </c>
       <c r="H25" t="n">
-        <v>14.80550765991211</v>
+        <v>14.80553722381592</v>
       </c>
       <c r="I25" t="n">
-        <v>340.1147766113281</v>
+        <v>340.1148071289062</v>
       </c>
       <c r="J25" t="n">
-        <v>77.19548034667969</v>
+        <v>77.19545745849609</v>
       </c>
     </row>
     <row r="26">
@@ -1276,13 +1276,13 @@
         <v>204.9347991943359</v>
       </c>
       <c r="H26" t="n">
-        <v>19.80179214477539</v>
+        <v>19.80178642272949</v>
       </c>
       <c r="I26" t="n">
-        <v>471.6006164550781</v>
+        <v>471.6013488769531</v>
       </c>
       <c r="J26" t="n">
-        <v>88.75014495849609</v>
+        <v>88.75037384033203</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>258.8070983886719</v>
+        <v>258.8054809570312</v>
       </c>
       <c r="H27" t="n">
-        <v>28.79029083251953</v>
+        <v>28.79032325744629</v>
       </c>
       <c r="I27" t="n">
-        <v>619.60595703125</v>
+        <v>619.6087646484375</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84917449951172</v>
+        <v>94.84920501708984</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>352.960205078125</v>
+        <v>352.9617309570312</v>
       </c>
       <c r="H28" t="n">
-        <v>42.10969161987305</v>
+        <v>42.10973358154297</v>
       </c>
       <c r="I28" t="n">
-        <v>671.434326171875</v>
+        <v>671.4345092773438</v>
       </c>
       <c r="J28" t="n">
-        <v>82.56885528564453</v>
+        <v>82.56874847412109</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>458.011474609375</v>
+        <v>458.0087890625</v>
       </c>
       <c r="H29" t="n">
-        <v>52.57162094116211</v>
+        <v>52.57157135009766</v>
       </c>
       <c r="I29" t="n">
-        <v>668.7588500976562</v>
+        <v>668.7609252929688</v>
       </c>
       <c r="J29" t="n">
-        <v>113.4284057617188</v>
+        <v>113.4284973144531</v>
       </c>
     </row>
     <row r="30">
@@ -1401,13 +1401,13 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>606.4718627929688</v>
+        <v>606.4706420898438</v>
       </c>
       <c r="H30" t="n">
-        <v>59.88245391845703</v>
+        <v>59.88238143920898</v>
       </c>
       <c r="I30" t="n">
-        <v>664.0181274414062</v>
+        <v>664.0151977539062</v>
       </c>
       <c r="J30" t="n">
         <v>168.1126403808594</v>
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>737.8146362304688</v>
+        <v>737.8158569335938</v>
       </c>
       <c r="H31" t="n">
-        <v>60.67007827758789</v>
+        <v>60.67001342773438</v>
       </c>
       <c r="I31" t="n">
-        <v>624.3507080078125</v>
+        <v>624.3497924804688</v>
       </c>
       <c r="J31" t="n">
-        <v>228.9985046386719</v>
+        <v>228.9980926513672</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>127.4997634887695</v>
+        <v>127.499755859375</v>
       </c>
       <c r="H32" t="n">
-        <v>9.092411994934082</v>
+        <v>9.09242057800293</v>
       </c>
       <c r="I32" t="n">
-        <v>49.76015090942383</v>
+        <v>49.76007080078125</v>
       </c>
       <c r="J32" t="n">
-        <v>41.06553268432617</v>
+        <v>41.06558609008789</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>145.2592010498047</v>
+        <v>145.2592926025391</v>
       </c>
       <c r="H33" t="n">
         <v>12.0696496963501</v>
       </c>
       <c r="I33" t="n">
-        <v>106.8977432250977</v>
+        <v>106.8978805541992</v>
       </c>
       <c r="J33" t="n">
-        <v>38.93297576904297</v>
+        <v>38.93300247192383</v>
       </c>
     </row>
     <row r="34">
@@ -1532,13 +1532,13 @@
         <v>169.7903137207031</v>
       </c>
       <c r="H34" t="n">
-        <v>16.48862648010254</v>
+        <v>16.48860931396484</v>
       </c>
       <c r="I34" t="n">
-        <v>169.1137390136719</v>
+        <v>169.1131744384766</v>
       </c>
       <c r="J34" t="n">
-        <v>53.78823089599609</v>
+        <v>53.7881965637207</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>201.693359375</v>
+        <v>201.69287109375</v>
       </c>
       <c r="H35" t="n">
-        <v>22.7855167388916</v>
+        <v>22.78554344177246</v>
       </c>
       <c r="I35" t="n">
-        <v>253.7906951904297</v>
+        <v>253.7910614013672</v>
       </c>
       <c r="J35" t="n">
-        <v>99.70470428466797</v>
+        <v>99.70465850830078</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>256.3835754394531</v>
+        <v>256.3833312988281</v>
       </c>
       <c r="H36" t="n">
-        <v>32.71244049072266</v>
+        <v>32.71236801147461</v>
       </c>
       <c r="I36" t="n">
-        <v>447.9774475097656</v>
+        <v>447.9764709472656</v>
       </c>
       <c r="J36" t="n">
-        <v>119.7398910522461</v>
+        <v>119.7399368286133</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>321.3660278320312</v>
+        <v>321.365478515625</v>
       </c>
       <c r="H37" t="n">
-        <v>43.81318283081055</v>
+        <v>43.81326293945312</v>
       </c>
       <c r="I37" t="n">
-        <v>621.3007202148438</v>
+        <v>621.3009643554688</v>
       </c>
       <c r="J37" t="n">
-        <v>145.1827850341797</v>
+        <v>145.1828155517578</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>432.7766418457031</v>
+        <v>432.7746887207031</v>
       </c>
       <c r="H38" t="n">
-        <v>56.43509292602539</v>
+        <v>56.43508148193359</v>
       </c>
       <c r="I38" t="n">
-        <v>697.489501953125</v>
+        <v>697.4915161132812</v>
       </c>
       <c r="J38" t="n">
-        <v>125.4559097290039</v>
+        <v>125.4560546875</v>
       </c>
     </row>
     <row r="39">
@@ -1689,13 +1689,13 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>546.4158325195312</v>
+        <v>546.4152221679688</v>
       </c>
       <c r="H39" t="n">
-        <v>61.67497634887695</v>
+        <v>61.67495346069336</v>
       </c>
       <c r="I39" t="n">
-        <v>686.2496948242188</v>
+        <v>686.251708984375</v>
       </c>
       <c r="J39" t="n">
         <v>142.0787963867188</v>
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>696.5333862304688</v>
+        <v>696.5321044921875</v>
       </c>
       <c r="H40" t="n">
-        <v>65.05873870849609</v>
+        <v>65.058837890625</v>
       </c>
       <c r="I40" t="n">
-        <v>646.7627563476562</v>
+        <v>646.7637939453125</v>
       </c>
       <c r="J40" t="n">
-        <v>210.6593017578125</v>
+        <v>210.6589965820312</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>134.2098846435547</v>
+        <v>134.2099456787109</v>
       </c>
       <c r="H41" t="n">
-        <v>11.11711406707764</v>
+        <v>11.11711978912354</v>
       </c>
       <c r="I41" t="n">
-        <v>12.16478824615479</v>
+        <v>12.16481590270996</v>
       </c>
       <c r="J41" t="n">
-        <v>64.49967193603516</v>
+        <v>64.49970245361328</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>149.8352813720703</v>
+        <v>149.8349456787109</v>
       </c>
       <c r="H42" t="n">
-        <v>14.5717716217041</v>
+        <v>14.57177734375</v>
       </c>
       <c r="I42" t="n">
-        <v>44.02567672729492</v>
+        <v>44.0256462097168</v>
       </c>
       <c r="J42" t="n">
-        <v>63.40349960327148</v>
+        <v>63.40346527099609</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>165.1138610839844</v>
+        <v>165.1136779785156</v>
       </c>
       <c r="H43" t="n">
-        <v>18.06930351257324</v>
+        <v>18.06926918029785</v>
       </c>
       <c r="I43" t="n">
-        <v>76.0750732421875</v>
+        <v>76.07523345947266</v>
       </c>
       <c r="J43" t="n">
-        <v>64.40692138671875</v>
+        <v>64.40687561035156</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>204.4514617919922</v>
+        <v>204.4511566162109</v>
       </c>
       <c r="H44" t="n">
-        <v>27.68854141235352</v>
+        <v>27.68851661682129</v>
       </c>
       <c r="I44" t="n">
-        <v>167.0365295410156</v>
+        <v>167.0365600585938</v>
       </c>
       <c r="J44" t="n">
-        <v>67.89354705810547</v>
+        <v>67.89360046386719</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>236.1432495117188</v>
+        <v>236.1419982910156</v>
       </c>
       <c r="H45" t="n">
-        <v>34.97674560546875</v>
+        <v>34.97673797607422</v>
       </c>
       <c r="I45" t="n">
-        <v>250.8977813720703</v>
+        <v>250.8981323242188</v>
       </c>
       <c r="J45" t="n">
-        <v>80.22843170166016</v>
+        <v>80.22830963134766</v>
       </c>
     </row>
     <row r="46">
@@ -1916,13 +1916,13 @@
         <v>297.0717468261719</v>
       </c>
       <c r="H46" t="n">
-        <v>46.34309005737305</v>
+        <v>46.34309387207031</v>
       </c>
       <c r="I46" t="n">
-        <v>438.0221862792969</v>
+        <v>438.0241088867188</v>
       </c>
       <c r="J46" t="n">
-        <v>157.1455841064453</v>
+        <v>157.1457214355469</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>390.7998046875</v>
+        <v>390.798828125</v>
       </c>
       <c r="H47" t="n">
-        <v>59.39350891113281</v>
+        <v>59.39352035522461</v>
       </c>
       <c r="I47" t="n">
-        <v>660.1636352539062</v>
+        <v>660.1629028320312</v>
       </c>
       <c r="J47" t="n">
-        <v>169.0337524414062</v>
+        <v>169.0337677001953</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>519.6318969726562</v>
+        <v>519.6341552734375</v>
       </c>
       <c r="H48" t="n">
-        <v>66.12603759765625</v>
+        <v>66.12595367431641</v>
       </c>
       <c r="I48" t="n">
-        <v>700.32373046875</v>
+        <v>700.3226928710938</v>
       </c>
       <c r="J48" t="n">
-        <v>159.6027526855469</v>
+        <v>159.6026611328125</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>636.3219604492188</v>
+        <v>636.3201904296875</v>
       </c>
       <c r="H49" t="n">
-        <v>70.26042175292969</v>
+        <v>70.26039886474609</v>
       </c>
       <c r="I49" t="n">
-        <v>682.1221923828125</v>
+        <v>682.1185302734375</v>
       </c>
       <c r="J49" t="n">
-        <v>199.6822357177734</v>
+        <v>199.6824798583984</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>143.0270233154297</v>
+        <v>143.0272369384766</v>
       </c>
       <c r="H50" t="n">
-        <v>14.62878036499023</v>
+        <v>14.62874698638916</v>
       </c>
       <c r="I50" t="n">
-        <v>-6.174621105194092</v>
+        <v>-6.174602508544922</v>
       </c>
       <c r="J50" t="n">
-        <v>101.7112121582031</v>
+        <v>101.711296081543</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>161.0871429443359</v>
+        <v>161.0866394042969</v>
       </c>
       <c r="H51" t="n">
-        <v>20.08559036254883</v>
+        <v>20.08559608459473</v>
       </c>
       <c r="I51" t="n">
-        <v>7.645270824432373</v>
+        <v>7.64528226852417</v>
       </c>
       <c r="J51" t="n">
-        <v>111.0372467041016</v>
+        <v>111.0372085571289</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>174.4337615966797</v>
+        <v>174.4330139160156</v>
       </c>
       <c r="H52" t="n">
-        <v>24.24226760864258</v>
+        <v>24.24226951599121</v>
       </c>
       <c r="I52" t="n">
-        <v>19.975341796875</v>
+        <v>19.97534561157227</v>
       </c>
       <c r="J52" t="n">
-        <v>113.8400726318359</v>
+        <v>113.8401489257812</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>205.2064361572266</v>
+        <v>205.2062683105469</v>
       </c>
       <c r="H53" t="n">
-        <v>33.28099060058594</v>
+        <v>33.28095626831055</v>
       </c>
       <c r="I53" t="n">
-        <v>72.17173767089844</v>
+        <v>72.17185211181641</v>
       </c>
       <c r="J53" t="n">
-        <v>105.3491287231445</v>
+        <v>105.348991394043</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>238.6222686767578</v>
+        <v>238.6216735839844</v>
       </c>
       <c r="H54" t="n">
-        <v>41.73549652099609</v>
+        <v>41.73545455932617</v>
       </c>
       <c r="I54" t="n">
-        <v>185.4433746337891</v>
+        <v>185.4445037841797</v>
       </c>
       <c r="J54" t="n">
-        <v>101.0482711791992</v>
+        <v>101.0481872558594</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>284.5263366699219</v>
+        <v>284.5258178710938</v>
       </c>
       <c r="H55" t="n">
-        <v>51.0596923828125</v>
+        <v>51.05959701538086</v>
       </c>
       <c r="I55" t="n">
-        <v>358.46337890625</v>
+        <v>358.4638977050781</v>
       </c>
       <c r="J55" t="n">
-        <v>140.5803070068359</v>
+        <v>140.5801239013672</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>347.7373352050781</v>
+        <v>347.7366027832031</v>
       </c>
       <c r="H56" t="n">
-        <v>61.07646942138672</v>
+        <v>61.07648086547852</v>
       </c>
       <c r="I56" t="n">
-        <v>533.3004150390625</v>
+        <v>533.3006591796875</v>
       </c>
       <c r="J56" t="n">
-        <v>198.7749176025391</v>
+        <v>198.7747344970703</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>448.8684387207031</v>
+        <v>448.86962890625</v>
       </c>
       <c r="H57" t="n">
-        <v>71.97296142578125</v>
+        <v>71.97290802001953</v>
       </c>
       <c r="I57" t="n">
-        <v>700.5966796875</v>
+        <v>700.594482421875</v>
       </c>
       <c r="J57" t="n">
-        <v>193.8838500976562</v>
+        <v>193.8837890625</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>592.8699340820312</v>
+        <v>592.8684692382812</v>
       </c>
       <c r="H58" t="n">
-        <v>76.41744995117188</v>
+        <v>76.41750335693359</v>
       </c>
       <c r="I58" t="n">
-        <v>707.9425659179688</v>
+        <v>707.9423828125</v>
       </c>
       <c r="J58" t="n">
-        <v>206.0782165527344</v>
+        <v>206.0784912109375</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>170.3424530029297</v>
+        <v>170.3426666259766</v>
       </c>
       <c r="H59" t="n">
-        <v>26.65179061889648</v>
+        <v>26.65181159973145</v>
       </c>
       <c r="I59" t="n">
-        <v>-25.51274299621582</v>
+        <v>-25.51276588439941</v>
       </c>
       <c r="J59" t="n">
-        <v>142.7359466552734</v>
+        <v>142.7359313964844</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>186.5582733154297</v>
+        <v>186.5577697753906</v>
       </c>
       <c r="H60" t="n">
-        <v>32.64118194580078</v>
+        <v>32.64114761352539</v>
       </c>
       <c r="I60" t="n">
-        <v>-57.13529968261719</v>
+        <v>-57.13546752929688</v>
       </c>
       <c r="J60" t="n">
-        <v>142.1728668212891</v>
+        <v>142.1726837158203</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>204.1661834716797</v>
+        <v>204.1665191650391</v>
       </c>
       <c r="H61" t="n">
-        <v>38.8570556640625</v>
+        <v>38.85710525512695</v>
       </c>
       <c r="I61" t="n">
-        <v>-63.31962966918945</v>
+        <v>-63.31972503662109</v>
       </c>
       <c r="J61" t="n">
-        <v>147.2788543701172</v>
+        <v>147.2789764404297</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>230.5455932617188</v>
+        <v>230.5457611083984</v>
       </c>
       <c r="H62" t="n">
-        <v>46.58663177490234</v>
+        <v>46.58658218383789</v>
       </c>
       <c r="I62" t="n">
-        <v>-3.500604629516602</v>
+        <v>-3.500653028488159</v>
       </c>
       <c r="J62" t="n">
-        <v>147.7695159912109</v>
+        <v>147.7693023681641</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>266.8027038574219</v>
+        <v>266.8017272949219</v>
       </c>
       <c r="H63" t="n">
-        <v>55.24486541748047</v>
+        <v>55.24481201171875</v>
       </c>
       <c r="I63" t="n">
-        <v>183.9981079101562</v>
+        <v>183.9976654052734</v>
       </c>
       <c r="J63" t="n">
-        <v>145.9027404785156</v>
+        <v>145.9027099609375</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>324.5725708007812</v>
+        <v>324.571533203125</v>
       </c>
       <c r="H64" t="n">
-        <v>66.07574462890625</v>
+        <v>66.07578277587891</v>
       </c>
       <c r="I64" t="n">
-        <v>432.0885009765625</v>
+        <v>432.0891418457031</v>
       </c>
       <c r="J64" t="n">
-        <v>213.6985168457031</v>
+        <v>213.6982421875</v>
       </c>
     </row>
     <row r="65">
@@ -2524,13 +2524,13 @@
         <v>419.5807800292969</v>
       </c>
       <c r="H65" t="n">
-        <v>76.82027435302734</v>
+        <v>76.82019805908203</v>
       </c>
       <c r="I65" t="n">
-        <v>665.9751586914062</v>
+        <v>665.9757690429688</v>
       </c>
       <c r="J65" t="n">
-        <v>223.9349822998047</v>
+        <v>223.9350891113281</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>191.5677642822266</v>
+        <v>191.5675811767578</v>
       </c>
       <c r="H66" t="n">
-        <v>40.42232513427734</v>
+        <v>40.42230224609375</v>
       </c>
       <c r="I66" t="n">
-        <v>-98.94521331787109</v>
+        <v>-98.94515991210938</v>
       </c>
       <c r="J66" t="n">
-        <v>201.9642028808594</v>
+        <v>201.9640350341797</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>201.6458282470703</v>
+        <v>201.6458129882812</v>
       </c>
       <c r="H67" t="n">
-        <v>44.76124954223633</v>
+        <v>44.76117324829102</v>
       </c>
       <c r="I67" t="n">
-        <v>-141.7471466064453</v>
+        <v>-141.7469482421875</v>
       </c>
       <c r="J67" t="n">
-        <v>213.0346221923828</v>
+        <v>213.0345458984375</v>
       </c>
     </row>
     <row r="68">
@@ -2617,13 +2617,13 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>229.2811431884766</v>
+        <v>229.2823944091797</v>
       </c>
       <c r="H68" t="n">
-        <v>54.09854507446289</v>
+        <v>54.09862899780273</v>
       </c>
       <c r="I68" t="n">
-        <v>-171.4136352539062</v>
+        <v>-171.4138488769531</v>
       </c>
       <c r="J68" t="n">
         <v>193.1702880859375</v>
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>250.3899993896484</v>
+        <v>250.3892669677734</v>
       </c>
       <c r="H69" t="n">
-        <v>59.72175979614258</v>
+        <v>59.72167205810547</v>
       </c>
       <c r="I69" t="n">
-        <v>-52.56022262573242</v>
+        <v>-52.560302734375</v>
       </c>
       <c r="J69" t="n">
-        <v>218.4277191162109</v>
+        <v>218.4273834228516</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>305.8837280273438</v>
+        <v>305.8827819824219</v>
       </c>
       <c r="H70" t="n">
-        <v>72.29437255859375</v>
+        <v>72.2943115234375</v>
       </c>
       <c r="I70" t="n">
-        <v>285.8658447265625</v>
+        <v>285.8651733398438</v>
       </c>
       <c r="J70" t="n">
-        <v>240.5445556640625</v>
+        <v>240.5447235107422</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>248.4960479736328</v>
+        <v>248.4955596923828</v>
       </c>
       <c r="H2" t="n">
-        <v>26.66216659545898</v>
+        <v>26.66217803955078</v>
       </c>
       <c r="I2" t="n">
-        <v>578.6480102539062</v>
+        <v>578.6473999023438</v>
       </c>
       <c r="J2" t="n">
-        <v>116.4689559936523</v>
+        <v>116.4689483642578</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>323.1770935058594</v>
+        <v>323.1783752441406</v>
       </c>
       <c r="H3" t="n">
-        <v>31.93507957458496</v>
+        <v>31.93510055541992</v>
       </c>
       <c r="I3" t="n">
-        <v>607.4568481445312</v>
+        <v>607.4551391601562</v>
       </c>
       <c r="J3" t="n">
-        <v>128.8127899169922</v>
+        <v>128.8126220703125</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>407.3236083984375</v>
+        <v>407.3240661621094</v>
       </c>
       <c r="H4" t="n">
-        <v>37.19271850585938</v>
+        <v>37.1927375793457</v>
       </c>
       <c r="I4" t="n">
-        <v>610.199462890625</v>
+        <v>610.1979370117188</v>
       </c>
       <c r="J4" t="n">
-        <v>145.0023345947266</v>
+        <v>145.0022430419922</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>502.8078002929688</v>
+        <v>502.8062438964844</v>
       </c>
       <c r="H5" t="n">
-        <v>43.06362915039062</v>
+        <v>43.06364059448242</v>
       </c>
       <c r="I5" t="n">
-        <v>571.5257568359375</v>
+        <v>571.5265502929688</v>
       </c>
       <c r="J5" t="n">
-        <v>171.8705749511719</v>
+        <v>171.870361328125</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>617.2865600585938</v>
+        <v>617.2867431640625</v>
       </c>
       <c r="H6" t="n">
-        <v>49.73582458496094</v>
+        <v>49.73566818237305</v>
       </c>
       <c r="I6" t="n">
-        <v>488.8428649902344</v>
+        <v>488.8433532714844</v>
       </c>
       <c r="J6" t="n">
-        <v>200.3741760253906</v>
+        <v>200.3740997314453</v>
       </c>
     </row>
     <row r="7">
@@ -665,13 +665,13 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>172.9517517089844</v>
+        <v>172.9517822265625</v>
       </c>
       <c r="H7" t="n">
-        <v>15.412109375</v>
+        <v>15.41209030151367</v>
       </c>
       <c r="I7" t="n">
-        <v>592.1309814453125</v>
+        <v>592.1296997070312</v>
       </c>
       <c r="J7" t="n">
         <v>82.22210693359375</v>
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>202.8125762939453</v>
+        <v>202.8132171630859</v>
       </c>
       <c r="H8" t="n">
-        <v>18.5269889831543</v>
+        <v>18.52700424194336</v>
       </c>
       <c r="I8" t="n">
-        <v>589.8267822265625</v>
+        <v>589.8285522460938</v>
       </c>
       <c r="J8" t="n">
-        <v>108.4248657226562</v>
+        <v>108.4248809814453</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>271.1522521972656</v>
+        <v>271.1520690917969</v>
       </c>
       <c r="H9" t="n">
-        <v>25.3912353515625</v>
+        <v>25.39122581481934</v>
       </c>
       <c r="I9" t="n">
-        <v>572.7384643554688</v>
+        <v>572.7396850585938</v>
       </c>
       <c r="J9" t="n">
-        <v>137.5072937011719</v>
+        <v>137.5071411132812</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>342.3213806152344</v>
+        <v>342.322509765625</v>
       </c>
       <c r="H10" t="n">
         <v>33.32188034057617</v>
       </c>
       <c r="I10" t="n">
-        <v>554.1827392578125</v>
+        <v>554.1809692382812</v>
       </c>
       <c r="J10" t="n">
-        <v>145.9840087890625</v>
+        <v>145.98388671875</v>
       </c>
     </row>
     <row r="11">
@@ -793,13 +793,13 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>454.2317810058594</v>
+        <v>454.2318115234375</v>
       </c>
       <c r="H11" t="n">
-        <v>45.14413070678711</v>
+        <v>45.14406204223633</v>
       </c>
       <c r="I11" t="n">
-        <v>507.4255065917969</v>
+        <v>507.4258117675781</v>
       </c>
       <c r="J11" t="n">
         <v>180.3514862060547</v>
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>564.0471801757812</v>
+        <v>564.0442504882812</v>
       </c>
       <c r="H12" t="n">
-        <v>50.62685775756836</v>
+        <v>50.62684631347656</v>
       </c>
       <c r="I12" t="n">
         <v>487.4049072265625</v>
       </c>
       <c r="J12" t="n">
-        <v>205.4929656982422</v>
+        <v>205.4931488037109</v>
       </c>
     </row>
     <row r="13">
@@ -857,13 +857,13 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>686.4591674804688</v>
+        <v>686.4614868164062</v>
       </c>
       <c r="H13" t="n">
-        <v>54.40873718261719</v>
+        <v>54.40877914428711</v>
       </c>
       <c r="I13" t="n">
-        <v>531.422119140625</v>
+        <v>531.4241333007812</v>
       </c>
       <c r="J13" t="n">
         <v>199.7505340576172</v>
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>132.5134429931641</v>
+        <v>132.5125885009766</v>
       </c>
       <c r="H14" t="n">
-        <v>9.719328880310059</v>
+        <v>9.719316482543945</v>
       </c>
       <c r="I14" t="n">
-        <v>303.3825988769531</v>
+        <v>303.3833312988281</v>
       </c>
       <c r="J14" t="n">
-        <v>34.27836990356445</v>
+        <v>34.27835083007812</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>155.0420379638672</v>
+        <v>155.0419464111328</v>
       </c>
       <c r="H15" t="n">
-        <v>12.54549121856689</v>
+        <v>12.54549503326416</v>
       </c>
       <c r="I15" t="n">
-        <v>440.5718688964844</v>
+        <v>440.5711975097656</v>
       </c>
       <c r="J15" t="n">
-        <v>81.07103729248047</v>
+        <v>81.07102966308594</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>214.6582336425781</v>
+        <v>214.6580352783203</v>
       </c>
       <c r="H16" t="n">
-        <v>22.05052947998047</v>
+        <v>22.050537109375</v>
       </c>
       <c r="I16" t="n">
-        <v>586.0704956054688</v>
+        <v>586.0713500976562</v>
       </c>
       <c r="J16" t="n">
-        <v>91.99863433837891</v>
+        <v>91.99871063232422</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>227.3654937744141</v>
+        <v>227.3647613525391</v>
       </c>
       <c r="H17" t="n">
-        <v>20.89491844177246</v>
+        <v>20.89494514465332</v>
       </c>
       <c r="I17" t="n">
-        <v>625.11865234375</v>
+        <v>625.1198120117188</v>
       </c>
       <c r="J17" t="n">
-        <v>98.3231201171875</v>
+        <v>98.32285308837891</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>294.6917114257812</v>
+        <v>294.6914978027344</v>
       </c>
       <c r="H18" t="n">
-        <v>30.21318244934082</v>
+        <v>30.21321105957031</v>
       </c>
       <c r="I18" t="n">
-        <v>641.01708984375</v>
+        <v>641.0166015625</v>
       </c>
       <c r="J18" t="n">
-        <v>114.4065322875977</v>
+        <v>114.4064788818359</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>398.7960815429688</v>
+        <v>398.7954406738281</v>
       </c>
       <c r="H19" t="n">
-        <v>43.23796463012695</v>
+        <v>43.23799133300781</v>
       </c>
       <c r="I19" t="n">
-        <v>598.6201782226562</v>
+        <v>598.6213989257812</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9878692626953</v>
+        <v>146.9876556396484</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>511.7101135253906</v>
+        <v>511.7107238769531</v>
       </c>
       <c r="H20" t="n">
-        <v>53.07551956176758</v>
+        <v>53.07540130615234</v>
       </c>
       <c r="I20" t="n">
-        <v>583.759765625</v>
+        <v>583.7615966796875</v>
       </c>
       <c r="J20" t="n">
-        <v>166.9106597900391</v>
+        <v>166.9107055664062</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>640.9711303710938</v>
+        <v>640.9714965820312</v>
       </c>
       <c r="H21" t="n">
-        <v>56.37869644165039</v>
+        <v>56.3786735534668</v>
       </c>
       <c r="I21" t="n">
-        <v>605.3134155273438</v>
+        <v>605.3125</v>
       </c>
       <c r="J21" t="n">
-        <v>190.1162567138672</v>
+        <v>190.1160125732422</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>774.4573364257812</v>
+        <v>774.4563598632812</v>
       </c>
       <c r="H22" t="n">
-        <v>56.76416778564453</v>
+        <v>56.76414108276367</v>
       </c>
       <c r="I22" t="n">
-        <v>585.3723754882812</v>
+        <v>585.3720092773438</v>
       </c>
       <c r="J22" t="n">
-        <v>243.9407501220703</v>
+        <v>243.9412384033203</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>129.2506408691406</v>
+        <v>129.2509918212891</v>
       </c>
       <c r="H23" t="n">
-        <v>9.178454399108887</v>
+        <v>9.178464889526367</v>
       </c>
       <c r="I23" t="n">
-        <v>178.3636779785156</v>
+        <v>178.3637542724609</v>
       </c>
       <c r="J23" t="n">
-        <v>33.27538681030273</v>
+        <v>33.27532958984375</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>143.7606964111328</v>
+        <v>143.7610321044922</v>
       </c>
       <c r="H24" t="n">
-        <v>10.99420070648193</v>
+        <v>10.99419784545898</v>
       </c>
       <c r="I24" t="n">
-        <v>233.5512542724609</v>
+        <v>233.5504913330078</v>
       </c>
       <c r="J24" t="n">
-        <v>53.97344970703125</v>
+        <v>53.97352600097656</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>171.2195739746094</v>
+        <v>171.2201080322266</v>
       </c>
       <c r="H25" t="n">
-        <v>14.80553722381592</v>
+        <v>14.80550765991211</v>
       </c>
       <c r="I25" t="n">
-        <v>340.1148071289062</v>
+        <v>340.1147766113281</v>
       </c>
       <c r="J25" t="n">
-        <v>77.19545745849609</v>
+        <v>77.19548034667969</v>
       </c>
     </row>
     <row r="26">
@@ -1276,13 +1276,13 @@
         <v>204.9347991943359</v>
       </c>
       <c r="H26" t="n">
-        <v>19.80178642272949</v>
+        <v>19.80179214477539</v>
       </c>
       <c r="I26" t="n">
-        <v>471.6013488769531</v>
+        <v>471.6006164550781</v>
       </c>
       <c r="J26" t="n">
-        <v>88.75037384033203</v>
+        <v>88.75014495849609</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>258.8054809570312</v>
+        <v>258.8070983886719</v>
       </c>
       <c r="H27" t="n">
-        <v>28.79032325744629</v>
+        <v>28.79029083251953</v>
       </c>
       <c r="I27" t="n">
-        <v>619.6087646484375</v>
+        <v>619.60595703125</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84920501708984</v>
+        <v>94.84917449951172</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>352.9617309570312</v>
+        <v>352.960205078125</v>
       </c>
       <c r="H28" t="n">
-        <v>42.10973358154297</v>
+        <v>42.10969161987305</v>
       </c>
       <c r="I28" t="n">
-        <v>671.4345092773438</v>
+        <v>671.434326171875</v>
       </c>
       <c r="J28" t="n">
-        <v>82.56874847412109</v>
+        <v>82.56885528564453</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>458.0087890625</v>
+        <v>458.011474609375</v>
       </c>
       <c r="H29" t="n">
-        <v>52.57157135009766</v>
+        <v>52.57162094116211</v>
       </c>
       <c r="I29" t="n">
-        <v>668.7609252929688</v>
+        <v>668.7588500976562</v>
       </c>
       <c r="J29" t="n">
-        <v>113.4284973144531</v>
+        <v>113.4284057617188</v>
       </c>
     </row>
     <row r="30">
@@ -1401,13 +1401,13 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>606.4706420898438</v>
+        <v>606.4718627929688</v>
       </c>
       <c r="H30" t="n">
-        <v>59.88238143920898</v>
+        <v>59.88245391845703</v>
       </c>
       <c r="I30" t="n">
-        <v>664.0151977539062</v>
+        <v>664.0181274414062</v>
       </c>
       <c r="J30" t="n">
         <v>168.1126403808594</v>
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>737.8158569335938</v>
+        <v>737.8146362304688</v>
       </c>
       <c r="H31" t="n">
-        <v>60.67001342773438</v>
+        <v>60.67007827758789</v>
       </c>
       <c r="I31" t="n">
-        <v>624.3497924804688</v>
+        <v>624.3507080078125</v>
       </c>
       <c r="J31" t="n">
-        <v>228.9980926513672</v>
+        <v>228.9985046386719</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>127.499755859375</v>
+        <v>127.4997634887695</v>
       </c>
       <c r="H32" t="n">
-        <v>9.09242057800293</v>
+        <v>9.092411994934082</v>
       </c>
       <c r="I32" t="n">
-        <v>49.76007080078125</v>
+        <v>49.76015090942383</v>
       </c>
       <c r="J32" t="n">
-        <v>41.06558609008789</v>
+        <v>41.06553268432617</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>145.2592926025391</v>
+        <v>145.2592010498047</v>
       </c>
       <c r="H33" t="n">
         <v>12.0696496963501</v>
       </c>
       <c r="I33" t="n">
-        <v>106.8978805541992</v>
+        <v>106.8977432250977</v>
       </c>
       <c r="J33" t="n">
-        <v>38.93300247192383</v>
+        <v>38.93297576904297</v>
       </c>
     </row>
     <row r="34">
@@ -1532,13 +1532,13 @@
         <v>169.7903137207031</v>
       </c>
       <c r="H34" t="n">
-        <v>16.48860931396484</v>
+        <v>16.48862648010254</v>
       </c>
       <c r="I34" t="n">
-        <v>169.1131744384766</v>
+        <v>169.1137390136719</v>
       </c>
       <c r="J34" t="n">
-        <v>53.7881965637207</v>
+        <v>53.78823089599609</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>201.69287109375</v>
+        <v>201.693359375</v>
       </c>
       <c r="H35" t="n">
-        <v>22.78554344177246</v>
+        <v>22.7855167388916</v>
       </c>
       <c r="I35" t="n">
-        <v>253.7910614013672</v>
+        <v>253.7906951904297</v>
       </c>
       <c r="J35" t="n">
-        <v>99.70465850830078</v>
+        <v>99.70470428466797</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>256.3833312988281</v>
+        <v>256.3835754394531</v>
       </c>
       <c r="H36" t="n">
-        <v>32.71236801147461</v>
+        <v>32.71244049072266</v>
       </c>
       <c r="I36" t="n">
-        <v>447.9764709472656</v>
+        <v>447.9774475097656</v>
       </c>
       <c r="J36" t="n">
-        <v>119.7399368286133</v>
+        <v>119.7398910522461</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>321.365478515625</v>
+        <v>321.3660278320312</v>
       </c>
       <c r="H37" t="n">
-        <v>43.81326293945312</v>
+        <v>43.81318283081055</v>
       </c>
       <c r="I37" t="n">
-        <v>621.3009643554688</v>
+        <v>621.3007202148438</v>
       </c>
       <c r="J37" t="n">
-        <v>145.1828155517578</v>
+        <v>145.1827850341797</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>432.7746887207031</v>
+        <v>432.7766418457031</v>
       </c>
       <c r="H38" t="n">
-        <v>56.43508148193359</v>
+        <v>56.43509292602539</v>
       </c>
       <c r="I38" t="n">
-        <v>697.4915161132812</v>
+        <v>697.489501953125</v>
       </c>
       <c r="J38" t="n">
-        <v>125.4560546875</v>
+        <v>125.4559097290039</v>
       </c>
     </row>
     <row r="39">
@@ -1689,13 +1689,13 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>546.4152221679688</v>
+        <v>546.4158325195312</v>
       </c>
       <c r="H39" t="n">
-        <v>61.67495346069336</v>
+        <v>61.67497634887695</v>
       </c>
       <c r="I39" t="n">
-        <v>686.251708984375</v>
+        <v>686.2496948242188</v>
       </c>
       <c r="J39" t="n">
         <v>142.0787963867188</v>
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>696.5321044921875</v>
+        <v>696.5333862304688</v>
       </c>
       <c r="H40" t="n">
-        <v>65.058837890625</v>
+        <v>65.05873870849609</v>
       </c>
       <c r="I40" t="n">
-        <v>646.7637939453125</v>
+        <v>646.7627563476562</v>
       </c>
       <c r="J40" t="n">
-        <v>210.6589965820312</v>
+        <v>210.6593017578125</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>134.2099456787109</v>
+        <v>134.2098846435547</v>
       </c>
       <c r="H41" t="n">
-        <v>11.11711978912354</v>
+        <v>11.11711406707764</v>
       </c>
       <c r="I41" t="n">
-        <v>12.16481590270996</v>
+        <v>12.16478824615479</v>
       </c>
       <c r="J41" t="n">
-        <v>64.49970245361328</v>
+        <v>64.49967193603516</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>149.8349456787109</v>
+        <v>149.8352813720703</v>
       </c>
       <c r="H42" t="n">
-        <v>14.57177734375</v>
+        <v>14.5717716217041</v>
       </c>
       <c r="I42" t="n">
-        <v>44.0256462097168</v>
+        <v>44.02567672729492</v>
       </c>
       <c r="J42" t="n">
-        <v>63.40346527099609</v>
+        <v>63.40349960327148</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>165.1136779785156</v>
+        <v>165.1138610839844</v>
       </c>
       <c r="H43" t="n">
-        <v>18.06926918029785</v>
+        <v>18.06930351257324</v>
       </c>
       <c r="I43" t="n">
-        <v>76.07523345947266</v>
+        <v>76.0750732421875</v>
       </c>
       <c r="J43" t="n">
-        <v>64.40687561035156</v>
+        <v>64.40692138671875</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>204.4511566162109</v>
+        <v>204.4514617919922</v>
       </c>
       <c r="H44" t="n">
-        <v>27.68851661682129</v>
+        <v>27.68854141235352</v>
       </c>
       <c r="I44" t="n">
-        <v>167.0365600585938</v>
+        <v>167.0365295410156</v>
       </c>
       <c r="J44" t="n">
-        <v>67.89360046386719</v>
+        <v>67.89354705810547</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>236.1419982910156</v>
+        <v>236.1432495117188</v>
       </c>
       <c r="H45" t="n">
-        <v>34.97673797607422</v>
+        <v>34.97674560546875</v>
       </c>
       <c r="I45" t="n">
-        <v>250.8981323242188</v>
+        <v>250.8977813720703</v>
       </c>
       <c r="J45" t="n">
-        <v>80.22830963134766</v>
+        <v>80.22843170166016</v>
       </c>
     </row>
     <row r="46">
@@ -1916,13 +1916,13 @@
         <v>297.0717468261719</v>
       </c>
       <c r="H46" t="n">
-        <v>46.34309387207031</v>
+        <v>46.34309005737305</v>
       </c>
       <c r="I46" t="n">
-        <v>438.0241088867188</v>
+        <v>438.0221862792969</v>
       </c>
       <c r="J46" t="n">
-        <v>157.1457214355469</v>
+        <v>157.1455841064453</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>390.798828125</v>
+        <v>390.7998046875</v>
       </c>
       <c r="H47" t="n">
-        <v>59.39352035522461</v>
+        <v>59.39350891113281</v>
       </c>
       <c r="I47" t="n">
-        <v>660.1629028320312</v>
+        <v>660.1636352539062</v>
       </c>
       <c r="J47" t="n">
-        <v>169.0337677001953</v>
+        <v>169.0337524414062</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>519.6341552734375</v>
+        <v>519.6318969726562</v>
       </c>
       <c r="H48" t="n">
-        <v>66.12595367431641</v>
+        <v>66.12603759765625</v>
       </c>
       <c r="I48" t="n">
-        <v>700.3226928710938</v>
+        <v>700.32373046875</v>
       </c>
       <c r="J48" t="n">
-        <v>159.6026611328125</v>
+        <v>159.6027526855469</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>636.3201904296875</v>
+        <v>636.3219604492188</v>
       </c>
       <c r="H49" t="n">
-        <v>70.26039886474609</v>
+        <v>70.26042175292969</v>
       </c>
       <c r="I49" t="n">
-        <v>682.1185302734375</v>
+        <v>682.1221923828125</v>
       </c>
       <c r="J49" t="n">
-        <v>199.6824798583984</v>
+        <v>199.6822357177734</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>143.0272369384766</v>
+        <v>143.0270233154297</v>
       </c>
       <c r="H50" t="n">
-        <v>14.62874698638916</v>
+        <v>14.62878036499023</v>
       </c>
       <c r="I50" t="n">
-        <v>-6.174602508544922</v>
+        <v>-6.174621105194092</v>
       </c>
       <c r="J50" t="n">
-        <v>101.711296081543</v>
+        <v>101.7112121582031</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>161.0866394042969</v>
+        <v>161.0871429443359</v>
       </c>
       <c r="H51" t="n">
-        <v>20.08559608459473</v>
+        <v>20.08559036254883</v>
       </c>
       <c r="I51" t="n">
-        <v>7.64528226852417</v>
+        <v>7.645270824432373</v>
       </c>
       <c r="J51" t="n">
-        <v>111.0372085571289</v>
+        <v>111.0372467041016</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>174.4330139160156</v>
+        <v>174.4337615966797</v>
       </c>
       <c r="H52" t="n">
-        <v>24.24226951599121</v>
+        <v>24.24226760864258</v>
       </c>
       <c r="I52" t="n">
-        <v>19.97534561157227</v>
+        <v>19.975341796875</v>
       </c>
       <c r="J52" t="n">
-        <v>113.8401489257812</v>
+        <v>113.8400726318359</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>205.2062683105469</v>
+        <v>205.2064361572266</v>
       </c>
       <c r="H53" t="n">
-        <v>33.28095626831055</v>
+        <v>33.28099060058594</v>
       </c>
       <c r="I53" t="n">
-        <v>72.17185211181641</v>
+        <v>72.17173767089844</v>
       </c>
       <c r="J53" t="n">
-        <v>105.348991394043</v>
+        <v>105.3491287231445</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>238.6216735839844</v>
+        <v>238.6222686767578</v>
       </c>
       <c r="H54" t="n">
-        <v>41.73545455932617</v>
+        <v>41.73549652099609</v>
       </c>
       <c r="I54" t="n">
-        <v>185.4445037841797</v>
+        <v>185.4433746337891</v>
       </c>
       <c r="J54" t="n">
-        <v>101.0481872558594</v>
+        <v>101.0482711791992</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>284.5258178710938</v>
+        <v>284.5263366699219</v>
       </c>
       <c r="H55" t="n">
-        <v>51.05959701538086</v>
+        <v>51.0596923828125</v>
       </c>
       <c r="I55" t="n">
-        <v>358.4638977050781</v>
+        <v>358.46337890625</v>
       </c>
       <c r="J55" t="n">
-        <v>140.5801239013672</v>
+        <v>140.5803070068359</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>347.7366027832031</v>
+        <v>347.7373352050781</v>
       </c>
       <c r="H56" t="n">
-        <v>61.07648086547852</v>
+        <v>61.07646942138672</v>
       </c>
       <c r="I56" t="n">
-        <v>533.3006591796875</v>
+        <v>533.3004150390625</v>
       </c>
       <c r="J56" t="n">
-        <v>198.7747344970703</v>
+        <v>198.7749176025391</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>448.86962890625</v>
+        <v>448.8684387207031</v>
       </c>
       <c r="H57" t="n">
-        <v>71.97290802001953</v>
+        <v>71.97296142578125</v>
       </c>
       <c r="I57" t="n">
-        <v>700.594482421875</v>
+        <v>700.5966796875</v>
       </c>
       <c r="J57" t="n">
-        <v>193.8837890625</v>
+        <v>193.8838500976562</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>592.8684692382812</v>
+        <v>592.8699340820312</v>
       </c>
       <c r="H58" t="n">
-        <v>76.41750335693359</v>
+        <v>76.41744995117188</v>
       </c>
       <c r="I58" t="n">
-        <v>707.9423828125</v>
+        <v>707.9425659179688</v>
       </c>
       <c r="J58" t="n">
-        <v>206.0784912109375</v>
+        <v>206.0782165527344</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>170.3426666259766</v>
+        <v>170.3424530029297</v>
       </c>
       <c r="H59" t="n">
-        <v>26.65181159973145</v>
+        <v>26.65179061889648</v>
       </c>
       <c r="I59" t="n">
-        <v>-25.51276588439941</v>
+        <v>-25.51274299621582</v>
       </c>
       <c r="J59" t="n">
-        <v>142.7359313964844</v>
+        <v>142.7359466552734</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>186.5577697753906</v>
+        <v>186.5582733154297</v>
       </c>
       <c r="H60" t="n">
-        <v>32.64114761352539</v>
+        <v>32.64118194580078</v>
       </c>
       <c r="I60" t="n">
-        <v>-57.13546752929688</v>
+        <v>-57.13529968261719</v>
       </c>
       <c r="J60" t="n">
-        <v>142.1726837158203</v>
+        <v>142.1728668212891</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>204.1665191650391</v>
+        <v>204.1661834716797</v>
       </c>
       <c r="H61" t="n">
-        <v>38.85710525512695</v>
+        <v>38.8570556640625</v>
       </c>
       <c r="I61" t="n">
-        <v>-63.31972503662109</v>
+        <v>-63.31962966918945</v>
       </c>
       <c r="J61" t="n">
-        <v>147.2789764404297</v>
+        <v>147.2788543701172</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>230.5457611083984</v>
+        <v>230.5455932617188</v>
       </c>
       <c r="H62" t="n">
-        <v>46.58658218383789</v>
+        <v>46.58663177490234</v>
       </c>
       <c r="I62" t="n">
-        <v>-3.500653028488159</v>
+        <v>-3.500604629516602</v>
       </c>
       <c r="J62" t="n">
-        <v>147.7693023681641</v>
+        <v>147.7695159912109</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>266.8017272949219</v>
+        <v>266.8027038574219</v>
       </c>
       <c r="H63" t="n">
-        <v>55.24481201171875</v>
+        <v>55.24486541748047</v>
       </c>
       <c r="I63" t="n">
-        <v>183.9976654052734</v>
+        <v>183.9981079101562</v>
       </c>
       <c r="J63" t="n">
-        <v>145.9027099609375</v>
+        <v>145.9027404785156</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>324.571533203125</v>
+        <v>324.5725708007812</v>
       </c>
       <c r="H64" t="n">
-        <v>66.07578277587891</v>
+        <v>66.07574462890625</v>
       </c>
       <c r="I64" t="n">
-        <v>432.0891418457031</v>
+        <v>432.0885009765625</v>
       </c>
       <c r="J64" t="n">
-        <v>213.6982421875</v>
+        <v>213.6985168457031</v>
       </c>
     </row>
     <row r="65">
@@ -2524,13 +2524,13 @@
         <v>419.5807800292969</v>
       </c>
       <c r="H65" t="n">
-        <v>76.82019805908203</v>
+        <v>76.82027435302734</v>
       </c>
       <c r="I65" t="n">
-        <v>665.9757690429688</v>
+        <v>665.9751586914062</v>
       </c>
       <c r="J65" t="n">
-        <v>223.9350891113281</v>
+        <v>223.9349822998047</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>191.5675811767578</v>
+        <v>191.5677642822266</v>
       </c>
       <c r="H66" t="n">
-        <v>40.42230224609375</v>
+        <v>40.42232513427734</v>
       </c>
       <c r="I66" t="n">
-        <v>-98.94515991210938</v>
+        <v>-98.94521331787109</v>
       </c>
       <c r="J66" t="n">
-        <v>201.9640350341797</v>
+        <v>201.9642028808594</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>201.6458129882812</v>
+        <v>201.6458282470703</v>
       </c>
       <c r="H67" t="n">
-        <v>44.76117324829102</v>
+        <v>44.76124954223633</v>
       </c>
       <c r="I67" t="n">
-        <v>-141.7469482421875</v>
+        <v>-141.7471466064453</v>
       </c>
       <c r="J67" t="n">
-        <v>213.0345458984375</v>
+        <v>213.0346221923828</v>
       </c>
     </row>
     <row r="68">
@@ -2617,13 +2617,13 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>229.2823944091797</v>
+        <v>229.2811431884766</v>
       </c>
       <c r="H68" t="n">
-        <v>54.09862899780273</v>
+        <v>54.09854507446289</v>
       </c>
       <c r="I68" t="n">
-        <v>-171.4138488769531</v>
+        <v>-171.4136352539062</v>
       </c>
       <c r="J68" t="n">
         <v>193.1702880859375</v>
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>250.3892669677734</v>
+        <v>250.3899993896484</v>
       </c>
       <c r="H69" t="n">
-        <v>59.72167205810547</v>
+        <v>59.72175979614258</v>
       </c>
       <c r="I69" t="n">
-        <v>-52.560302734375</v>
+        <v>-52.56022262573242</v>
       </c>
       <c r="J69" t="n">
-        <v>218.4273834228516</v>
+        <v>218.4277191162109</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>305.8827819824219</v>
+        <v>305.8837280273438</v>
       </c>
       <c r="H70" t="n">
-        <v>72.2943115234375</v>
+        <v>72.29437255859375</v>
       </c>
       <c r="I70" t="n">
-        <v>285.8651733398438</v>
+        <v>285.8658447265625</v>
       </c>
       <c r="J70" t="n">
-        <v>240.5447235107422</v>
+        <v>240.5445556640625</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>248.4955596923828</v>
+        <v>316.2665100097656</v>
       </c>
       <c r="H2" t="n">
-        <v>26.66217803955078</v>
+        <v>20.75529098510742</v>
       </c>
       <c r="I2" t="n">
-        <v>578.6473999023438</v>
+        <v>694.7355346679688</v>
       </c>
       <c r="J2" t="n">
-        <v>116.4689483642578</v>
+        <v>60.86854934692383</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>323.1783752441406</v>
+        <v>343.0133972167969</v>
       </c>
       <c r="H3" t="n">
-        <v>31.93510055541992</v>
+        <v>32.17693328857422</v>
       </c>
       <c r="I3" t="n">
-        <v>607.4551391601562</v>
+        <v>759.6423950195312</v>
       </c>
       <c r="J3" t="n">
-        <v>128.8126220703125</v>
+        <v>80.32160186767578</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>407.3240661621094</v>
+        <v>380.5697021484375</v>
       </c>
       <c r="H4" t="n">
-        <v>37.1927375793457</v>
+        <v>49.55804824829102</v>
       </c>
       <c r="I4" t="n">
-        <v>610.1979370117188</v>
+        <v>802.3180541992188</v>
       </c>
       <c r="J4" t="n">
-        <v>145.0022430419922</v>
+        <v>94.07175445556641</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>502.8062438964844</v>
+        <v>438.1062927246094</v>
       </c>
       <c r="H5" t="n">
-        <v>43.06364059448242</v>
+        <v>62.86428070068359</v>
       </c>
       <c r="I5" t="n">
-        <v>571.5265502929688</v>
+        <v>841.1549682617188</v>
       </c>
       <c r="J5" t="n">
-        <v>171.870361328125</v>
+        <v>103.7591552734375</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>617.2867431640625</v>
+        <v>534.326171875</v>
       </c>
       <c r="H6" t="n">
-        <v>49.73566818237305</v>
+        <v>68.95513916015625</v>
       </c>
       <c r="I6" t="n">
-        <v>488.8433532714844</v>
+        <v>877.7527465820312</v>
       </c>
       <c r="J6" t="n">
-        <v>200.3740997314453</v>
+        <v>110.1067733764648</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>172.9517822265625</v>
+        <v>277.6476135253906</v>
       </c>
       <c r="H7" t="n">
-        <v>15.41209030151367</v>
+        <v>32.95255279541016</v>
       </c>
       <c r="I7" t="n">
-        <v>592.1296997070312</v>
+        <v>516.6633911132812</v>
       </c>
       <c r="J7" t="n">
-        <v>82.22210693359375</v>
+        <v>28.85663795471191</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>202.8132171630859</v>
+        <v>286.3753967285156</v>
       </c>
       <c r="H8" t="n">
-        <v>18.52700424194336</v>
+        <v>27.77789688110352</v>
       </c>
       <c r="I8" t="n">
-        <v>589.8285522460938</v>
+        <v>578.6201171875</v>
       </c>
       <c r="J8" t="n">
-        <v>108.4248809814453</v>
+        <v>36.50689315795898</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>271.1520690917969</v>
+        <v>305.997314453125</v>
       </c>
       <c r="H9" t="n">
-        <v>25.39122581481934</v>
+        <v>19.46506309509277</v>
       </c>
       <c r="I9" t="n">
-        <v>572.7396850585938</v>
+        <v>664.232421875</v>
       </c>
       <c r="J9" t="n">
-        <v>137.5071411132812</v>
+        <v>57.26769638061523</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>342.322509765625</v>
+        <v>335.7935485839844</v>
       </c>
       <c r="H10" t="n">
-        <v>33.32188034057617</v>
+        <v>28.3456916809082</v>
       </c>
       <c r="I10" t="n">
-        <v>554.1809692382812</v>
+        <v>720.21728515625</v>
       </c>
       <c r="J10" t="n">
-        <v>145.98388671875</v>
+        <v>71.67515563964844</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>454.2318115234375</v>
+        <v>404.2663879394531</v>
       </c>
       <c r="H11" t="n">
-        <v>45.14406204223633</v>
+        <v>45.41324615478516</v>
       </c>
       <c r="I11" t="n">
-        <v>507.4258117675781</v>
+        <v>788.5689086914062</v>
       </c>
       <c r="J11" t="n">
-        <v>180.3514862060547</v>
+        <v>86.37676239013672</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>564.0442504882812</v>
+        <v>499.3939208984375</v>
       </c>
       <c r="H12" t="n">
-        <v>50.62684631347656</v>
+        <v>52.40148544311523</v>
       </c>
       <c r="I12" t="n">
-        <v>487.4049072265625</v>
+        <v>849.1591186523438</v>
       </c>
       <c r="J12" t="n">
-        <v>205.4931488037109</v>
+        <v>101.9070053100586</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>686.4614868164062</v>
+        <v>626.7706909179688</v>
       </c>
       <c r="H13" t="n">
-        <v>54.40877914428711</v>
+        <v>58.04370498657227</v>
       </c>
       <c r="I13" t="n">
-        <v>531.4241333007812</v>
+        <v>918.5962524414062</v>
       </c>
       <c r="J13" t="n">
-        <v>199.7505340576172</v>
+        <v>109.0599670410156</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>132.5125885009766</v>
+        <v>257.9681091308594</v>
       </c>
       <c r="H14" t="n">
-        <v>9.719316482543945</v>
+        <v>35.69010925292969</v>
       </c>
       <c r="I14" t="n">
-        <v>303.3833312988281</v>
+        <v>339.3638305664062</v>
       </c>
       <c r="J14" t="n">
-        <v>34.27835083007812</v>
+        <v>28.82802391052246</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>155.0419464111328</v>
+        <v>264.6407470703125</v>
       </c>
       <c r="H15" t="n">
-        <v>12.54549503326416</v>
+        <v>35.11956405639648</v>
       </c>
       <c r="I15" t="n">
-        <v>440.5711975097656</v>
+        <v>414.287353515625</v>
       </c>
       <c r="J15" t="n">
-        <v>81.07102966308594</v>
+        <v>27.35717391967773</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>214.6580352783203</v>
+        <v>276.7195739746094</v>
       </c>
       <c r="H16" t="n">
-        <v>22.050537109375</v>
+        <v>28.71536064147949</v>
       </c>
       <c r="I16" t="n">
-        <v>586.0713500976562</v>
+        <v>521.3455200195312</v>
       </c>
       <c r="J16" t="n">
-        <v>91.99871063232422</v>
+        <v>26.8423023223877</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>227.3647613525391</v>
+        <v>276.3134765625</v>
       </c>
       <c r="H17" t="n">
-        <v>20.89494514465332</v>
+        <v>24.29366302490234</v>
       </c>
       <c r="I17" t="n">
-        <v>625.1198120117188</v>
+        <v>549.9537963867188</v>
       </c>
       <c r="J17" t="n">
-        <v>98.32285308837891</v>
+        <v>37.51459884643555</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>294.6914978027344</v>
+        <v>299.5084228515625</v>
       </c>
       <c r="H18" t="n">
-        <v>30.21321105957031</v>
+        <v>20.91927528381348</v>
       </c>
       <c r="I18" t="n">
-        <v>641.0166015625</v>
+        <v>630.8335571289062</v>
       </c>
       <c r="J18" t="n">
-        <v>114.4064788818359</v>
+        <v>50.14484024047852</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>398.7954406738281</v>
+        <v>359.9739990234375</v>
       </c>
       <c r="H19" t="n">
-        <v>43.23799133300781</v>
+        <v>32.49681091308594</v>
       </c>
       <c r="I19" t="n">
-        <v>598.6213989257812</v>
+        <v>722.5663452148438</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9876556396484</v>
+        <v>70.60588836669922</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>511.7107238769531</v>
+        <v>455.6321716308594</v>
       </c>
       <c r="H20" t="n">
-        <v>53.07540130615234</v>
+        <v>43.44037246704102</v>
       </c>
       <c r="I20" t="n">
-        <v>583.7615966796875</v>
+        <v>808.9924926757812</v>
       </c>
       <c r="J20" t="n">
-        <v>166.9107055664062</v>
+        <v>89.7689208984375</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>640.9714965820312</v>
+        <v>590.0640258789062</v>
       </c>
       <c r="H21" t="n">
-        <v>56.3786735534668</v>
+        <v>52.86346435546875</v>
       </c>
       <c r="I21" t="n">
-        <v>605.3125</v>
+        <v>904.896484375</v>
       </c>
       <c r="J21" t="n">
-        <v>190.1160125732422</v>
+        <v>121.5633316040039</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>774.4563598632812</v>
+        <v>727.4203491210938</v>
       </c>
       <c r="H22" t="n">
-        <v>56.76414108276367</v>
+        <v>55.6082878112793</v>
       </c>
       <c r="I22" t="n">
-        <v>585.3720092773438</v>
+        <v>1010.259582519531</v>
       </c>
       <c r="J22" t="n">
-        <v>243.9412384033203</v>
+        <v>155.5281982421875</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>129.2509918212891</v>
+        <v>251.9153900146484</v>
       </c>
       <c r="H23" t="n">
-        <v>9.178464889526367</v>
+        <v>35.30310821533203</v>
       </c>
       <c r="I23" t="n">
-        <v>178.3637542724609</v>
+        <v>261.3291931152344</v>
       </c>
       <c r="J23" t="n">
-        <v>33.27532958984375</v>
+        <v>33.05550003051758</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>143.7610321044922</v>
+        <v>254.3400115966797</v>
       </c>
       <c r="H24" t="n">
-        <v>10.99419784545898</v>
+        <v>34.74062728881836</v>
       </c>
       <c r="I24" t="n">
-        <v>233.5504913330078</v>
+        <v>305.0154724121094</v>
       </c>
       <c r="J24" t="n">
-        <v>53.97352600097656</v>
+        <v>31.86283111572266</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>171.2201080322266</v>
+        <v>257.2320251464844</v>
       </c>
       <c r="H25" t="n">
-        <v>14.80550765991211</v>
+        <v>32.4148063659668</v>
       </c>
       <c r="I25" t="n">
-        <v>340.1147766113281</v>
+        <v>378.739013671875</v>
       </c>
       <c r="J25" t="n">
-        <v>77.19548034667969</v>
+        <v>28.7702465057373</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>204.9347991943359</v>
+        <v>261.4623107910156</v>
       </c>
       <c r="H26" t="n">
-        <v>19.80179214477539</v>
+        <v>27.35100555419922</v>
       </c>
       <c r="I26" t="n">
-        <v>471.6006164550781</v>
+        <v>448.8921813964844</v>
       </c>
       <c r="J26" t="n">
-        <v>88.75014495849609</v>
+        <v>27.73069953918457</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>258.8070983886719</v>
+        <v>273.0843200683594</v>
       </c>
       <c r="H27" t="n">
-        <v>28.79029083251953</v>
+        <v>20.88084411621094</v>
       </c>
       <c r="I27" t="n">
-        <v>619.60595703125</v>
+        <v>530.5007934570312</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84917449951172</v>
+        <v>34.39448928833008</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>352.960205078125</v>
+        <v>322.0687866210938</v>
       </c>
       <c r="H28" t="n">
-        <v>42.10969161987305</v>
+        <v>27.17575645446777</v>
       </c>
       <c r="I28" t="n">
-        <v>671.434326171875</v>
+        <v>653.2352905273438</v>
       </c>
       <c r="J28" t="n">
-        <v>82.56885528564453</v>
+        <v>59.99308776855469</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>458.011474609375</v>
+        <v>407.9599304199219</v>
       </c>
       <c r="H29" t="n">
-        <v>52.57162094116211</v>
+        <v>38.96175765991211</v>
       </c>
       <c r="I29" t="n">
-        <v>668.7588500976562</v>
+        <v>761.3511352539062</v>
       </c>
       <c r="J29" t="n">
-        <v>113.4284057617188</v>
+        <v>93.69320678710938</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>606.4718627929688</v>
+        <v>559.3399658203125</v>
       </c>
       <c r="H30" t="n">
-        <v>59.88245391845703</v>
+        <v>51.31039047241211</v>
       </c>
       <c r="I30" t="n">
-        <v>664.0181274414062</v>
+        <v>897.3778686523438</v>
       </c>
       <c r="J30" t="n">
-        <v>168.1126403808594</v>
+        <v>141.6087036132812</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>737.8146362304688</v>
+        <v>699.25146484375</v>
       </c>
       <c r="H31" t="n">
-        <v>60.67007827758789</v>
+        <v>52.75756072998047</v>
       </c>
       <c r="I31" t="n">
-        <v>624.3507080078125</v>
+        <v>1007.166442871094</v>
       </c>
       <c r="J31" t="n">
-        <v>228.9985046386719</v>
+        <v>200.7115631103516</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>127.4997634887695</v>
+        <v>246.4786376953125</v>
       </c>
       <c r="H32" t="n">
-        <v>9.092411994934082</v>
+        <v>34.59640502929688</v>
       </c>
       <c r="I32" t="n">
-        <v>49.76015090942383</v>
+        <v>178.9701385498047</v>
       </c>
       <c r="J32" t="n">
-        <v>41.06553268432617</v>
+        <v>37.98360061645508</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>145.2592010498047</v>
+        <v>248.8032989501953</v>
       </c>
       <c r="H33" t="n">
-        <v>12.0696496963501</v>
+        <v>33.7255744934082</v>
       </c>
       <c r="I33" t="n">
-        <v>106.8977432250977</v>
+        <v>234.4035186767578</v>
       </c>
       <c r="J33" t="n">
-        <v>38.93297576904297</v>
+        <v>38.02881622314453</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>169.7903137207031</v>
+        <v>250.5040893554688</v>
       </c>
       <c r="H34" t="n">
-        <v>16.48862648010254</v>
+        <v>31.29080200195312</v>
       </c>
       <c r="I34" t="n">
-        <v>169.1137390136719</v>
+        <v>300.4220886230469</v>
       </c>
       <c r="J34" t="n">
-        <v>53.78823089599609</v>
+        <v>36.08082580566406</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>201.693359375</v>
+        <v>251.8182830810547</v>
       </c>
       <c r="H35" t="n">
-        <v>22.7855167388916</v>
+        <v>25.88261413574219</v>
       </c>
       <c r="I35" t="n">
-        <v>253.7906951904297</v>
+        <v>368.6016845703125</v>
       </c>
       <c r="J35" t="n">
-        <v>99.70470428466797</v>
+        <v>36.63153839111328</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>256.3835754394531</v>
+        <v>265.2541198730469</v>
       </c>
       <c r="H36" t="n">
-        <v>32.71244049072266</v>
+        <v>19.81537628173828</v>
       </c>
       <c r="I36" t="n">
-        <v>447.9774475097656</v>
+        <v>482.3717956542969</v>
       </c>
       <c r="J36" t="n">
-        <v>119.7398910522461</v>
+        <v>43.88139724731445</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>321.3660278320312</v>
+        <v>297.7298278808594</v>
       </c>
       <c r="H37" t="n">
-        <v>43.81318283081055</v>
+        <v>24.47481918334961</v>
       </c>
       <c r="I37" t="n">
-        <v>621.3007202148438</v>
+        <v>590.8716430664062</v>
       </c>
       <c r="J37" t="n">
-        <v>145.1827850341797</v>
+        <v>71.08283233642578</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>432.7766418457031</v>
+        <v>386.1303405761719</v>
       </c>
       <c r="H38" t="n">
-        <v>56.43509292602539</v>
+        <v>39.94023895263672</v>
       </c>
       <c r="I38" t="n">
-        <v>697.489501953125</v>
+        <v>738.9149780273438</v>
       </c>
       <c r="J38" t="n">
-        <v>125.4559097290039</v>
+        <v>114.3698501586914</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>546.4158325195312</v>
+        <v>504.0279846191406</v>
       </c>
       <c r="H39" t="n">
-        <v>61.67497634887695</v>
+        <v>49.80839157104492</v>
       </c>
       <c r="I39" t="n">
-        <v>686.2496948242188</v>
+        <v>861.8267211914062</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0787963867188</v>
+        <v>172.4363098144531</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>696.5333862304688</v>
+        <v>664.6834716796875</v>
       </c>
       <c r="H40" t="n">
-        <v>65.05873870849609</v>
+        <v>51.60825347900391</v>
       </c>
       <c r="I40" t="n">
-        <v>646.7627563476562</v>
+        <v>999.9483032226562</v>
       </c>
       <c r="J40" t="n">
-        <v>210.6593017578125</v>
+        <v>239.342529296875</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>134.2098846435547</v>
+        <v>244.0157623291016</v>
       </c>
       <c r="H41" t="n">
-        <v>11.11711406707764</v>
+        <v>32.28683090209961</v>
       </c>
       <c r="I41" t="n">
-        <v>12.16478824615479</v>
+        <v>121.9500198364258</v>
       </c>
       <c r="J41" t="n">
-        <v>64.49967193603516</v>
+        <v>42.33967971801758</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>149.8352813720703</v>
+        <v>245.9022979736328</v>
       </c>
       <c r="H42" t="n">
-        <v>14.5717716217041</v>
+        <v>31.6873607635498</v>
       </c>
       <c r="I42" t="n">
-        <v>44.02567672729492</v>
+        <v>164.6674346923828</v>
       </c>
       <c r="J42" t="n">
-        <v>63.40349960327148</v>
+        <v>45.00337219238281</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>165.1138610839844</v>
+        <v>246.227294921875</v>
       </c>
       <c r="H43" t="n">
-        <v>18.06930351257324</v>
+        <v>30.35969543457031</v>
       </c>
       <c r="I43" t="n">
-        <v>76.0750732421875</v>
+        <v>205.87353515625</v>
       </c>
       <c r="J43" t="n">
-        <v>64.40692138671875</v>
+        <v>46.38615798950195</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>204.4514617919922</v>
+        <v>249.7847900390625</v>
       </c>
       <c r="H44" t="n">
-        <v>27.68854141235352</v>
+        <v>25.14547348022461</v>
       </c>
       <c r="I44" t="n">
-        <v>167.0365295410156</v>
+        <v>320.1841735839844</v>
       </c>
       <c r="J44" t="n">
-        <v>67.89354705810547</v>
+        <v>51.31726837158203</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>236.1432495117188</v>
+        <v>255.3519744873047</v>
       </c>
       <c r="H45" t="n">
-        <v>34.97674560546875</v>
+        <v>20.23929786682129</v>
       </c>
       <c r="I45" t="n">
-        <v>250.8977813720703</v>
+        <v>395.8966369628906</v>
       </c>
       <c r="J45" t="n">
-        <v>80.22843170166016</v>
+        <v>59.3235969543457</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>297.0717468261719</v>
+        <v>281.8302917480469</v>
       </c>
       <c r="H46" t="n">
-        <v>46.34309005737305</v>
+        <v>21.49942207336426</v>
       </c>
       <c r="I46" t="n">
-        <v>438.0221862792969</v>
+        <v>533.7069702148438</v>
       </c>
       <c r="J46" t="n">
-        <v>157.1455841064453</v>
+        <v>89.96566009521484</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>390.7998046875</v>
+        <v>354.1678161621094</v>
       </c>
       <c r="H47" t="n">
-        <v>59.39350891113281</v>
+        <v>37.73332595825195</v>
       </c>
       <c r="I47" t="n">
-        <v>660.1636352539062</v>
+        <v>697.2053833007812</v>
       </c>
       <c r="J47" t="n">
-        <v>169.0337524414062</v>
+        <v>142.6634216308594</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>519.6318969726562</v>
+        <v>483.3476257324219</v>
       </c>
       <c r="H48" t="n">
-        <v>66.12603759765625</v>
+        <v>50.7879753112793</v>
       </c>
       <c r="I48" t="n">
-        <v>700.32373046875</v>
+        <v>861.8771362304688</v>
       </c>
       <c r="J48" t="n">
-        <v>159.6027526855469</v>
+        <v>203.375</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>636.3219604492188</v>
+        <v>610.5031127929688</v>
       </c>
       <c r="H49" t="n">
-        <v>70.26042175292969</v>
+        <v>53.03251647949219</v>
       </c>
       <c r="I49" t="n">
-        <v>682.1221923828125</v>
+        <v>973.570556640625</v>
       </c>
       <c r="J49" t="n">
-        <v>199.6822357177734</v>
+        <v>254.5607452392578</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>143.0270233154297</v>
+        <v>241.0010223388672</v>
       </c>
       <c r="H50" t="n">
-        <v>14.62878036499023</v>
+        <v>29.91615295410156</v>
       </c>
       <c r="I50" t="n">
-        <v>-6.174621105194092</v>
+        <v>62.408447265625</v>
       </c>
       <c r="J50" t="n">
-        <v>101.7112121582031</v>
+        <v>47.45509719848633</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>161.0871429443359</v>
+        <v>243.4763793945312</v>
       </c>
       <c r="H51" t="n">
-        <v>20.08559036254883</v>
+        <v>29.11929893493652</v>
       </c>
       <c r="I51" t="n">
-        <v>7.645270824432373</v>
+        <v>111.003173828125</v>
       </c>
       <c r="J51" t="n">
-        <v>111.0372467041016</v>
+        <v>53.48281860351562</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>174.4337615966797</v>
+        <v>243.7455291748047</v>
       </c>
       <c r="H52" t="n">
-        <v>24.24226760864258</v>
+        <v>27.83786201477051</v>
       </c>
       <c r="I52" t="n">
-        <v>19.975341796875</v>
+        <v>148.09375</v>
       </c>
       <c r="J52" t="n">
-        <v>113.8400726318359</v>
+        <v>57.5135612487793</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>205.2064361572266</v>
+        <v>246.6181488037109</v>
       </c>
       <c r="H53" t="n">
-        <v>33.28099060058594</v>
+        <v>23.82562255859375</v>
       </c>
       <c r="I53" t="n">
-        <v>72.17173767089844</v>
+        <v>258.5091247558594</v>
       </c>
       <c r="J53" t="n">
-        <v>105.3491287231445</v>
+        <v>71.51807403564453</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>238.6222686767578</v>
+        <v>254.3421630859375</v>
       </c>
       <c r="H54" t="n">
-        <v>41.73549652099609</v>
+        <v>18.99582099914551</v>
       </c>
       <c r="I54" t="n">
-        <v>185.4433746337891</v>
+        <v>366.7444152832031</v>
       </c>
       <c r="J54" t="n">
-        <v>101.0482711791992</v>
+        <v>86.42314910888672</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>284.5263366699219</v>
+        <v>276.2245178222656</v>
       </c>
       <c r="H55" t="n">
-        <v>51.0596923828125</v>
+        <v>20.33245086669922</v>
       </c>
       <c r="I55" t="n">
-        <v>358.46337890625</v>
+        <v>495.8529357910156</v>
       </c>
       <c r="J55" t="n">
-        <v>140.5803070068359</v>
+        <v>111.1086196899414</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>347.7373352050781</v>
+        <v>325.5383605957031</v>
       </c>
       <c r="H56" t="n">
-        <v>61.07646942138672</v>
+        <v>33.24259185791016</v>
       </c>
       <c r="I56" t="n">
-        <v>533.3004150390625</v>
+        <v>637.8627319335938</v>
       </c>
       <c r="J56" t="n">
-        <v>198.7749176025391</v>
+        <v>161.8587799072266</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>448.8684387207031</v>
+        <v>422.8211364746094</v>
       </c>
       <c r="H57" t="n">
-        <v>71.97296142578125</v>
+        <v>48.93392181396484</v>
       </c>
       <c r="I57" t="n">
-        <v>700.5966796875</v>
+        <v>809.4580078125</v>
       </c>
       <c r="J57" t="n">
-        <v>193.8838500976562</v>
+        <v>212.0968322753906</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>592.8699340820312</v>
+        <v>578.8161010742188</v>
       </c>
       <c r="H58" t="n">
-        <v>76.41744995117188</v>
+        <v>53.93229293823242</v>
       </c>
       <c r="I58" t="n">
-        <v>707.9425659179688</v>
+        <v>964.7686157226562</v>
       </c>
       <c r="J58" t="n">
-        <v>206.0782165527344</v>
+        <v>284.3273010253906</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>170.3424530029297</v>
+        <v>241.8954315185547</v>
       </c>
       <c r="H59" t="n">
-        <v>26.65179061889648</v>
+        <v>27.03916549682617</v>
       </c>
       <c r="I59" t="n">
-        <v>-25.51274299621582</v>
+        <v>56.29473876953125</v>
       </c>
       <c r="J59" t="n">
-        <v>142.7359466552734</v>
+        <v>61.36618423461914</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>186.5582733154297</v>
+        <v>242.6483154296875</v>
       </c>
       <c r="H60" t="n">
-        <v>32.64118194580078</v>
+        <v>25.75972175598145</v>
       </c>
       <c r="I60" t="n">
-        <v>-57.13529968261719</v>
+        <v>124.2841110229492</v>
       </c>
       <c r="J60" t="n">
-        <v>142.1728668212891</v>
+        <v>76.2098388671875</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>204.1661834716797</v>
+        <v>245.7582244873047</v>
       </c>
       <c r="H61" t="n">
-        <v>38.8570556640625</v>
+        <v>23.48833847045898</v>
       </c>
       <c r="I61" t="n">
-        <v>-63.31962966918945</v>
+        <v>198.3232421875</v>
       </c>
       <c r="J61" t="n">
-        <v>147.2788543701172</v>
+        <v>83.38767242431641</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>230.5455932617188</v>
+        <v>252.567138671875</v>
       </c>
       <c r="H62" t="n">
-        <v>46.58663177490234</v>
+        <v>19.59274482727051</v>
       </c>
       <c r="I62" t="n">
-        <v>-3.500604629516602</v>
+        <v>313.6102600097656</v>
       </c>
       <c r="J62" t="n">
-        <v>147.7695159912109</v>
+        <v>101.6689453125</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>266.8027038574219</v>
+        <v>269.6992797851562</v>
       </c>
       <c r="H63" t="n">
-        <v>55.24486541748047</v>
+        <v>19.25650978088379</v>
       </c>
       <c r="I63" t="n">
-        <v>183.9981079101562</v>
+        <v>449.7352600097656</v>
       </c>
       <c r="J63" t="n">
-        <v>145.9027404785156</v>
+        <v>125.7386169433594</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>324.5725708007812</v>
+        <v>314.1137390136719</v>
       </c>
       <c r="H64" t="n">
-        <v>66.07574462890625</v>
+        <v>31.37889862060547</v>
       </c>
       <c r="I64" t="n">
-        <v>432.0885009765625</v>
+        <v>616.307373046875</v>
       </c>
       <c r="J64" t="n">
-        <v>213.6985168457031</v>
+        <v>176.353271484375</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>419.5807800292969</v>
+        <v>406.7998046875</v>
       </c>
       <c r="H65" t="n">
-        <v>76.82027435302734</v>
+        <v>48.3326301574707</v>
       </c>
       <c r="I65" t="n">
-        <v>665.9751586914062</v>
+        <v>803.3700561523438</v>
       </c>
       <c r="J65" t="n">
-        <v>223.9349822998047</v>
+        <v>235.3126220703125</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>191.5677642822266</v>
+        <v>243.3448944091797</v>
       </c>
       <c r="H66" t="n">
-        <v>40.42232513427734</v>
+        <v>24.47057914733887</v>
       </c>
       <c r="I66" t="n">
-        <v>-98.94521331787109</v>
+        <v>76.55363464355469</v>
       </c>
       <c r="J66" t="n">
-        <v>201.9642028808594</v>
+        <v>80.97309112548828</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>201.6458282470703</v>
+        <v>245.3022613525391</v>
       </c>
       <c r="H67" t="n">
-        <v>44.76124954223633</v>
+        <v>22.8712043762207</v>
       </c>
       <c r="I67" t="n">
-        <v>-141.7471466064453</v>
+        <v>135.5299377441406</v>
       </c>
       <c r="J67" t="n">
-        <v>213.0346221923828</v>
+        <v>91.63248443603516</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>229.2811431884766</v>
+        <v>255.210205078125</v>
       </c>
       <c r="H68" t="n">
-        <v>54.09854507446289</v>
+        <v>19.25149917602539</v>
       </c>
       <c r="I68" t="n">
-        <v>-171.4136352539062</v>
+        <v>293.5085754394531</v>
       </c>
       <c r="J68" t="n">
-        <v>193.1702880859375</v>
+        <v>116.4591598510742</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>250.3899993896484</v>
+        <v>266.267333984375</v>
       </c>
       <c r="H69" t="n">
-        <v>59.72175979614258</v>
+        <v>18.90610694885254</v>
       </c>
       <c r="I69" t="n">
-        <v>-52.56022262573242</v>
+        <v>394.4350280761719</v>
       </c>
       <c r="J69" t="n">
-        <v>218.4277191162109</v>
+        <v>134.4024353027344</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>305.8837280273438</v>
+        <v>307.4570922851562</v>
       </c>
       <c r="H70" t="n">
-        <v>72.29437255859375</v>
+        <v>29.72086143493652</v>
       </c>
       <c r="I70" t="n">
-        <v>285.8658447265625</v>
+        <v>604.8897094726562</v>
       </c>
       <c r="J70" t="n">
-        <v>240.5445556640625</v>
+        <v>180.6332244873047</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>316.2665100097656</v>
+        <v>307.2772521972656</v>
       </c>
       <c r="H2" t="n">
-        <v>20.75529098510742</v>
+        <v>49.27613830566406</v>
       </c>
       <c r="I2" t="n">
-        <v>694.7355346679688</v>
+        <v>730.1013793945312</v>
       </c>
       <c r="J2" t="n">
-        <v>60.86854934692383</v>
+        <v>52.18032073974609</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>343.0133972167969</v>
+        <v>343.4638366699219</v>
       </c>
       <c r="H3" t="n">
-        <v>32.17693328857422</v>
+        <v>59.63093185424805</v>
       </c>
       <c r="I3" t="n">
-        <v>759.6423950195312</v>
+        <v>770.707763671875</v>
       </c>
       <c r="J3" t="n">
-        <v>80.32160186767578</v>
+        <v>63.4660758972168</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>380.5697021484375</v>
+        <v>386.872314453125</v>
       </c>
       <c r="H4" t="n">
-        <v>49.55804824829102</v>
+        <v>69.06742095947266</v>
       </c>
       <c r="I4" t="n">
-        <v>802.3180541992188</v>
+        <v>790.1880493164062</v>
       </c>
       <c r="J4" t="n">
-        <v>94.07175445556641</v>
+        <v>71.39658355712891</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>438.1062927246094</v>
+        <v>442.1741638183594</v>
       </c>
       <c r="H5" t="n">
-        <v>62.86428070068359</v>
+        <v>78.17903137207031</v>
       </c>
       <c r="I5" t="n">
-        <v>841.1549682617188</v>
+        <v>806.47509765625</v>
       </c>
       <c r="J5" t="n">
-        <v>103.7591552734375</v>
+        <v>80.02978515625</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>534.326171875</v>
+        <v>517.7008666992188</v>
       </c>
       <c r="H6" t="n">
-        <v>68.95513916015625</v>
+        <v>85.50635528564453</v>
       </c>
       <c r="I6" t="n">
-        <v>877.7527465820312</v>
+        <v>810.361083984375</v>
       </c>
       <c r="J6" t="n">
-        <v>110.1067733764648</v>
+        <v>92.90272521972656</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>277.6476135253906</v>
+        <v>264.0889587402344</v>
       </c>
       <c r="H7" t="n">
-        <v>32.95255279541016</v>
+        <v>34.85969543457031</v>
       </c>
       <c r="I7" t="n">
-        <v>516.6633911132812</v>
+        <v>594.9660034179688</v>
       </c>
       <c r="J7" t="n">
-        <v>28.85663795471191</v>
+        <v>16.94675254821777</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>286.3753967285156</v>
+        <v>272.5440063476562</v>
       </c>
       <c r="H8" t="n">
-        <v>27.77789688110352</v>
+        <v>34.12258529663086</v>
       </c>
       <c r="I8" t="n">
-        <v>578.6201171875</v>
+        <v>658.3442993164062</v>
       </c>
       <c r="J8" t="n">
-        <v>36.50689315795898</v>
+        <v>17.60093879699707</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>305.997314453125</v>
+        <v>298.2522277832031</v>
       </c>
       <c r="H9" t="n">
-        <v>19.46506309509277</v>
+        <v>35.48012924194336</v>
       </c>
       <c r="I9" t="n">
-        <v>664.232421875</v>
+        <v>730.2117309570312</v>
       </c>
       <c r="J9" t="n">
-        <v>57.26769638061523</v>
+        <v>30.44208717346191</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>335.7935485839844</v>
+        <v>332.5601501464844</v>
       </c>
       <c r="H10" t="n">
-        <v>28.3456916809082</v>
+        <v>39.01350784301758</v>
       </c>
       <c r="I10" t="n">
-        <v>720.21728515625</v>
+        <v>766.3969116210938</v>
       </c>
       <c r="J10" t="n">
-        <v>71.67515563964844</v>
+        <v>40.54360580444336</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>404.2663879394531</v>
+        <v>399.388671875</v>
       </c>
       <c r="H11" t="n">
-        <v>45.41324615478516</v>
+        <v>47.99707412719727</v>
       </c>
       <c r="I11" t="n">
-        <v>788.5689086914062</v>
+        <v>805.5466918945312</v>
       </c>
       <c r="J11" t="n">
-        <v>86.37676239013672</v>
+        <v>56.0921516418457</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>499.3939208984375</v>
+        <v>476.8155822753906</v>
       </c>
       <c r="H12" t="n">
-        <v>52.40148544311523</v>
+        <v>57.45206832885742</v>
       </c>
       <c r="I12" t="n">
-        <v>849.1591186523438</v>
+        <v>839.161376953125</v>
       </c>
       <c r="J12" t="n">
-        <v>101.9070053100586</v>
+        <v>74.41989135742188</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>626.7706909179688</v>
+        <v>581.5643920898438</v>
       </c>
       <c r="H13" t="n">
-        <v>58.04370498657227</v>
+        <v>62.81730270385742</v>
       </c>
       <c r="I13" t="n">
-        <v>918.5962524414062</v>
+        <v>871.175537109375</v>
       </c>
       <c r="J13" t="n">
-        <v>109.0599670410156</v>
+        <v>96.24054718017578</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>257.9681091308594</v>
+        <v>256.7065734863281</v>
       </c>
       <c r="H14" t="n">
-        <v>35.69010925292969</v>
+        <v>38.00473785400391</v>
       </c>
       <c r="I14" t="n">
-        <v>339.3638305664062</v>
+        <v>350.7026672363281</v>
       </c>
       <c r="J14" t="n">
-        <v>28.82802391052246</v>
+        <v>46.15641784667969</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>264.6407470703125</v>
+        <v>255.3037872314453</v>
       </c>
       <c r="H15" t="n">
-        <v>35.11956405639648</v>
+        <v>33.85488128662109</v>
       </c>
       <c r="I15" t="n">
-        <v>414.287353515625</v>
+        <v>465.5414733886719</v>
       </c>
       <c r="J15" t="n">
-        <v>27.35717391967773</v>
+        <v>39.03096008300781</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>276.7195739746094</v>
+        <v>262.878173828125</v>
       </c>
       <c r="H16" t="n">
-        <v>28.71536064147949</v>
+        <v>28.8399543762207</v>
       </c>
       <c r="I16" t="n">
-        <v>521.3455200195312</v>
+        <v>594.0292358398438</v>
       </c>
       <c r="J16" t="n">
-        <v>26.8423023223877</v>
+        <v>29.84403038024902</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>276.3134765625</v>
+        <v>267.7890930175781</v>
       </c>
       <c r="H17" t="n">
-        <v>24.29366302490234</v>
+        <v>27.3911190032959</v>
       </c>
       <c r="I17" t="n">
-        <v>549.9537963867188</v>
+        <v>638.42333984375</v>
       </c>
       <c r="J17" t="n">
-        <v>37.51459884643555</v>
+        <v>26.59842491149902</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>299.5084228515625</v>
+        <v>293.7545471191406</v>
       </c>
       <c r="H18" t="n">
-        <v>20.91927528381348</v>
+        <v>26.1374626159668</v>
       </c>
       <c r="I18" t="n">
-        <v>630.8335571289062</v>
+        <v>721.6731567382812</v>
       </c>
       <c r="J18" t="n">
-        <v>50.14484024047852</v>
+        <v>28.1042652130127</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>359.9739990234375</v>
+        <v>350.89697265625</v>
       </c>
       <c r="H19" t="n">
-        <v>32.49681091308594</v>
+        <v>29.71303367614746</v>
       </c>
       <c r="I19" t="n">
-        <v>722.5663452148438</v>
+        <v>794.3417358398438</v>
       </c>
       <c r="J19" t="n">
-        <v>70.60588836669922</v>
+        <v>39.86985015869141</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>455.6321716308594</v>
+        <v>435.0908508300781</v>
       </c>
       <c r="H20" t="n">
-        <v>43.44037246704102</v>
+        <v>39.94125747680664</v>
       </c>
       <c r="I20" t="n">
-        <v>808.9924926757812</v>
+        <v>853.9970092773438</v>
       </c>
       <c r="J20" t="n">
-        <v>89.7689208984375</v>
+        <v>56.68548583984375</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>590.0640258789062</v>
+        <v>553.5888061523438</v>
       </c>
       <c r="H21" t="n">
-        <v>52.86346435546875</v>
+        <v>51.21014022827148</v>
       </c>
       <c r="I21" t="n">
-        <v>904.896484375</v>
+        <v>908.6303100585938</v>
       </c>
       <c r="J21" t="n">
-        <v>121.5633316040039</v>
+        <v>81.95567321777344</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>727.4203491210938</v>
+        <v>687.5387573242188</v>
       </c>
       <c r="H22" t="n">
-        <v>55.6082878112793</v>
+        <v>52.68821334838867</v>
       </c>
       <c r="I22" t="n">
-        <v>1010.259582519531</v>
+        <v>955.3114624023438</v>
       </c>
       <c r="J22" t="n">
-        <v>155.5281982421875</v>
+        <v>116.9642715454102</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>251.9153900146484</v>
+        <v>256.388427734375</v>
       </c>
       <c r="H23" t="n">
-        <v>35.30310821533203</v>
+        <v>37.25382995605469</v>
       </c>
       <c r="I23" t="n">
-        <v>261.3291931152344</v>
+        <v>198.2503509521484</v>
       </c>
       <c r="J23" t="n">
-        <v>33.05550003051758</v>
+        <v>62.44062042236328</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>254.3400115966797</v>
+        <v>254.0901489257812</v>
       </c>
       <c r="H24" t="n">
-        <v>34.74062728881836</v>
+        <v>33.65697479248047</v>
       </c>
       <c r="I24" t="n">
-        <v>305.0154724121094</v>
+        <v>268.2900085449219</v>
       </c>
       <c r="J24" t="n">
-        <v>31.86283111572266</v>
+        <v>61.36677169799805</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>257.2320251464844</v>
+        <v>252.5891723632812</v>
       </c>
       <c r="H25" t="n">
-        <v>32.4148063659668</v>
+        <v>29.14223670959473</v>
       </c>
       <c r="I25" t="n">
-        <v>378.739013671875</v>
+        <v>385.2710266113281</v>
       </c>
       <c r="J25" t="n">
-        <v>28.7702465057373</v>
+        <v>54.27597045898438</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>261.4623107910156</v>
+        <v>256.4928894042969</v>
       </c>
       <c r="H26" t="n">
-        <v>27.35100555419922</v>
+        <v>25.68303108215332</v>
       </c>
       <c r="I26" t="n">
-        <v>448.8921813964844</v>
+        <v>492.1037292480469</v>
       </c>
       <c r="J26" t="n">
-        <v>27.73069953918457</v>
+        <v>46.5169792175293</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>273.0843200683594</v>
+        <v>271.3376770019531</v>
       </c>
       <c r="H27" t="n">
-        <v>20.88084411621094</v>
+        <v>23.67830657958984</v>
       </c>
       <c r="I27" t="n">
-        <v>530.5007934570312</v>
+        <v>596.5029296875</v>
       </c>
       <c r="J27" t="n">
-        <v>34.39448928833008</v>
+        <v>43.46536636352539</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>322.0687866210938</v>
+        <v>318.3567199707031</v>
       </c>
       <c r="H28" t="n">
-        <v>27.17575645446777</v>
+        <v>27.08206176757812</v>
       </c>
       <c r="I28" t="n">
-        <v>653.2352905273438</v>
+        <v>736.7578125</v>
       </c>
       <c r="J28" t="n">
-        <v>59.99308776855469</v>
+        <v>46.31342697143555</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>407.9599304199219</v>
+        <v>395.7881164550781</v>
       </c>
       <c r="H29" t="n">
-        <v>38.96175765991211</v>
+        <v>35.40624237060547</v>
       </c>
       <c r="I29" t="n">
-        <v>761.3511352539062</v>
+        <v>839.6111450195312</v>
       </c>
       <c r="J29" t="n">
-        <v>93.69320678710938</v>
+        <v>56.95706176757812</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>559.3399658203125</v>
+        <v>536.8497924804688</v>
       </c>
       <c r="H30" t="n">
-        <v>51.31039047241211</v>
+        <v>50.69047546386719</v>
       </c>
       <c r="I30" t="n">
-        <v>897.3778686523438</v>
+        <v>937.4234008789062</v>
       </c>
       <c r="J30" t="n">
-        <v>141.6087036132812</v>
+        <v>77.77333068847656</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>699.25146484375</v>
+        <v>680.33203125</v>
       </c>
       <c r="H31" t="n">
-        <v>52.75756072998047</v>
+        <v>53.17208099365234</v>
       </c>
       <c r="I31" t="n">
-        <v>1007.166442871094</v>
+        <v>998.1918334960938</v>
       </c>
       <c r="J31" t="n">
-        <v>200.7115631103516</v>
+        <v>104.8777542114258</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>246.4786376953125</v>
+        <v>258.6373291015625</v>
       </c>
       <c r="H32" t="n">
-        <v>34.59640502929688</v>
+        <v>36.37565994262695</v>
       </c>
       <c r="I32" t="n">
-        <v>178.9701385498047</v>
+        <v>34.74073791503906</v>
       </c>
       <c r="J32" t="n">
-        <v>37.98360061645508</v>
+        <v>80.38545989990234</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>248.8032989501953</v>
+        <v>254.5035247802734</v>
       </c>
       <c r="H33" t="n">
-        <v>33.7255744934082</v>
+        <v>32.01141357421875</v>
       </c>
       <c r="I33" t="n">
-        <v>234.4035186767578</v>
+        <v>103.2602005004883</v>
       </c>
       <c r="J33" t="n">
-        <v>38.02881622314453</v>
+        <v>83.59181213378906</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>250.5040893554688</v>
+        <v>252.7886352539062</v>
       </c>
       <c r="H34" t="n">
-        <v>31.29080200195312</v>
+        <v>27.75622749328613</v>
       </c>
       <c r="I34" t="n">
-        <v>300.4220886230469</v>
+        <v>198.9606323242188</v>
       </c>
       <c r="J34" t="n">
-        <v>36.08082580566406</v>
+        <v>79.73984527587891</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>251.8182830810547</v>
+        <v>256.1221008300781</v>
       </c>
       <c r="H35" t="n">
-        <v>25.88261413574219</v>
+        <v>24.29619789123535</v>
       </c>
       <c r="I35" t="n">
-        <v>368.6016845703125</v>
+        <v>289.44677734375</v>
       </c>
       <c r="J35" t="n">
-        <v>36.63153839111328</v>
+        <v>74.16706085205078</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>265.2541198730469</v>
+        <v>271.5272521972656</v>
       </c>
       <c r="H36" t="n">
-        <v>19.81537628173828</v>
+        <v>23.35583877563477</v>
       </c>
       <c r="I36" t="n">
-        <v>482.3717956542969</v>
+        <v>468.9771728515625</v>
       </c>
       <c r="J36" t="n">
-        <v>43.88139724731445</v>
+        <v>62.24658584594727</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>297.7298278808594</v>
+        <v>304.2245178222656</v>
       </c>
       <c r="H37" t="n">
-        <v>24.47481918334961</v>
+        <v>28.24479866027832</v>
       </c>
       <c r="I37" t="n">
-        <v>590.8716430664062</v>
+        <v>609.1900024414062</v>
       </c>
       <c r="J37" t="n">
-        <v>71.08283233642578</v>
+        <v>67.830810546875</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>386.1303405761719</v>
+        <v>387.71240234375</v>
       </c>
       <c r="H38" t="n">
-        <v>39.94023895263672</v>
+        <v>39.69563674926758</v>
       </c>
       <c r="I38" t="n">
-        <v>738.9149780273438</v>
+        <v>808.1265258789062</v>
       </c>
       <c r="J38" t="n">
-        <v>114.3698501586914</v>
+        <v>79.09305572509766</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>504.0279846191406</v>
+        <v>501.6159973144531</v>
       </c>
       <c r="H39" t="n">
-        <v>49.80839157104492</v>
+        <v>50.68057250976562</v>
       </c>
       <c r="I39" t="n">
-        <v>861.8267211914062</v>
+        <v>930.0036010742188</v>
       </c>
       <c r="J39" t="n">
-        <v>172.4363098144531</v>
+        <v>96.63987731933594</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>664.6834716796875</v>
+        <v>664.5670166015625</v>
       </c>
       <c r="H40" t="n">
-        <v>51.60825347900391</v>
+        <v>54.28878021240234</v>
       </c>
       <c r="I40" t="n">
-        <v>999.9483032226562</v>
+        <v>1027.989990234375</v>
       </c>
       <c r="J40" t="n">
-        <v>239.342529296875</v>
+        <v>109.4854583740234</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>244.0157623291016</v>
+        <v>259.2848815917969</v>
       </c>
       <c r="H41" t="n">
-        <v>32.28683090209961</v>
+        <v>33.65549087524414</v>
       </c>
       <c r="I41" t="n">
-        <v>121.9500198364258</v>
+        <v>-87.22316741943359</v>
       </c>
       <c r="J41" t="n">
-        <v>42.33967971801758</v>
+        <v>97.62754058837891</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>245.9022979736328</v>
+        <v>257.0820007324219</v>
       </c>
       <c r="H42" t="n">
-        <v>31.6873607635498</v>
+        <v>30.11856079101562</v>
       </c>
       <c r="I42" t="n">
-        <v>164.6674346923828</v>
+        <v>-50.472412109375</v>
       </c>
       <c r="J42" t="n">
-        <v>45.00337219238281</v>
+        <v>105.8908843994141</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>246.227294921875</v>
+        <v>256.8323364257812</v>
       </c>
       <c r="H43" t="n">
-        <v>30.35969543457031</v>
+        <v>27.34450149536133</v>
       </c>
       <c r="I43" t="n">
-        <v>205.87353515625</v>
+        <v>-6.784589290618896</v>
       </c>
       <c r="J43" t="n">
-        <v>46.38615798950195</v>
+        <v>107.8506164550781</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>249.7847900390625</v>
+        <v>260.8026733398438</v>
       </c>
       <c r="H44" t="n">
-        <v>25.14547348022461</v>
+        <v>23.18154716491699</v>
       </c>
       <c r="I44" t="n">
-        <v>320.1841735839844</v>
+        <v>139.2924346923828</v>
       </c>
       <c r="J44" t="n">
-        <v>51.31726837158203</v>
+        <v>104.2318954467773</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>255.3519744873047</v>
+        <v>271.1011047363281</v>
       </c>
       <c r="H45" t="n">
-        <v>20.23929786682129</v>
+        <v>22.59990310668945</v>
       </c>
       <c r="I45" t="n">
-        <v>395.8966369628906</v>
+        <v>242.8448944091797</v>
       </c>
       <c r="J45" t="n">
-        <v>59.3235969543457</v>
+        <v>97.29900360107422</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>281.8302917480469</v>
+        <v>301.281005859375</v>
       </c>
       <c r="H46" t="n">
-        <v>21.49942207336426</v>
+        <v>27.91093254089355</v>
       </c>
       <c r="I46" t="n">
-        <v>533.7069702148438</v>
+        <v>439.8240051269531</v>
       </c>
       <c r="J46" t="n">
-        <v>89.96566009521484</v>
+        <v>98.76575469970703</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>354.1678161621094</v>
+        <v>373.8214111328125</v>
       </c>
       <c r="H47" t="n">
-        <v>37.73332595825195</v>
+        <v>40.5206298828125</v>
       </c>
       <c r="I47" t="n">
-        <v>697.2053833007812</v>
+        <v>696.4749145507812</v>
       </c>
       <c r="J47" t="n">
-        <v>142.6634216308594</v>
+        <v>124.3831787109375</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>483.3476257324219</v>
+        <v>497.0522766113281</v>
       </c>
       <c r="H48" t="n">
-        <v>50.7879753112793</v>
+        <v>54.31723785400391</v>
       </c>
       <c r="I48" t="n">
-        <v>861.8771362304688</v>
+        <v>922.0742797851562</v>
       </c>
       <c r="J48" t="n">
-        <v>203.375</v>
+        <v>135.8898315429688</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>610.5031127929688</v>
+        <v>626.8401489257812</v>
       </c>
       <c r="H49" t="n">
-        <v>53.03251647949219</v>
+        <v>56.49432373046875</v>
       </c>
       <c r="I49" t="n">
-        <v>973.570556640625</v>
+        <v>1032.919311523438</v>
       </c>
       <c r="J49" t="n">
-        <v>254.5607452392578</v>
+        <v>130.3100280761719</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>241.0010223388672</v>
+        <v>262.0216369628906</v>
       </c>
       <c r="H50" t="n">
-        <v>29.91615295410156</v>
+        <v>31.40519332885742</v>
       </c>
       <c r="I50" t="n">
-        <v>62.408447265625</v>
+        <v>-202.0445098876953</v>
       </c>
       <c r="J50" t="n">
-        <v>47.45509719848633</v>
+        <v>107.3600311279297</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>243.4763793945312</v>
+        <v>261.8970947265625</v>
       </c>
       <c r="H51" t="n">
-        <v>29.11929893493652</v>
+        <v>27.57878875732422</v>
       </c>
       <c r="I51" t="n">
-        <v>111.003173828125</v>
+        <v>-172.0501251220703</v>
       </c>
       <c r="J51" t="n">
-        <v>53.48281860351562</v>
+        <v>120.8932876586914</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>243.7455291748047</v>
+        <v>263.7895812988281</v>
       </c>
       <c r="H52" t="n">
-        <v>27.83786201477051</v>
+        <v>25.20232772827148</v>
       </c>
       <c r="I52" t="n">
-        <v>148.09375</v>
+        <v>-145.8828582763672</v>
       </c>
       <c r="J52" t="n">
-        <v>57.5135612487793</v>
+        <v>126.5213928222656</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>246.6181488037109</v>
+        <v>270.424560546875</v>
       </c>
       <c r="H53" t="n">
-        <v>23.82562255859375</v>
+        <v>22.29131507873535</v>
       </c>
       <c r="I53" t="n">
-        <v>258.5091247558594</v>
+        <v>-46.21498489379883</v>
       </c>
       <c r="J53" t="n">
-        <v>71.51807403564453</v>
+        <v>137.8458709716797</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>254.3421630859375</v>
+        <v>283.9183044433594</v>
       </c>
       <c r="H54" t="n">
-        <v>18.99582099914551</v>
+        <v>22.74632453918457</v>
       </c>
       <c r="I54" t="n">
-        <v>366.7444152832031</v>
+        <v>85.96314239501953</v>
       </c>
       <c r="J54" t="n">
-        <v>86.42314910888672</v>
+        <v>135.5656280517578</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>276.2245178222656</v>
+        <v>309.2933044433594</v>
       </c>
       <c r="H55" t="n">
-        <v>20.33245086669922</v>
+        <v>28.01237678527832</v>
       </c>
       <c r="I55" t="n">
-        <v>495.8529357910156</v>
+        <v>285.7846374511719</v>
       </c>
       <c r="J55" t="n">
-        <v>111.1086196899414</v>
+        <v>135.9302978515625</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>325.5383605957031</v>
+        <v>360.2808837890625</v>
       </c>
       <c r="H56" t="n">
-        <v>33.24259185791016</v>
+        <v>37.96429443359375</v>
       </c>
       <c r="I56" t="n">
-        <v>637.8627319335938</v>
+        <v>509.8116149902344</v>
       </c>
       <c r="J56" t="n">
-        <v>161.8587799072266</v>
+        <v>172.0711364746094</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>422.8211364746094</v>
+        <v>457.6089172363281</v>
       </c>
       <c r="H57" t="n">
-        <v>48.93392181396484</v>
+        <v>52.32723236083984</v>
       </c>
       <c r="I57" t="n">
-        <v>809.4580078125</v>
+        <v>829.8842163085938</v>
       </c>
       <c r="J57" t="n">
-        <v>212.0968322753906</v>
+        <v>188.970947265625</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>578.8161010742188</v>
+        <v>608.3438110351562</v>
       </c>
       <c r="H58" t="n">
-        <v>53.93229293823242</v>
+        <v>57.61504745483398</v>
       </c>
       <c r="I58" t="n">
-        <v>964.7686157226562</v>
+        <v>1027.442993164062</v>
       </c>
       <c r="J58" t="n">
-        <v>284.3273010253906</v>
+        <v>185.9412994384766</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>241.8954315185547</v>
+        <v>269.8849792480469</v>
       </c>
       <c r="H59" t="n">
-        <v>27.03916549682617</v>
+        <v>25.48657608032227</v>
       </c>
       <c r="I59" t="n">
-        <v>56.29473876953125</v>
+        <v>-266.7228393554688</v>
       </c>
       <c r="J59" t="n">
-        <v>61.36618423461914</v>
+        <v>124.7397003173828</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>242.6483154296875</v>
+        <v>274.83056640625</v>
       </c>
       <c r="H60" t="n">
-        <v>25.75972175598145</v>
+        <v>23.19758224487305</v>
       </c>
       <c r="I60" t="n">
-        <v>124.2841110229492</v>
+        <v>-241.319091796875</v>
       </c>
       <c r="J60" t="n">
-        <v>76.2098388671875</v>
+        <v>141.1914825439453</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>245.7582244873047</v>
+        <v>281.5702209472656</v>
       </c>
       <c r="H61" t="n">
-        <v>23.48833847045898</v>
+        <v>21.39528465270996</v>
       </c>
       <c r="I61" t="n">
-        <v>198.3232421875</v>
+        <v>-175.5646514892578</v>
       </c>
       <c r="J61" t="n">
-        <v>83.38767242431641</v>
+        <v>152.1094970703125</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>252.567138671875</v>
+        <v>294.3547058105469</v>
       </c>
       <c r="H62" t="n">
-        <v>19.59274482727051</v>
+        <v>22.46139526367188</v>
       </c>
       <c r="I62" t="n">
-        <v>313.6102600097656</v>
+        <v>-66.38614654541016</v>
       </c>
       <c r="J62" t="n">
-        <v>101.6689453125</v>
+        <v>163.0486145019531</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>269.6992797851562</v>
+        <v>315.7535400390625</v>
       </c>
       <c r="H63" t="n">
-        <v>19.25650978088379</v>
+        <v>27.66164779663086</v>
       </c>
       <c r="I63" t="n">
-        <v>449.7352600097656</v>
+        <v>115.3911743164062</v>
       </c>
       <c r="J63" t="n">
-        <v>125.7386169433594</v>
+        <v>172.0099334716797</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>314.1137390136719</v>
+        <v>363.2163391113281</v>
       </c>
       <c r="H64" t="n">
-        <v>31.37889862060547</v>
+        <v>38.0515022277832</v>
       </c>
       <c r="I64" t="n">
-        <v>616.307373046875</v>
+        <v>380.8639831542969</v>
       </c>
       <c r="J64" t="n">
-        <v>176.353271484375</v>
+        <v>211.6711730957031</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>406.7998046875</v>
+        <v>453.6797180175781</v>
       </c>
       <c r="H65" t="n">
-        <v>48.3326301574707</v>
+        <v>52.25543975830078</v>
       </c>
       <c r="I65" t="n">
-        <v>803.3700561523438</v>
+        <v>760.2434692382812</v>
       </c>
       <c r="J65" t="n">
-        <v>235.3126220703125</v>
+        <v>250.6665496826172</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>243.3448944091797</v>
+        <v>289.0721130371094</v>
       </c>
       <c r="H66" t="n">
-        <v>24.47057914733887</v>
+        <v>20.94252586364746</v>
       </c>
       <c r="I66" t="n">
-        <v>76.55363464355469</v>
+        <v>-306.8746643066406</v>
       </c>
       <c r="J66" t="n">
-        <v>80.97309112548828</v>
+        <v>137.544189453125</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>245.3022613525391</v>
+        <v>295.4372863769531</v>
       </c>
       <c r="H67" t="n">
-        <v>22.8712043762207</v>
+        <v>20.47090721130371</v>
       </c>
       <c r="I67" t="n">
-        <v>135.5299377441406</v>
+        <v>-277.1605834960938</v>
       </c>
       <c r="J67" t="n">
-        <v>91.63248443603516</v>
+        <v>148.7181396484375</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>255.210205078125</v>
+        <v>311.682861328125</v>
       </c>
       <c r="H68" t="n">
-        <v>19.25149917602539</v>
+        <v>23.12936592102051</v>
       </c>
       <c r="I68" t="n">
-        <v>293.5085754394531</v>
+        <v>-146.2691955566406</v>
       </c>
       <c r="J68" t="n">
-        <v>116.4591598510742</v>
+        <v>175.6869506835938</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>266.267333984375</v>
+        <v>325.4335327148438</v>
       </c>
       <c r="H69" t="n">
-        <v>18.90610694885254</v>
+        <v>26.9456615447998</v>
       </c>
       <c r="I69" t="n">
-        <v>394.4350280761719</v>
+        <v>-29.56919860839844</v>
       </c>
       <c r="J69" t="n">
-        <v>134.4024353027344</v>
+        <v>188.727783203125</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>307.4570922851562</v>
+        <v>370.38232421875</v>
       </c>
       <c r="H70" t="n">
-        <v>29.72086143493652</v>
+        <v>38.47846603393555</v>
       </c>
       <c r="I70" t="n">
-        <v>604.8897094726562</v>
+        <v>305.6231384277344</v>
       </c>
       <c r="J70" t="n">
-        <v>180.6332244873047</v>
+        <v>236.3741607666016</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>307.2772521972656</v>
+        <v>286.6346740722656</v>
       </c>
       <c r="H2" t="n">
-        <v>49.27613830566406</v>
+        <v>38.66703796386719</v>
       </c>
       <c r="I2" t="n">
-        <v>730.1013793945312</v>
+        <v>727.4678344726562</v>
       </c>
       <c r="J2" t="n">
-        <v>52.18032073974609</v>
+        <v>36.29024505615234</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>343.4638366699219</v>
+        <v>352.2039184570312</v>
       </c>
       <c r="H3" t="n">
-        <v>59.63093185424805</v>
+        <v>38.60312652587891</v>
       </c>
       <c r="I3" t="n">
-        <v>770.707763671875</v>
+        <v>772.548828125</v>
       </c>
       <c r="J3" t="n">
-        <v>63.4660758972168</v>
+        <v>45.7060432434082</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>386.872314453125</v>
+        <v>419.3192749023438</v>
       </c>
       <c r="H4" t="n">
-        <v>69.06742095947266</v>
+        <v>36.91772079467773</v>
       </c>
       <c r="I4" t="n">
-        <v>790.1880493164062</v>
+        <v>805.136962890625</v>
       </c>
       <c r="J4" t="n">
-        <v>71.39658355712891</v>
+        <v>56.9340934753418</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>442.1741638183594</v>
+        <v>491.5518188476562</v>
       </c>
       <c r="H5" t="n">
-        <v>78.17903137207031</v>
+        <v>34.60724639892578</v>
       </c>
       <c r="I5" t="n">
-        <v>806.47509765625</v>
+        <v>837.9252319335938</v>
       </c>
       <c r="J5" t="n">
-        <v>80.02978515625</v>
+        <v>70.79378509521484</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>517.7008666992188</v>
+        <v>577.5119018554688</v>
       </c>
       <c r="H6" t="n">
-        <v>85.50635528564453</v>
+        <v>33.86007308959961</v>
       </c>
       <c r="I6" t="n">
-        <v>810.361083984375</v>
+        <v>873.0885620117188</v>
       </c>
       <c r="J6" t="n">
-        <v>92.90272521972656</v>
+        <v>91.69491577148438</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>264.0889587402344</v>
+        <v>207.5720672607422</v>
       </c>
       <c r="H7" t="n">
-        <v>34.85969543457031</v>
+        <v>31.93049812316895</v>
       </c>
       <c r="I7" t="n">
-        <v>594.9660034179688</v>
+        <v>591.5609741210938</v>
       </c>
       <c r="J7" t="n">
-        <v>16.94675254821777</v>
+        <v>21.21932220458984</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>272.5440063476562</v>
+        <v>235.2383270263672</v>
       </c>
       <c r="H8" t="n">
-        <v>34.12258529663086</v>
+        <v>30.28433609008789</v>
       </c>
       <c r="I8" t="n">
-        <v>658.3442993164062</v>
+        <v>652.7310791015625</v>
       </c>
       <c r="J8" t="n">
-        <v>17.60093879699707</v>
+        <v>27.38572311401367</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>298.2522277832031</v>
+        <v>295.7829284667969</v>
       </c>
       <c r="H9" t="n">
-        <v>35.48012924194336</v>
+        <v>29.04866027832031</v>
       </c>
       <c r="I9" t="n">
-        <v>730.2117309570312</v>
+        <v>731.7544555664062</v>
       </c>
       <c r="J9" t="n">
-        <v>30.44208717346191</v>
+        <v>39.36281204223633</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>332.5601501464844</v>
+        <v>354.8377990722656</v>
       </c>
       <c r="H10" t="n">
-        <v>39.01350784301758</v>
+        <v>28.47849273681641</v>
       </c>
       <c r="I10" t="n">
-        <v>766.3969116210938</v>
+        <v>782.9761962890625</v>
       </c>
       <c r="J10" t="n">
-        <v>40.54360580444336</v>
+        <v>50.39578628540039</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>399.388671875</v>
+        <v>442.6788635253906</v>
       </c>
       <c r="H11" t="n">
-        <v>47.99707412719727</v>
+        <v>27.19545555114746</v>
       </c>
       <c r="I11" t="n">
-        <v>805.5466918945312</v>
+        <v>846.896728515625</v>
       </c>
       <c r="J11" t="n">
-        <v>56.0921516418457</v>
+        <v>69.05692291259766</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>476.8155822753906</v>
+        <v>525.4411010742188</v>
       </c>
       <c r="H12" t="n">
-        <v>57.45206832885742</v>
+        <v>26.26131439208984</v>
       </c>
       <c r="I12" t="n">
-        <v>839.161376953125</v>
+        <v>909.1494750976562</v>
       </c>
       <c r="J12" t="n">
-        <v>74.41989135742188</v>
+        <v>96.49139404296875</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>581.5643920898438</v>
+        <v>621.7192993164062</v>
       </c>
       <c r="H13" t="n">
-        <v>62.81730270385742</v>
+        <v>26.92918586730957</v>
       </c>
       <c r="I13" t="n">
-        <v>871.175537109375</v>
+        <v>990.0159301757812</v>
       </c>
       <c r="J13" t="n">
-        <v>96.24054718017578</v>
+        <v>133.6463165283203</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>256.7065734863281</v>
+        <v>173.97802734375</v>
       </c>
       <c r="H14" t="n">
-        <v>38.00473785400391</v>
+        <v>38.22361373901367</v>
       </c>
       <c r="I14" t="n">
-        <v>350.7026672363281</v>
+        <v>372.5806579589844</v>
       </c>
       <c r="J14" t="n">
-        <v>46.15641784667969</v>
+        <v>21.73219680786133</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>255.3037872314453</v>
+        <v>190.5691223144531</v>
       </c>
       <c r="H15" t="n">
-        <v>33.85488128662109</v>
+        <v>31.37069702148438</v>
       </c>
       <c r="I15" t="n">
-        <v>465.5414733886719</v>
+        <v>480.3306884765625</v>
       </c>
       <c r="J15" t="n">
-        <v>39.03096008300781</v>
+        <v>17.40806579589844</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>262.878173828125</v>
+        <v>240.9197845458984</v>
       </c>
       <c r="H16" t="n">
-        <v>28.8399543762207</v>
+        <v>22.58136177062988</v>
       </c>
       <c r="I16" t="n">
-        <v>594.0292358398438</v>
+        <v>620.6934814453125</v>
       </c>
       <c r="J16" t="n">
-        <v>29.84403038024902</v>
+        <v>25.24640846252441</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>267.7890930175781</v>
+        <v>250.2477874755859</v>
       </c>
       <c r="H17" t="n">
-        <v>27.3911190032959</v>
+        <v>22.40192222595215</v>
       </c>
       <c r="I17" t="n">
-        <v>638.42333984375</v>
+        <v>649.13037109375</v>
       </c>
       <c r="J17" t="n">
-        <v>26.59842491149902</v>
+        <v>32.15353393554688</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>293.7545471191406</v>
+        <v>305.2230834960938</v>
       </c>
       <c r="H18" t="n">
-        <v>26.1374626159668</v>
+        <v>21.36366081237793</v>
       </c>
       <c r="I18" t="n">
-        <v>721.6731567382812</v>
+        <v>738.8530883789062</v>
       </c>
       <c r="J18" t="n">
-        <v>28.1042652130127</v>
+        <v>44.85559463500977</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>350.89697265625</v>
+        <v>386.7899169921875</v>
       </c>
       <c r="H19" t="n">
-        <v>29.71303367614746</v>
+        <v>21.19556427001953</v>
       </c>
       <c r="I19" t="n">
-        <v>794.3417358398438</v>
+        <v>837.6795654296875</v>
       </c>
       <c r="J19" t="n">
-        <v>39.86985015869141</v>
+        <v>68.72727966308594</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0908508300781</v>
+        <v>474.8506164550781</v>
       </c>
       <c r="H20" t="n">
-        <v>39.94125747680664</v>
+        <v>20.82220077514648</v>
       </c>
       <c r="I20" t="n">
-        <v>853.9970092773438</v>
+        <v>928.4715576171875</v>
       </c>
       <c r="J20" t="n">
-        <v>56.68548583984375</v>
+        <v>96.42373657226562</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>553.5888061523438</v>
+        <v>578.0209350585938</v>
       </c>
       <c r="H21" t="n">
-        <v>51.21014022827148</v>
+        <v>21.09195709228516</v>
       </c>
       <c r="I21" t="n">
-        <v>908.6303100585938</v>
+        <v>1031.213134765625</v>
       </c>
       <c r="J21" t="n">
-        <v>81.95567321777344</v>
+        <v>140.5532531738281</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>687.5387573242188</v>
+        <v>693.9209594726562</v>
       </c>
       <c r="H22" t="n">
-        <v>52.68821334838867</v>
+        <v>24.66794776916504</v>
       </c>
       <c r="I22" t="n">
-        <v>955.3114624023438</v>
+        <v>1140.181396484375</v>
       </c>
       <c r="J22" t="n">
-        <v>116.9642715454102</v>
+        <v>197.4011535644531</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>256.388427734375</v>
+        <v>176.3704071044922</v>
       </c>
       <c r="H23" t="n">
-        <v>37.25382995605469</v>
+        <v>38.65684509277344</v>
       </c>
       <c r="I23" t="n">
-        <v>198.2503509521484</v>
+        <v>255.15234375</v>
       </c>
       <c r="J23" t="n">
-        <v>62.44062042236328</v>
+        <v>43.85419845581055</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>254.0901489257812</v>
+        <v>185.3005523681641</v>
       </c>
       <c r="H24" t="n">
-        <v>33.65697479248047</v>
+        <v>33.0865478515625</v>
       </c>
       <c r="I24" t="n">
-        <v>268.2900085449219</v>
+        <v>327.4263916015625</v>
       </c>
       <c r="J24" t="n">
-        <v>61.36677169799805</v>
+        <v>35.78519058227539</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>252.5891723632812</v>
+        <v>204.1108703613281</v>
       </c>
       <c r="H25" t="n">
-        <v>29.14223670959473</v>
+        <v>25.48168563842773</v>
       </c>
       <c r="I25" t="n">
-        <v>385.2710266113281</v>
+        <v>440.7880249023438</v>
       </c>
       <c r="J25" t="n">
-        <v>54.27597045898438</v>
+        <v>25.55753517150879</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>256.4928894042969</v>
+        <v>229.2055969238281</v>
       </c>
       <c r="H26" t="n">
-        <v>25.68303108215332</v>
+        <v>20.34423065185547</v>
       </c>
       <c r="I26" t="n">
-        <v>492.1037292480469</v>
+        <v>540.3136596679688</v>
       </c>
       <c r="J26" t="n">
-        <v>46.5169792175293</v>
+        <v>24.67881774902344</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>271.3376770019531</v>
+        <v>270.3202514648438</v>
       </c>
       <c r="H27" t="n">
-        <v>23.67830657958984</v>
+        <v>17.61980819702148</v>
       </c>
       <c r="I27" t="n">
-        <v>596.5029296875</v>
+        <v>647.243896484375</v>
       </c>
       <c r="J27" t="n">
-        <v>43.46536636352539</v>
+        <v>35.32066345214844</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3567199707031</v>
+        <v>343.3275146484375</v>
       </c>
       <c r="H28" t="n">
-        <v>27.08206176757812</v>
+        <v>18.94792556762695</v>
       </c>
       <c r="I28" t="n">
-        <v>736.7578125</v>
+        <v>792.9329833984375</v>
       </c>
       <c r="J28" t="n">
-        <v>46.31342697143555</v>
+        <v>61.65254974365234</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>395.7881164550781</v>
+        <v>425.4008178710938</v>
       </c>
       <c r="H29" t="n">
-        <v>35.40624237060547</v>
+        <v>19.9432430267334</v>
       </c>
       <c r="I29" t="n">
-        <v>839.6111450195312</v>
+        <v>915.703857421875</v>
       </c>
       <c r="J29" t="n">
-        <v>56.95706176757812</v>
+        <v>94.64714813232422</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>536.8497924804688</v>
+        <v>545.681640625</v>
       </c>
       <c r="H30" t="n">
-        <v>50.69047546386719</v>
+        <v>20.19350814819336</v>
       </c>
       <c r="I30" t="n">
-        <v>937.4234008789062</v>
+        <v>1068.14990234375</v>
       </c>
       <c r="J30" t="n">
-        <v>77.77333068847656</v>
+        <v>144.8356781005859</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>680.33203125</v>
+        <v>662.19482421875</v>
       </c>
       <c r="H31" t="n">
-        <v>53.17208099365234</v>
+        <v>21.4249439239502</v>
       </c>
       <c r="I31" t="n">
-        <v>998.1918334960938</v>
+        <v>1192.618286132812</v>
       </c>
       <c r="J31" t="n">
-        <v>104.8777542114258</v>
+        <v>205.7190551757812</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>258.6373291015625</v>
+        <v>182.2198638916016</v>
       </c>
       <c r="H32" t="n">
-        <v>36.37565994262695</v>
+        <v>39.11750793457031</v>
       </c>
       <c r="I32" t="n">
-        <v>34.74073791503906</v>
+        <v>119.94921875</v>
       </c>
       <c r="J32" t="n">
-        <v>80.38545989990234</v>
+        <v>71.64262390136719</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>254.5035247802734</v>
+        <v>191.5560455322266</v>
       </c>
       <c r="H33" t="n">
-        <v>32.01141357421875</v>
+        <v>31.7381420135498</v>
       </c>
       <c r="I33" t="n">
-        <v>103.2602005004883</v>
+        <v>210.4725799560547</v>
       </c>
       <c r="J33" t="n">
-        <v>83.59181213378906</v>
+        <v>63.90522384643555</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>252.7886352539062</v>
+        <v>206.5021209716797</v>
       </c>
       <c r="H34" t="n">
-        <v>27.75622749328613</v>
+        <v>24.63176155090332</v>
       </c>
       <c r="I34" t="n">
-        <v>198.9606323242188</v>
+        <v>317.1720275878906</v>
       </c>
       <c r="J34" t="n">
-        <v>79.73984527587891</v>
+        <v>51.18809127807617</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>256.1221008300781</v>
+        <v>228.2733917236328</v>
       </c>
       <c r="H35" t="n">
-        <v>24.29619789123535</v>
+        <v>19.20358276367188</v>
       </c>
       <c r="I35" t="n">
-        <v>289.44677734375</v>
+        <v>416.0624389648438</v>
       </c>
       <c r="J35" t="n">
-        <v>74.16706085205078</v>
+        <v>40.6494140625</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>271.5272521972656</v>
+        <v>267.2318115234375</v>
       </c>
       <c r="H36" t="n">
-        <v>23.35583877563477</v>
+        <v>17.3061695098877</v>
       </c>
       <c r="I36" t="n">
-        <v>468.9771728515625</v>
+        <v>577.6322021484375</v>
       </c>
       <c r="J36" t="n">
-        <v>62.24658584594727</v>
+        <v>33.7840576171875</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>304.2245178222656</v>
+        <v>315.8648071289062</v>
       </c>
       <c r="H37" t="n">
-        <v>28.24479866027832</v>
+        <v>19.73218727111816</v>
       </c>
       <c r="I37" t="n">
-        <v>609.1900024414062</v>
+        <v>715.2507934570312</v>
       </c>
       <c r="J37" t="n">
-        <v>67.830810546875</v>
+        <v>50.06576919555664</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>387.71240234375</v>
+        <v>402.6417541503906</v>
       </c>
       <c r="H38" t="n">
-        <v>39.69563674926758</v>
+        <v>22.72538757324219</v>
       </c>
       <c r="I38" t="n">
-        <v>808.1265258789062</v>
+        <v>905.1552124023438</v>
       </c>
       <c r="J38" t="n">
-        <v>79.09305572509766</v>
+        <v>92.66001892089844</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>501.6159973144531</v>
+        <v>496.3283386230469</v>
       </c>
       <c r="H39" t="n">
-        <v>50.68057250976562</v>
+        <v>22.93778228759766</v>
       </c>
       <c r="I39" t="n">
-        <v>930.0036010742188</v>
+        <v>1054.813598632812</v>
       </c>
       <c r="J39" t="n">
-        <v>96.63987731933594</v>
+        <v>145.6831207275391</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>664.5670166015625</v>
+        <v>628.141845703125</v>
       </c>
       <c r="H40" t="n">
-        <v>54.28878021240234</v>
+        <v>23.36046409606934</v>
       </c>
       <c r="I40" t="n">
-        <v>1027.989990234375</v>
+        <v>1227.959838867188</v>
       </c>
       <c r="J40" t="n">
-        <v>109.4854583740234</v>
+        <v>210.1622161865234</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>259.2848815917969</v>
+        <v>192.56494140625</v>
       </c>
       <c r="H41" t="n">
-        <v>33.65549087524414</v>
+        <v>35.84353256225586</v>
       </c>
       <c r="I41" t="n">
-        <v>-87.22316741943359</v>
+        <v>24.43814849853516</v>
       </c>
       <c r="J41" t="n">
-        <v>97.62754058837891</v>
+        <v>95.60906982421875</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>257.0820007324219</v>
+        <v>200.5571441650391</v>
       </c>
       <c r="H42" t="n">
-        <v>30.11856079101562</v>
+        <v>29.98457336425781</v>
       </c>
       <c r="I42" t="n">
-        <v>-50.472412109375</v>
+        <v>92.48748016357422</v>
       </c>
       <c r="J42" t="n">
-        <v>105.8908843994141</v>
+        <v>91.93474578857422</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>256.8323364257812</v>
+        <v>209.1123657226562</v>
       </c>
       <c r="H43" t="n">
-        <v>27.34450149536133</v>
+        <v>25.58474922180176</v>
       </c>
       <c r="I43" t="n">
-        <v>-6.784589290618896</v>
+        <v>155.5200500488281</v>
       </c>
       <c r="J43" t="n">
-        <v>107.8506164550781</v>
+        <v>84.28924560546875</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>260.8026733398438</v>
+        <v>233.2919769287109</v>
       </c>
       <c r="H44" t="n">
-        <v>23.18154716491699</v>
+        <v>18.89929580688477</v>
       </c>
       <c r="I44" t="n">
-        <v>139.2924346923828</v>
+        <v>325.0784301757812</v>
       </c>
       <c r="J44" t="n">
-        <v>104.2318954467773</v>
+        <v>64.07511901855469</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>271.1011047363281</v>
+        <v>254.9698181152344</v>
       </c>
       <c r="H45" t="n">
-        <v>22.59990310668945</v>
+        <v>18.00079727172852</v>
       </c>
       <c r="I45" t="n">
-        <v>242.8448944091797</v>
+        <v>427.8540649414062</v>
       </c>
       <c r="J45" t="n">
-        <v>97.29900360107422</v>
+        <v>49.34781265258789</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>301.281005859375</v>
+        <v>298.9901428222656</v>
       </c>
       <c r="H46" t="n">
-        <v>27.91093254089355</v>
+        <v>21.00388336181641</v>
       </c>
       <c r="I46" t="n">
-        <v>439.8240051269531</v>
+        <v>608.4699096679688</v>
       </c>
       <c r="J46" t="n">
-        <v>98.76575469970703</v>
+        <v>43.96372222900391</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>373.8214111328125</v>
+        <v>371.6120910644531</v>
       </c>
       <c r="H47" t="n">
-        <v>40.5206298828125</v>
+        <v>26.02338981628418</v>
       </c>
       <c r="I47" t="n">
-        <v>696.4749145507812</v>
+        <v>830.6946411132812</v>
       </c>
       <c r="J47" t="n">
-        <v>124.3831787109375</v>
+        <v>85.05152130126953</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>497.0522766113281</v>
+        <v>476.3796997070312</v>
       </c>
       <c r="H48" t="n">
-        <v>54.31723785400391</v>
+        <v>27.19934272766113</v>
       </c>
       <c r="I48" t="n">
-        <v>922.0742797851562</v>
+        <v>1059.458740234375</v>
       </c>
       <c r="J48" t="n">
-        <v>135.8898315429688</v>
+        <v>149.6621704101562</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>626.8401489257812</v>
+        <v>581.1011962890625</v>
       </c>
       <c r="H49" t="n">
-        <v>56.49432373046875</v>
+        <v>26.53747177124023</v>
       </c>
       <c r="I49" t="n">
-        <v>1032.919311523438</v>
+        <v>1219.219482421875</v>
       </c>
       <c r="J49" t="n">
-        <v>130.3100280761719</v>
+        <v>204.222412109375</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>262.0216369628906</v>
+        <v>204.5015716552734</v>
       </c>
       <c r="H50" t="n">
-        <v>31.40519332885742</v>
+        <v>32.22551727294922</v>
       </c>
       <c r="I50" t="n">
-        <v>-202.0445098876953</v>
+        <v>-77.38218688964844</v>
       </c>
       <c r="J50" t="n">
-        <v>107.3600311279297</v>
+        <v>114.8382949829102</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>261.8970947265625</v>
+        <v>213.5038909912109</v>
       </c>
       <c r="H51" t="n">
-        <v>27.57878875732422</v>
+        <v>26.55450248718262</v>
       </c>
       <c r="I51" t="n">
-        <v>-172.0501251220703</v>
+        <v>-2.473795413970947</v>
       </c>
       <c r="J51" t="n">
-        <v>120.8932876586914</v>
+        <v>112.1641006469727</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>263.7895812988281</v>
+        <v>221.09130859375</v>
       </c>
       <c r="H52" t="n">
-        <v>25.20232772827148</v>
+        <v>23.39740753173828</v>
       </c>
       <c r="I52" t="n">
-        <v>-145.8828582763672</v>
+        <v>47.32864761352539</v>
       </c>
       <c r="J52" t="n">
-        <v>126.5213928222656</v>
+        <v>106.0331726074219</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>270.424560546875</v>
+        <v>239.5847320556641</v>
       </c>
       <c r="H53" t="n">
-        <v>22.29131507873535</v>
+        <v>19.14825248718262</v>
       </c>
       <c r="I53" t="n">
-        <v>-46.21498489379883</v>
+        <v>189.4224700927734</v>
       </c>
       <c r="J53" t="n">
-        <v>137.8458709716797</v>
+        <v>91.37616729736328</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>283.9183044433594</v>
+        <v>261.7435302734375</v>
       </c>
       <c r="H54" t="n">
-        <v>22.74632453918457</v>
+        <v>19.17257118225098</v>
       </c>
       <c r="I54" t="n">
-        <v>85.96314239501953</v>
+        <v>329.684326171875</v>
       </c>
       <c r="J54" t="n">
-        <v>135.5656280517578</v>
+        <v>69.01826477050781</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>309.2933044433594</v>
+        <v>294.3433227539062</v>
       </c>
       <c r="H55" t="n">
-        <v>28.01237678527832</v>
+        <v>22.35236740112305</v>
       </c>
       <c r="I55" t="n">
-        <v>285.7846374511719</v>
+        <v>507.4938659667969</v>
       </c>
       <c r="J55" t="n">
-        <v>135.9302978515625</v>
+        <v>51.16634750366211</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>360.2808837890625</v>
+        <v>343.8655090332031</v>
       </c>
       <c r="H56" t="n">
-        <v>37.96429443359375</v>
+        <v>27.07522010803223</v>
       </c>
       <c r="I56" t="n">
-        <v>509.8116149902344</v>
+        <v>697.87451171875</v>
       </c>
       <c r="J56" t="n">
-        <v>172.0711364746094</v>
+        <v>76.45437622070312</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>457.6089172363281</v>
+        <v>426.2726745605469</v>
       </c>
       <c r="H57" t="n">
-        <v>52.32723236083984</v>
+        <v>31.19110679626465</v>
       </c>
       <c r="I57" t="n">
-        <v>829.8842163085938</v>
+        <v>967.7035522460938</v>
       </c>
       <c r="J57" t="n">
-        <v>188.970947265625</v>
+        <v>135.9614562988281</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>608.3438110351562</v>
+        <v>551.0255737304688</v>
       </c>
       <c r="H58" t="n">
-        <v>57.61504745483398</v>
+        <v>30.63055610656738</v>
       </c>
       <c r="I58" t="n">
-        <v>1027.442993164062</v>
+        <v>1214.977294921875</v>
       </c>
       <c r="J58" t="n">
-        <v>185.9412994384766</v>
+        <v>214.5843048095703</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>269.8849792480469</v>
+        <v>225.2998504638672</v>
       </c>
       <c r="H59" t="n">
-        <v>25.48657608032227</v>
+        <v>24.1730899810791</v>
       </c>
       <c r="I59" t="n">
-        <v>-266.7228393554688</v>
+        <v>-92.44535827636719</v>
       </c>
       <c r="J59" t="n">
-        <v>124.7397003173828</v>
+        <v>123.8862533569336</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>274.83056640625</v>
+        <v>235.0699005126953</v>
       </c>
       <c r="H60" t="n">
-        <v>23.19758224487305</v>
+        <v>21.03234672546387</v>
       </c>
       <c r="I60" t="n">
-        <v>-241.319091796875</v>
+        <v>-24.58625030517578</v>
       </c>
       <c r="J60" t="n">
-        <v>141.1914825439453</v>
+        <v>120.9284973144531</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>281.5702209472656</v>
+        <v>245.5753631591797</v>
       </c>
       <c r="H61" t="n">
-        <v>21.39528465270996</v>
+        <v>19.52959060668945</v>
       </c>
       <c r="I61" t="n">
-        <v>-175.5646514892578</v>
+        <v>70.85366821289062</v>
       </c>
       <c r="J61" t="n">
-        <v>152.1094970703125</v>
+        <v>107.2380676269531</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>294.3547058105469</v>
+        <v>262.8436584472656</v>
       </c>
       <c r="H62" t="n">
-        <v>22.46139526367188</v>
+        <v>19.84781265258789</v>
       </c>
       <c r="I62" t="n">
-        <v>-66.38614654541016</v>
+        <v>204.6864929199219</v>
       </c>
       <c r="J62" t="n">
-        <v>163.0486145019531</v>
+        <v>88.34405517578125</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>315.7535400390625</v>
+        <v>287.9654235839844</v>
       </c>
       <c r="H63" t="n">
-        <v>27.66164779663086</v>
+        <v>22.82997894287109</v>
       </c>
       <c r="I63" t="n">
-        <v>115.3911743164062</v>
+        <v>381.2454833984375</v>
       </c>
       <c r="J63" t="n">
-        <v>172.0099334716797</v>
+        <v>65.66783142089844</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>363.2163391113281</v>
+        <v>332.9122009277344</v>
       </c>
       <c r="H64" t="n">
-        <v>38.0515022277832</v>
+        <v>28.22874069213867</v>
       </c>
       <c r="I64" t="n">
-        <v>380.8639831542969</v>
+        <v>605.008056640625</v>
       </c>
       <c r="J64" t="n">
-        <v>211.6711730957031</v>
+        <v>71.99343109130859</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>453.6797180175781</v>
+        <v>410.0643310546875</v>
       </c>
       <c r="H65" t="n">
-        <v>52.25543975830078</v>
+        <v>33.31330871582031</v>
       </c>
       <c r="I65" t="n">
-        <v>760.2434692382812</v>
+        <v>913.80908203125</v>
       </c>
       <c r="J65" t="n">
-        <v>250.6665496826172</v>
+        <v>140.1377410888672</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>289.0721130371094</v>
+        <v>245.5031280517578</v>
       </c>
       <c r="H66" t="n">
-        <v>20.94252586364746</v>
+        <v>20.46892356872559</v>
       </c>
       <c r="I66" t="n">
-        <v>-306.8746643066406</v>
+        <v>-98.31715393066406</v>
       </c>
       <c r="J66" t="n">
-        <v>137.544189453125</v>
+        <v>118.902946472168</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>295.4372863769531</v>
+        <v>252.3630676269531</v>
       </c>
       <c r="H67" t="n">
-        <v>20.47090721130371</v>
+        <v>19.88265228271484</v>
       </c>
       <c r="I67" t="n">
-        <v>-277.1605834960938</v>
+        <v>-44.19174194335938</v>
       </c>
       <c r="J67" t="n">
-        <v>148.7181396484375</v>
+        <v>111.6952896118164</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>311.682861328125</v>
+        <v>270.4766540527344</v>
       </c>
       <c r="H68" t="n">
-        <v>23.12936592102051</v>
+        <v>20.86809539794922</v>
       </c>
       <c r="I68" t="n">
-        <v>-146.2691955566406</v>
+        <v>126.5303268432617</v>
       </c>
       <c r="J68" t="n">
-        <v>175.6869506835938</v>
+        <v>91.22281646728516</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>325.4335327148438</v>
+        <v>285.1112976074219</v>
       </c>
       <c r="H69" t="n">
-        <v>26.9456615447998</v>
+        <v>22.8803539276123</v>
       </c>
       <c r="I69" t="n">
-        <v>-29.56919860839844</v>
+        <v>247.1989135742188</v>
       </c>
       <c r="J69" t="n">
-        <v>188.727783203125</v>
+        <v>76.35138702392578</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>370.38232421875</v>
+        <v>326.7552185058594</v>
       </c>
       <c r="H70" t="n">
-        <v>38.47846603393555</v>
+        <v>29.01616287231445</v>
       </c>
       <c r="I70" t="n">
-        <v>305.6231384277344</v>
+        <v>531.1626586914062</v>
       </c>
       <c r="J70" t="n">
-        <v>236.3741607666016</v>
+        <v>71.13609313964844</v>
       </c>
     </row>
   </sheetData>
